--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -59,7 +59,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -82,28 +82,61 @@
     </border>
     <border>
       <left style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
     <border>
       <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -545,35 +578,35 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CLIENT:  </t>
+          <t xml:space="preserve">CLIENT: Yazan </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NAME:  </t>
+          <t xml:space="preserve">PROJECT NAME: Project </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NUMBER:  </t>
+          <t xml:space="preserve">PROJECT NUMBER: UK1212 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DATE OF VISIT: 2024-09-22 </t>
+          <t xml:space="preserve">DATE OF VISIT: 2024-09-23 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENGINEER(s):  </t>
+          <t xml:space="preserve">ENGINEER(s): Yazan, Mi,e </t>
         </is>
       </c>
     </row>
@@ -603,7 +636,7 @@
     <row r="17">
       <c r="A17" s="9" t="inlineStr">
         <is>
-          <t>addaad</t>
+          <t>Drawing Number: 	121221</t>
         </is>
       </c>
       <c r="B17" s="10" t="n"/>
@@ -613,11 +646,778 @@
       <c r="F17" s="10" t="n"/>
       <c r="G17" s="10" t="n"/>
       <c r="H17" s="10" t="n"/>
-      <c r="I17" s="10" t="n"/>
+      <c r="I17" s="11" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>Location: 	Loc1</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="10" t="n"/>
+      <c r="G18" s="10" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="11" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>Model: 	KVF</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="10" t="n"/>
+      <c r="G19" s="10" t="n"/>
+      <c r="H19" s="10" t="n"/>
+      <c r="I19" s="11" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	2</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="10" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="10" t="n"/>
+      <c r="G20" s="10" t="n"/>
+      <c r="H20" s="10" t="n"/>
+      <c r="I20" s="11" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="10" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="10" t="n"/>
+      <c r="G21" s="10" t="n"/>
+      <c r="H21" s="10" t="n"/>
+      <c r="I21" s="11" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR READINGS</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
+      <c r="H22" s="7" t="n"/>
+      <c r="I22" s="7" t="n"/>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="12" t="inlineStr">
+        <is>
+          <t>Module #</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="inlineStr">
+        <is>
+          <t>T.A.B Point Reading (Pa)</t>
+        </is>
+      </c>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="12" t="inlineStr">
+        <is>
+          <t>K-Factor (m3 /h)</t>
+        </is>
+      </c>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="12" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /h)</t>
+        </is>
+      </c>
+      <c r="G23" s="13" t="n"/>
+      <c r="H23" s="12" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /s)</t>
+        </is>
+      </c>
+      <c r="I23" s="13" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 200.0 pa</t>
+        </is>
+      </c>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 215.4</t>
+        </is>
+      </c>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3046.22</t>
+        </is>
+      </c>
+      <c r="G24" s="13" t="n"/>
+      <c r="H24" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 300.0</t>
+        </is>
+      </c>
+      <c r="I24" s="13" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 300.0 pa</t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 215.4</t>
+        </is>
+      </c>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3730.84</t>
+        </is>
+      </c>
+      <c r="G25" s="13" t="n"/>
+      <c r="H25" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4999.99</t>
+        </is>
+      </c>
+      <c r="I25" s="13" t="n"/>
+    </row>
+    <row r="26">
+      <c r="F26" s="14" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                5299.99 m3/s</t>
+        </is>
+      </c>
+      <c r="G26" s="13" t="n"/>
+      <c r="H26" s="13" t="n"/>
+      <c r="I26" s="13" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>SUPPLY AIR DATA</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
+      <c r="H28" s="7" t="n"/>
+      <c r="I28" s="7" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="inlineStr">
+        <is>
+          <t>Drawing Number: 	121221</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="10" t="n"/>
+      <c r="E29" s="10" t="n"/>
+      <c r="F29" s="10" t="n"/>
+      <c r="G29" s="10" t="n"/>
+      <c r="H29" s="10" t="n"/>
+      <c r="I29" s="11" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>Location: 	Loc1</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n"/>
+      <c r="C30" s="10" t="n"/>
+      <c r="D30" s="10" t="n"/>
+      <c r="E30" s="10" t="n"/>
+      <c r="F30" s="10" t="n"/>
+      <c r="G30" s="10" t="n"/>
+      <c r="H30" s="10" t="n"/>
+      <c r="I30" s="11" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>Model: 	KVF</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
+      <c r="E31" s="10" t="n"/>
+      <c r="F31" s="10" t="n"/>
+      <c r="G31" s="10" t="n"/>
+      <c r="H31" s="10" t="n"/>
+      <c r="I31" s="11" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	2</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n"/>
+      <c r="C32" s="10" t="n"/>
+      <c r="D32" s="10" t="n"/>
+      <c r="E32" s="10" t="n"/>
+      <c r="F32" s="10" t="n"/>
+      <c r="G32" s="10" t="n"/>
+      <c r="H32" s="10" t="n"/>
+      <c r="I32" s="11" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n"/>
+      <c r="C33" s="10" t="n"/>
+      <c r="D33" s="10" t="n"/>
+      <c r="E33" s="10" t="n"/>
+      <c r="F33" s="10" t="n"/>
+      <c r="G33" s="10" t="n"/>
+      <c r="H33" s="10" t="n"/>
+      <c r="I33" s="11" t="n"/>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="12" t="inlineStr">
+        <is>
+          <t>Module #</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="inlineStr">
+        <is>
+          <t>T.A.B Point Reading (Pa)</t>
+        </is>
+      </c>
+      <c r="C34" s="13" t="n"/>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>K-Factor (m3 /h)</t>
+        </is>
+      </c>
+      <c r="E34" s="13" t="n"/>
+      <c r="F34" s="12" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /h)</t>
+        </is>
+      </c>
+      <c r="G34" s="13" t="n"/>
+      <c r="H34" s="12" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /s)</t>
+        </is>
+      </c>
+      <c r="I34" s="13" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 300.0 pa</t>
+        </is>
+      </c>
+      <c r="C35" s="13" t="n"/>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 243.4</t>
+        </is>
+      </c>
+      <c r="E35" s="13" t="n"/>
+      <c r="F35" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4215.8116656226475</t>
+        </is>
+      </c>
+      <c r="G35" s="13" t="n"/>
+      <c r="H35" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 400.0</t>
+        </is>
+      </c>
+      <c r="I35" s="13" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0 pa</t>
+        </is>
+      </c>
+      <c r="C36" s="13" t="n"/>
+      <c r="D36" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121.7</t>
+        </is>
+      </c>
+      <c r="E36" s="13" t="n"/>
+      <c r="F36" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="G36" s="13" t="n"/>
+      <c r="H36" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="I36" s="13" t="n"/>
+    </row>
+    <row r="37">
+      <c r="F37" s="14" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                400.0 m3/s</t>
+        </is>
+      </c>
+      <c r="G37" s="13" t="n"/>
+      <c r="H37" s="13" t="n"/>
+      <c r="I37" s="13" t="n"/>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR DATA</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="7" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="7" t="n"/>
+      <c r="H41" s="7" t="n"/>
+      <c r="I41" s="7" t="n"/>
+      <c r="J41" s="8" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Drawing Number: 	ede</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n"/>
+      <c r="C42" s="10" t="n"/>
+      <c r="D42" s="10" t="n"/>
+      <c r="E42" s="10" t="n"/>
+      <c r="F42" s="10" t="n"/>
+      <c r="G42" s="10" t="n"/>
+      <c r="H42" s="10" t="n"/>
+      <c r="I42" s="11" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="inlineStr">
+        <is>
+          <t>Location: 	loc1</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n"/>
+      <c r="C43" s="10" t="n"/>
+      <c r="D43" s="10" t="n"/>
+      <c r="E43" s="10" t="n"/>
+      <c r="F43" s="10" t="n"/>
+      <c r="G43" s="10" t="n"/>
+      <c r="H43" s="10" t="n"/>
+      <c r="I43" s="11" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Model: 	KCH-F</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n"/>
+      <c r="C44" s="10" t="n"/>
+      <c r="D44" s="10" t="n"/>
+      <c r="E44" s="10" t="n"/>
+      <c r="F44" s="10" t="n"/>
+      <c r="G44" s="10" t="n"/>
+      <c r="H44" s="10" t="n"/>
+      <c r="I44" s="11" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	1</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n"/>
+      <c r="C45" s="10" t="n"/>
+      <c r="D45" s="10" t="n"/>
+      <c r="E45" s="10" t="n"/>
+      <c r="F45" s="10" t="n"/>
+      <c r="G45" s="10" t="n"/>
+      <c r="H45" s="10" t="n"/>
+      <c r="I45" s="11" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n"/>
+      <c r="C46" s="10" t="n"/>
+      <c r="D46" s="10" t="n"/>
+      <c r="E46" s="10" t="n"/>
+      <c r="F46" s="10" t="n"/>
+      <c r="G46" s="10" t="n"/>
+      <c r="H46" s="10" t="n"/>
+      <c r="I46" s="11" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR READINGS</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n"/>
+      <c r="C47" s="7" t="n"/>
+      <c r="D47" s="7" t="n"/>
+      <c r="E47" s="7" t="n"/>
+      <c r="F47" s="7" t="n"/>
+      <c r="G47" s="7" t="n"/>
+      <c r="H47" s="7" t="n"/>
+      <c r="I47" s="7" t="n"/>
+    </row>
+    <row r="48" ht="30" customHeight="1">
+      <c r="A48" s="12" t="inlineStr">
+        <is>
+          <t>Module #</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="inlineStr">
+        <is>
+          <t>T.A.B Point Reading (Pa)</t>
+        </is>
+      </c>
+      <c r="C48" s="13" t="n"/>
+      <c r="D48" s="12" t="inlineStr">
+        <is>
+          <t>K-Factor (m3 /h)</t>
+        </is>
+      </c>
+      <c r="E48" s="13" t="n"/>
+      <c r="F48" s="12" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /h)</t>
+        </is>
+      </c>
+      <c r="G48" s="13" t="n"/>
+      <c r="H48" s="12" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /s)</t>
+        </is>
+      </c>
+      <c r="I48" s="13" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 300.0 pa</t>
+        </is>
+      </c>
+      <c r="C49" s="13" t="n"/>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 71.8</t>
+        </is>
+      </c>
+      <c r="E49" s="13" t="n"/>
+      <c r="F49" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1243.61</t>
+        </is>
+      </c>
+      <c r="G49" s="13" t="n"/>
+      <c r="H49" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 500.0</t>
+        </is>
+      </c>
+      <c r="I49" s="13" t="n"/>
+    </row>
+    <row r="50">
+      <c r="F50" s="14" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                500.0 m3/s</t>
+        </is>
+      </c>
+      <c r="G50" s="13" t="n"/>
+      <c r="H50" s="13" t="n"/>
+      <c r="I50" s="13" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>SUPPLY AIR DATA</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n"/>
+      <c r="C52" s="7" t="n"/>
+      <c r="D52" s="7" t="n"/>
+      <c r="E52" s="7" t="n"/>
+      <c r="F52" s="7" t="n"/>
+      <c r="G52" s="7" t="n"/>
+      <c r="H52" s="7" t="n"/>
+      <c r="I52" s="7" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="inlineStr">
+        <is>
+          <t>Drawing Number: 	ede</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n"/>
+      <c r="C53" s="10" t="n"/>
+      <c r="D53" s="10" t="n"/>
+      <c r="E53" s="10" t="n"/>
+      <c r="F53" s="10" t="n"/>
+      <c r="G53" s="10" t="n"/>
+      <c r="H53" s="10" t="n"/>
+      <c r="I53" s="11" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>Location: 	loc1</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n"/>
+      <c r="C54" s="10" t="n"/>
+      <c r="D54" s="10" t="n"/>
+      <c r="E54" s="10" t="n"/>
+      <c r="F54" s="10" t="n"/>
+      <c r="G54" s="10" t="n"/>
+      <c r="H54" s="10" t="n"/>
+      <c r="I54" s="11" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="inlineStr">
+        <is>
+          <t>Model: 	KCH-F</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n"/>
+      <c r="C55" s="10" t="n"/>
+      <c r="D55" s="10" t="n"/>
+      <c r="E55" s="10" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
+      <c r="I55" s="11" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	1</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n"/>
+      <c r="C56" s="10" t="n"/>
+      <c r="D56" s="10" t="n"/>
+      <c r="E56" s="10" t="n"/>
+      <c r="F56" s="10" t="n"/>
+      <c r="G56" s="10" t="n"/>
+      <c r="H56" s="10" t="n"/>
+      <c r="I56" s="11" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n"/>
+      <c r="C57" s="10" t="n"/>
+      <c r="D57" s="10" t="n"/>
+      <c r="E57" s="10" t="n"/>
+      <c r="F57" s="10" t="n"/>
+      <c r="G57" s="10" t="n"/>
+      <c r="H57" s="10" t="n"/>
+      <c r="I57" s="11" t="n"/>
+    </row>
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="12" t="inlineStr">
+        <is>
+          <t>Module #</t>
+        </is>
+      </c>
+      <c r="B58" s="12" t="inlineStr">
+        <is>
+          <t>T.A.B Point Reading (Pa)</t>
+        </is>
+      </c>
+      <c r="C58" s="13" t="n"/>
+      <c r="D58" s="12" t="inlineStr">
+        <is>
+          <t>K-Factor (m3 /h)</t>
+        </is>
+      </c>
+      <c r="E58" s="13" t="n"/>
+      <c r="F58" s="12" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /h)</t>
+        </is>
+      </c>
+      <c r="G58" s="13" t="n"/>
+      <c r="H58" s="12" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /s)</t>
+        </is>
+      </c>
+      <c r="I58" s="13" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 300.0 pa</t>
+        </is>
+      </c>
+      <c r="C59" s="13" t="n"/>
+      <c r="D59" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121.7</t>
+        </is>
+      </c>
+      <c r="E59" s="13" t="n"/>
+      <c r="F59" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2107.9058328113238</t>
+        </is>
+      </c>
+      <c r="G59" s="13" t="n"/>
+      <c r="H59" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2000.0</t>
+        </is>
+      </c>
+      <c r="I59" s="13" t="n"/>
+    </row>
+    <row r="60">
+      <c r="F60" s="14" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                2000.0 m3/s</t>
+        </is>
+      </c>
+      <c r="G60" s="13" t="n"/>
+      <c r="H60" s="13" t="n"/>
+      <c r="I60" s="13" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="39" min="0" max="16383" man="1"/>
+    <brk id="62" min="0" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -136,6 +136,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -578,35 +579,35 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CLIENT: Yazan </t>
+          <t xml:space="preserve">CLIENT:  </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NAME: Project </t>
+          <t xml:space="preserve">PROJECT NAME:  </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NUMBER: UK1212 </t>
+          <t xml:space="preserve">PROJECT NUMBER:  </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DATE OF VISIT: 2024-09-23 </t>
+          <t xml:space="preserve">DATE OF VISIT: 2024-09-26 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENGINEER(s): Yazan, Mi,e </t>
+          <t xml:space="preserve">ENGINEER(s):  </t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
     <row r="17">
       <c r="A17" s="9" t="inlineStr">
         <is>
-          <t>Drawing Number: 	121221</t>
+          <t xml:space="preserve">Drawing Number: 	</t>
         </is>
       </c>
       <c r="B17" s="10" t="n"/>
@@ -651,7 +652,7 @@
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>Location: 	Loc1</t>
+          <t xml:space="preserve">Location: 	</t>
         </is>
       </c>
       <c r="B18" s="10" t="n"/>
@@ -666,7 +667,7 @@
     <row r="19">
       <c r="A19" s="9" t="inlineStr">
         <is>
-          <t>Model: 	KVF</t>
+          <t>Model: 	KSR-S</t>
         </is>
       </c>
       <c r="B19" s="10" t="n"/>
@@ -681,7 +682,7 @@
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Quantity of Canopy Sections: 	2</t>
+          <t>Quantity of Canopy Sections: 	1</t>
         </is>
       </c>
       <c r="B20" s="10" t="n"/>
@@ -746,10 +747,14 @@
           <t>Flowrate (m3 /h)</t>
         </is>
       </c>
-      <c r="G23" s="13" t="n"/>
+      <c r="G23" s="12" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /s)</t>
+        </is>
+      </c>
       <c r="H23" s="12" t="inlineStr">
         <is>
-          <t>Flowrate (m3 /s)</t>
+          <t>Percentage</t>
         </is>
       </c>
       <c r="I23" s="13" t="n"/>
@@ -762,661 +767,77 @@
       </c>
       <c r="B24" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 200.0 pa</t>
+          <t xml:space="preserve"> 2323.0 pa</t>
         </is>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 215.4</t>
+          <t xml:space="preserve"> 67.7</t>
         </is>
       </c>
       <c r="E24" s="13" t="n"/>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3046.22</t>
-        </is>
-      </c>
-      <c r="G24" s="13" t="n"/>
+          <t xml:space="preserve"> 3262.97</t>
+        </is>
+      </c>
+      <c r="G24" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 212.0</t>
+        </is>
+      </c>
       <c r="H24" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 300.0</t>
+          <t xml:space="preserve"> 15.0%</t>
         </is>
       </c>
       <c r="I24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 300.0 pa</t>
-        </is>
-      </c>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 215.4</t>
-        </is>
-      </c>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3730.84</t>
-        </is>
-      </c>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4999.99</t>
-        </is>
-      </c>
-      <c r="I25" s="13" t="n"/>
+      <c r="A25" s="14" t="n"/>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="14" t="n"/>
+      <c r="D25" s="14" t="n"/>
     </row>
     <row r="26">
-      <c r="F26" s="14" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                5299.99 m3/s</t>
-        </is>
-      </c>
-      <c r="G26" s="13" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="13" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>SUPPLY AIR DATA</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="n"/>
-      <c r="H28" s="7" t="n"/>
-      <c r="I28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="inlineStr">
-        <is>
-          <t>Drawing Number: 	121221</t>
-        </is>
-      </c>
-      <c r="B29" s="10" t="n"/>
-      <c r="C29" s="10" t="n"/>
-      <c r="D29" s="10" t="n"/>
-      <c r="E29" s="10" t="n"/>
-      <c r="F29" s="10" t="n"/>
-      <c r="G29" s="10" t="n"/>
-      <c r="H29" s="10" t="n"/>
-      <c r="I29" s="11" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="inlineStr">
-        <is>
-          <t>Location: 	Loc1</t>
-        </is>
-      </c>
-      <c r="B30" s="10" t="n"/>
-      <c r="C30" s="10" t="n"/>
-      <c r="D30" s="10" t="n"/>
-      <c r="E30" s="10" t="n"/>
-      <c r="F30" s="10" t="n"/>
-      <c r="G30" s="10" t="n"/>
-      <c r="H30" s="10" t="n"/>
-      <c r="I30" s="11" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
-        <is>
-          <t>Model: 	KVF</t>
-        </is>
-      </c>
-      <c r="B31" s="10" t="n"/>
-      <c r="C31" s="10" t="n"/>
-      <c r="D31" s="10" t="n"/>
-      <c r="E31" s="10" t="n"/>
-      <c r="F31" s="10" t="n"/>
-      <c r="G31" s="10" t="n"/>
-      <c r="H31" s="10" t="n"/>
-      <c r="I31" s="11" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="inlineStr">
-        <is>
-          <t>Quantity of Canopy Sections: 	2</t>
-        </is>
-      </c>
-      <c r="B32" s="10" t="n"/>
-      <c r="C32" s="10" t="n"/>
-      <c r="D32" s="10" t="n"/>
-      <c r="E32" s="10" t="n"/>
-      <c r="F32" s="10" t="n"/>
-      <c r="G32" s="10" t="n"/>
-      <c r="H32" s="10" t="n"/>
-      <c r="I32" s="11" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
-        <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
-        </is>
-      </c>
-      <c r="B33" s="10" t="n"/>
-      <c r="C33" s="10" t="n"/>
-      <c r="D33" s="10" t="n"/>
-      <c r="E33" s="10" t="n"/>
-      <c r="F33" s="10" t="n"/>
-      <c r="G33" s="10" t="n"/>
-      <c r="H33" s="10" t="n"/>
-      <c r="I33" s="11" t="n"/>
-    </row>
-    <row r="34" ht="30" customHeight="1">
-      <c r="A34" s="12" t="inlineStr">
-        <is>
-          <t>Module #</t>
-        </is>
-      </c>
-      <c r="B34" s="12" t="inlineStr">
-        <is>
-          <t>T.A.B Point Reading (Pa)</t>
-        </is>
-      </c>
-      <c r="C34" s="13" t="n"/>
-      <c r="D34" s="12" t="inlineStr">
-        <is>
-          <t>K-Factor (m3 /h)</t>
-        </is>
-      </c>
-      <c r="E34" s="13" t="n"/>
-      <c r="F34" s="12" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /h)</t>
-        </is>
-      </c>
-      <c r="G34" s="13" t="n"/>
-      <c r="H34" s="12" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /s)</t>
-        </is>
-      </c>
-      <c r="I34" s="13" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B35" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 300.0 pa</t>
-        </is>
-      </c>
-      <c r="C35" s="13" t="n"/>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 243.4</t>
-        </is>
-      </c>
-      <c r="E35" s="13" t="n"/>
-      <c r="F35" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4215.8116656226475</t>
-        </is>
-      </c>
-      <c r="G35" s="13" t="n"/>
-      <c r="H35" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 400.0</t>
-        </is>
-      </c>
-      <c r="I35" s="13" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B36" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0 pa</t>
-        </is>
-      </c>
-      <c r="C36" s="13" t="n"/>
-      <c r="D36" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 121.7</t>
-        </is>
-      </c>
-      <c r="E36" s="13" t="n"/>
-      <c r="F36" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0</t>
-        </is>
-      </c>
-      <c r="G36" s="13" t="n"/>
-      <c r="H36" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0</t>
-        </is>
-      </c>
-      <c r="I36" s="13" t="n"/>
-    </row>
-    <row r="37">
-      <c r="F37" s="14" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                400.0 m3/s</t>
-        </is>
-      </c>
-      <c r="G37" s="13" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="13" t="n"/>
-    </row>
-    <row r="41" ht="20" customHeight="1">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>EXTRACT AIR DATA</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
-      <c r="H41" s="7" t="n"/>
-      <c r="I41" s="7" t="n"/>
-      <c r="J41" s="8" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
-        <is>
-          <t>Drawing Number: 	ede</t>
-        </is>
-      </c>
-      <c r="B42" s="10" t="n"/>
-      <c r="C42" s="10" t="n"/>
-      <c r="D42" s="10" t="n"/>
-      <c r="E42" s="10" t="n"/>
-      <c r="F42" s="10" t="n"/>
-      <c r="G42" s="10" t="n"/>
-      <c r="H42" s="10" t="n"/>
-      <c r="I42" s="11" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="inlineStr">
-        <is>
-          <t>Location: 	loc1</t>
-        </is>
-      </c>
-      <c r="B43" s="10" t="n"/>
-      <c r="C43" s="10" t="n"/>
-      <c r="D43" s="10" t="n"/>
-      <c r="E43" s="10" t="n"/>
-      <c r="F43" s="10" t="n"/>
-      <c r="G43" s="10" t="n"/>
-      <c r="H43" s="10" t="n"/>
-      <c r="I43" s="11" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="inlineStr">
-        <is>
-          <t>Model: 	KCH-F</t>
-        </is>
-      </c>
-      <c r="B44" s="10" t="n"/>
-      <c r="C44" s="10" t="n"/>
-      <c r="D44" s="10" t="n"/>
-      <c r="E44" s="10" t="n"/>
-      <c r="F44" s="10" t="n"/>
-      <c r="G44" s="10" t="n"/>
-      <c r="H44" s="10" t="n"/>
-      <c r="I44" s="11" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="inlineStr">
-        <is>
-          <t>Quantity of Canopy Sections: 	1</t>
-        </is>
-      </c>
-      <c r="B45" s="10" t="n"/>
-      <c r="C45" s="10" t="n"/>
-      <c r="D45" s="10" t="n"/>
-      <c r="E45" s="10" t="n"/>
-      <c r="F45" s="10" t="n"/>
-      <c r="G45" s="10" t="n"/>
-      <c r="H45" s="10" t="n"/>
-      <c r="I45" s="11" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="inlineStr">
-        <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
-        </is>
-      </c>
-      <c r="B46" s="10" t="n"/>
-      <c r="C46" s="10" t="n"/>
-      <c r="D46" s="10" t="n"/>
-      <c r="E46" s="10" t="n"/>
-      <c r="F46" s="10" t="n"/>
-      <c r="G46" s="10" t="n"/>
-      <c r="H46" s="10" t="n"/>
-      <c r="I46" s="11" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>EXTRACT AIR READINGS</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="n"/>
-      <c r="C47" s="7" t="n"/>
-      <c r="D47" s="7" t="n"/>
-      <c r="E47" s="7" t="n"/>
-      <c r="F47" s="7" t="n"/>
-      <c r="G47" s="7" t="n"/>
-      <c r="H47" s="7" t="n"/>
-      <c r="I47" s="7" t="n"/>
-    </row>
-    <row r="48" ht="30" customHeight="1">
-      <c r="A48" s="12" t="inlineStr">
-        <is>
-          <t>Module #</t>
-        </is>
-      </c>
-      <c r="B48" s="12" t="inlineStr">
-        <is>
-          <t>T.A.B Point Reading (Pa)</t>
-        </is>
-      </c>
-      <c r="C48" s="13" t="n"/>
-      <c r="D48" s="12" t="inlineStr">
-        <is>
-          <t>K-Factor (m3 /h)</t>
-        </is>
-      </c>
-      <c r="E48" s="13" t="n"/>
-      <c r="F48" s="12" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /h)</t>
-        </is>
-      </c>
-      <c r="G48" s="13" t="n"/>
-      <c r="H48" s="12" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /s)</t>
-        </is>
-      </c>
-      <c r="I48" s="13" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B49" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 300.0 pa</t>
-        </is>
-      </c>
-      <c r="C49" s="13" t="n"/>
-      <c r="D49" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 71.8</t>
-        </is>
-      </c>
-      <c r="E49" s="13" t="n"/>
-      <c r="F49" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1243.61</t>
-        </is>
-      </c>
-      <c r="G49" s="13" t="n"/>
-      <c r="H49" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 500.0</t>
-        </is>
-      </c>
-      <c r="I49" s="13" t="n"/>
-    </row>
-    <row r="50">
-      <c r="F50" s="14" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                500.0 m3/s</t>
-        </is>
-      </c>
-      <c r="G50" s="13" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="13" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>SUPPLY AIR DATA</t>
-        </is>
-      </c>
-      <c r="B52" s="7" t="n"/>
-      <c r="C52" s="7" t="n"/>
-      <c r="D52" s="7" t="n"/>
-      <c r="E52" s="7" t="n"/>
-      <c r="F52" s="7" t="n"/>
-      <c r="G52" s="7" t="n"/>
-      <c r="H52" s="7" t="n"/>
-      <c r="I52" s="7" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="inlineStr">
-        <is>
-          <t>Drawing Number: 	ede</t>
-        </is>
-      </c>
-      <c r="B53" s="10" t="n"/>
-      <c r="C53" s="10" t="n"/>
-      <c r="D53" s="10" t="n"/>
-      <c r="E53" s="10" t="n"/>
-      <c r="F53" s="10" t="n"/>
-      <c r="G53" s="10" t="n"/>
-      <c r="H53" s="10" t="n"/>
-      <c r="I53" s="11" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="9" t="inlineStr">
-        <is>
-          <t>Location: 	loc1</t>
-        </is>
-      </c>
-      <c r="B54" s="10" t="n"/>
-      <c r="C54" s="10" t="n"/>
-      <c r="D54" s="10" t="n"/>
-      <c r="E54" s="10" t="n"/>
-      <c r="F54" s="10" t="n"/>
-      <c r="G54" s="10" t="n"/>
-      <c r="H54" s="10" t="n"/>
-      <c r="I54" s="11" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="9" t="inlineStr">
-        <is>
-          <t>Model: 	KCH-F</t>
-        </is>
-      </c>
-      <c r="B55" s="10" t="n"/>
-      <c r="C55" s="10" t="n"/>
-      <c r="D55" s="10" t="n"/>
-      <c r="E55" s="10" t="n"/>
-      <c r="F55" s="10" t="n"/>
-      <c r="G55" s="10" t="n"/>
-      <c r="H55" s="10" t="n"/>
-      <c r="I55" s="11" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="inlineStr">
-        <is>
-          <t>Quantity of Canopy Sections: 	1</t>
-        </is>
-      </c>
-      <c r="B56" s="10" t="n"/>
-      <c r="C56" s="10" t="n"/>
-      <c r="D56" s="10" t="n"/>
-      <c r="E56" s="10" t="n"/>
-      <c r="F56" s="10" t="n"/>
-      <c r="G56" s="10" t="n"/>
-      <c r="H56" s="10" t="n"/>
-      <c r="I56" s="11" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="9" t="inlineStr">
-        <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
-        </is>
-      </c>
-      <c r="B57" s="10" t="n"/>
-      <c r="C57" s="10" t="n"/>
-      <c r="D57" s="10" t="n"/>
-      <c r="E57" s="10" t="n"/>
-      <c r="F57" s="10" t="n"/>
-      <c r="G57" s="10" t="n"/>
-      <c r="H57" s="10" t="n"/>
-      <c r="I57" s="11" t="n"/>
-    </row>
-    <row r="58" ht="30" customHeight="1">
-      <c r="A58" s="12" t="inlineStr">
-        <is>
-          <t>Module #</t>
-        </is>
-      </c>
-      <c r="B58" s="12" t="inlineStr">
-        <is>
-          <t>T.A.B Point Reading (Pa)</t>
-        </is>
-      </c>
-      <c r="C58" s="13" t="n"/>
-      <c r="D58" s="12" t="inlineStr">
-        <is>
-          <t>K-Factor (m3 /h)</t>
-        </is>
-      </c>
-      <c r="E58" s="13" t="n"/>
-      <c r="F58" s="12" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /h)</t>
-        </is>
-      </c>
-      <c r="G58" s="13" t="n"/>
-      <c r="H58" s="12" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /s)</t>
-        </is>
-      </c>
-      <c r="I58" s="13" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B59" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 300.0 pa</t>
-        </is>
-      </c>
-      <c r="C59" s="13" t="n"/>
-      <c r="D59" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 121.7</t>
-        </is>
-      </c>
-      <c r="E59" s="13" t="n"/>
-      <c r="F59" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2107.9058328113238</t>
-        </is>
-      </c>
-      <c r="G59" s="13" t="n"/>
-      <c r="H59" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2000.0</t>
-        </is>
-      </c>
-      <c r="I59" s="13" t="n"/>
-    </row>
-    <row r="60">
-      <c r="F60" s="14" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                2000.0 m3/s</t>
-        </is>
-      </c>
-      <c r="G60" s="13" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="13" t="n"/>
+      <c r="A26" s="15" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                212.0 m3/s</t>
+        </is>
+      </c>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="15" t="inlineStr">
+        <is>
+          <t>Total Percentage                                15.0%</t>
+        </is>
+      </c>
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D49:E49"/>
+  <mergeCells count="10">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A22:I22"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="A16:I16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="39" min="0" max="16383" man="1"/>
-    <brk id="62" min="0" max="16383" man="1"/>
+    <brk id="12" min="0" max="16383" man="1"/>
+    <brk id="27" min="0" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -59,7 +59,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -79,9 +79,6 @@
     <border>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
     </border>
     <border>
       <left/>
@@ -117,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -127,17 +124,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -600,7 +596,7 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DATE OF VISIT: 2024-09-26 </t>
+          <t xml:space="preserve">DATE OF VISIT: 2024-09-28 </t>
         </is>
       </c>
     </row>
@@ -632,82 +628,81 @@
       <c r="G16" s="7" t="n"/>
       <c r="H16" s="7" t="n"/>
       <c r="I16" s="7" t="n"/>
-      <c r="J16" s="8" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drawing Number: 	</t>
-        </is>
-      </c>
-      <c r="B17" s="10" t="n"/>
-      <c r="C17" s="10" t="n"/>
-      <c r="D17" s="10" t="n"/>
-      <c r="E17" s="10" t="n"/>
-      <c r="F17" s="10" t="n"/>
-      <c r="G17" s="10" t="n"/>
-      <c r="H17" s="10" t="n"/>
-      <c r="I17" s="11" t="n"/>
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>Drawing Number: 	212</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+      <c r="H17" s="9" t="n"/>
+      <c r="I17" s="10" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Location: 	</t>
-        </is>
-      </c>
-      <c r="B18" s="10" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="10" t="n"/>
-      <c r="E18" s="10" t="n"/>
-      <c r="F18" s="10" t="n"/>
-      <c r="G18" s="10" t="n"/>
-      <c r="H18" s="10" t="n"/>
-      <c r="I18" s="11" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Location: 	dee</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+      <c r="H18" s="9" t="n"/>
+      <c r="I18" s="10" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="inlineStr">
-        <is>
-          <t>Model: 	KSR-S</t>
-        </is>
-      </c>
-      <c r="B19" s="10" t="n"/>
-      <c r="C19" s="10" t="n"/>
-      <c r="D19" s="10" t="n"/>
-      <c r="E19" s="10" t="n"/>
-      <c r="F19" s="10" t="n"/>
-      <c r="G19" s="10" t="n"/>
-      <c r="H19" s="10" t="n"/>
-      <c r="I19" s="11" t="n"/>
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Model: 	KSR-F</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+      <c r="H19" s="9" t="n"/>
+      <c r="I19" s="10" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>Quantity of Canopy Sections: 	1</t>
         </is>
       </c>
-      <c r="B20" s="10" t="n"/>
-      <c r="C20" s="10" t="n"/>
-      <c r="D20" s="10" t="n"/>
-      <c r="E20" s="10" t="n"/>
-      <c r="F20" s="10" t="n"/>
-      <c r="G20" s="10" t="n"/>
-      <c r="H20" s="10" t="n"/>
-      <c r="I20" s="11" t="n"/>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
+      <c r="H20" s="9" t="n"/>
+      <c r="I20" s="10" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>Calculation: 	QV = Kf x √Pa</t>
         </is>
       </c>
-      <c r="B21" s="10" t="n"/>
-      <c r="C21" s="10" t="n"/>
-      <c r="D21" s="10" t="n"/>
-      <c r="E21" s="10" t="n"/>
-      <c r="F21" s="10" t="n"/>
-      <c r="G21" s="10" t="n"/>
-      <c r="H21" s="10" t="n"/>
-      <c r="I21" s="11" t="n"/>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+      <c r="H21" s="9" t="n"/>
+      <c r="I21" s="10" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -725,119 +720,330 @@
       <c r="I22" s="7" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="12" t="inlineStr">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>Module #</t>
         </is>
       </c>
-      <c r="B23" s="12" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
         </is>
       </c>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="12" t="inlineStr">
+      <c r="C23" s="12" t="n"/>
+      <c r="D23" s="11" t="inlineStr">
         <is>
           <t>K-Factor (m3 /h)</t>
         </is>
       </c>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="12" t="inlineStr">
+      <c r="E23" s="12" t="n"/>
+      <c r="F23" s="11" t="inlineStr">
         <is>
           <t>Flowrate (m3 /h)</t>
         </is>
       </c>
-      <c r="G23" s="12" t="inlineStr">
+      <c r="G23" s="11" t="inlineStr">
         <is>
           <t>Flowrate (m3 /s)</t>
         </is>
       </c>
-      <c r="H23" s="12" t="inlineStr">
+      <c r="H23" s="11" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
-      <c r="I23" s="13" t="n"/>
+      <c r="I23" s="12" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B24" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2323.0 pa</t>
-        </is>
-      </c>
-      <c r="C24" s="13" t="n"/>
-      <c r="D24" s="12" t="inlineStr">
+      <c r="B24" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33.0 pa</t>
+        </is>
+      </c>
+      <c r="C24" s="12" t="n"/>
+      <c r="D24" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 67.7</t>
         </is>
       </c>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3262.97</t>
-        </is>
-      </c>
-      <c r="G24" s="12" t="inlineStr">
+      <c r="E24" s="12" t="n"/>
+      <c r="F24" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 388.91</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 212.0</t>
         </is>
       </c>
-      <c r="H24" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15.0%</t>
-        </is>
-      </c>
-      <c r="I24" s="13" t="n"/>
+      <c r="H24" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.0%</t>
+        </is>
+      </c>
+      <c r="I24" s="12" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="n"/>
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="14" t="n"/>
-      <c r="D25" s="14" t="n"/>
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="inlineStr">
+      <c r="A26" s="14" t="inlineStr">
         <is>
           <t>Total Flowrate                                212.0 m3/s</t>
         </is>
       </c>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
+      <c r="B26" s="12" t="n"/>
+      <c r="C26" s="12" t="n"/>
+      <c r="D26" s="12" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="inlineStr">
-        <is>
-          <t>Total Percentage                                15.0%</t>
-        </is>
-      </c>
-      <c r="B27" s="13" t="n"/>
-      <c r="C27" s="13" t="n"/>
-      <c r="D27" s="13" t="n"/>
+      <c r="A27" s="14" t="inlineStr">
+        <is>
+          <t>Total Percentage                                55.0%</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="12" t="n"/>
+      <c r="D27" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>SUPPLY AIR DATA</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="7" t="n"/>
+      <c r="H29" s="7" t="n"/>
+      <c r="I29" s="7" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Drawing Number: 	212</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="G30" s="9" t="n"/>
+      <c r="H30" s="9" t="n"/>
+      <c r="I30" s="10" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>Location: 	dee</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="n"/>
+      <c r="C31" s="9" t="n"/>
+      <c r="D31" s="9" t="n"/>
+      <c r="E31" s="9" t="n"/>
+      <c r="F31" s="9" t="n"/>
+      <c r="G31" s="9" t="n"/>
+      <c r="H31" s="9" t="n"/>
+      <c r="I31" s="10" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Model: 	KSR-F</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="n"/>
+      <c r="C32" s="9" t="n"/>
+      <c r="D32" s="9" t="n"/>
+      <c r="E32" s="9" t="n"/>
+      <c r="F32" s="9" t="n"/>
+      <c r="G32" s="9" t="n"/>
+      <c r="H32" s="9" t="n"/>
+      <c r="I32" s="10" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	1</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="n"/>
+      <c r="C33" s="9" t="n"/>
+      <c r="D33" s="9" t="n"/>
+      <c r="E33" s="9" t="n"/>
+      <c r="F33" s="9" t="n"/>
+      <c r="G33" s="9" t="n"/>
+      <c r="H33" s="9" t="n"/>
+      <c r="I33" s="10" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="n"/>
+      <c r="C34" s="9" t="n"/>
+      <c r="D34" s="9" t="n"/>
+      <c r="E34" s="9" t="n"/>
+      <c r="F34" s="9" t="n"/>
+      <c r="G34" s="9" t="n"/>
+      <c r="H34" s="9" t="n"/>
+      <c r="I34" s="10" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>SUPPLY AIR READINGS</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
+      <c r="G35" s="7" t="n"/>
+      <c r="H35" s="7" t="n"/>
+      <c r="I35" s="7" t="n"/>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>Module #</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="inlineStr">
+        <is>
+          <t>T.A.B Point Reading (Pa)</t>
+        </is>
+      </c>
+      <c r="C36" s="12" t="n"/>
+      <c r="D36" s="11" t="inlineStr">
+        <is>
+          <t>K-Factor (m3 /h)</t>
+        </is>
+      </c>
+      <c r="E36" s="12" t="n"/>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /h)</t>
+        </is>
+      </c>
+      <c r="G36" s="11" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /s)</t>
+        </is>
+      </c>
+      <c r="H36" s="11" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="I36" s="12" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23.0 pa</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="n"/>
+      <c r="D37" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121.7</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="n"/>
+      <c r="F37" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 583.65</t>
+        </is>
+      </c>
+      <c r="G37" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23.0</t>
+        </is>
+      </c>
+      <c r="H37" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25.0%</t>
+        </is>
+      </c>
+      <c r="I37" s="12" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="13" t="n"/>
+      <c r="B38" s="13" t="n"/>
+      <c r="C38" s="13" t="n"/>
+      <c r="D38" s="13" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="14" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                23.0 m3/s</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="n"/>
+      <c r="C39" s="12" t="n"/>
+      <c r="D39" s="12" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="14" t="inlineStr">
+        <is>
+          <t>Total Percentage                                25.0%</t>
+        </is>
+      </c>
+      <c r="B40" s="12" t="n"/>
+      <c r="C40" s="12" t="n"/>
+      <c r="D40" s="12" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A16:I16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="12" min="0" max="16383" man="1"/>
-    <brk id="27" min="0" max="16383" man="1"/>
+    <brk id="42" min="0" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -546,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -596,14 +596,14 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DATE OF VISIT: 2024-09-28 </t>
+          <t xml:space="preserve">DATE OF VISIT: 2024-10-01 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENGINEER(s):  </t>
+          <t xml:space="preserve">ENGINEER(s): Mike, Yazan </t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>Drawing Number: 	212</t>
+          <t>Drawing Number: 	1212</t>
         </is>
       </c>
       <c r="B17" s="9" t="n"/>
@@ -647,7 +647,7 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>Location: 	dee</t>
+          <t>Location: 	Main Kitchen</t>
         </is>
       </c>
       <c r="B18" s="9" t="n"/>
@@ -662,7 +662,7 @@
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>Model: 	KSR-F</t>
+          <t>Model: 	KCH-I</t>
         </is>
       </c>
       <c r="B19" s="9" t="n"/>
@@ -677,7 +677,7 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>Quantity of Canopy Sections: 	1</t>
+          <t>Quantity of Canopy Sections: 	2</t>
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
@@ -762,93 +762,113 @@
       </c>
       <c r="B24" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33.0 pa</t>
+          <t xml:space="preserve"> 300.0 pa</t>
         </is>
       </c>
       <c r="C24" s="12" t="n"/>
       <c r="D24" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 67.7</t>
+          <t xml:space="preserve"> 215.4</t>
         </is>
       </c>
       <c r="E24" s="12" t="n"/>
       <c r="F24" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 388.91</t>
+          <t xml:space="preserve"> 3730.84</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 212.0</t>
+          <t xml:space="preserve"> 400.0</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0%</t>
+          <t xml:space="preserve"> 9.0%</t>
         </is>
       </c>
       <c r="I24" s="12" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="n"/>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 322.0 pa</t>
+        </is>
+      </c>
+      <c r="C25" s="12" t="n"/>
+      <c r="D25" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 143.6</t>
+        </is>
+      </c>
+      <c r="E25" s="12" t="n"/>
+      <c r="F25" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2576.81</t>
+        </is>
+      </c>
+      <c r="G25" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 323.0</t>
+        </is>
+      </c>
+      <c r="H25" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0%</t>
+        </is>
+      </c>
+      <c r="I25" s="12" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="14" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                212.0 m3/s</t>
-        </is>
-      </c>
-      <c r="B26" s="12" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="12" t="n"/>
+      <c r="A26" s="13" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="14" t="inlineStr">
         <is>
-          <t>Total Percentage                                55.0%</t>
+          <t>Total Flowrate                                723.0 m3/s</t>
         </is>
       </c>
       <c r="B27" s="12" t="n"/>
       <c r="C27" s="12" t="n"/>
       <c r="D27" s="12" t="n"/>
     </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>SUPPLY AIR DATA</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="n"/>
-      <c r="I29" s="7" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Drawing Number: 	212</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="n"/>
-      <c r="C30" s="9" t="n"/>
-      <c r="D30" s="9" t="n"/>
-      <c r="E30" s="9" t="n"/>
-      <c r="F30" s="9" t="n"/>
-      <c r="G30" s="9" t="n"/>
-      <c r="H30" s="9" t="n"/>
-      <c r="I30" s="10" t="n"/>
+    <row r="28">
+      <c r="A28" s="14" t="inlineStr">
+        <is>
+          <t>Total Percentage                                11.0%</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="n"/>
+      <c r="C28" s="12" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR DATA</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
+      <c r="G30" s="7" t="n"/>
+      <c r="H30" s="7" t="n"/>
+      <c r="I30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>Location: 	dee</t>
+          <t xml:space="preserve">Drawing Number: 	</t>
         </is>
       </c>
       <c r="B31" s="9" t="n"/>
@@ -863,7 +883,7 @@
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>Model: 	KSR-F</t>
+          <t xml:space="preserve">Location: 	</t>
         </is>
       </c>
       <c r="B32" s="9" t="n"/>
@@ -878,7 +898,7 @@
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
         <is>
-          <t>Quantity of Canopy Sections: 	1</t>
+          <t>Model: 	KVI</t>
         </is>
       </c>
       <c r="B33" s="9" t="n"/>
@@ -893,7 +913,7 @@
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
+          <t>Quantity of Canopy Sections: 	1</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
@@ -906,144 +926,375 @@
       <c r="I34" s="10" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>SUPPLY AIR READINGS</t>
-        </is>
-      </c>
-      <c r="B35" s="7" t="n"/>
-      <c r="C35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="7" t="n"/>
-      <c r="I35" s="7" t="n"/>
-    </row>
-    <row r="36" ht="30" customHeight="1">
-      <c r="A36" s="11" t="inlineStr">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="n"/>
+      <c r="C35" s="9" t="n"/>
+      <c r="D35" s="9" t="n"/>
+      <c r="E35" s="9" t="n"/>
+      <c r="F35" s="9" t="n"/>
+      <c r="G35" s="9" t="n"/>
+      <c r="H35" s="9" t="n"/>
+      <c r="I35" s="10" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR READINGS</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="7" t="n"/>
+      <c r="H36" s="7" t="n"/>
+      <c r="I36" s="7" t="n"/>
+    </row>
+    <row r="37" ht="30" customHeight="1">
+      <c r="A37" s="11" t="inlineStr">
         <is>
           <t>Module #</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr">
+      <c r="B37" s="11" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
-        </is>
-      </c>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="11" t="inlineStr">
-        <is>
-          <t>K-Factor (m3 /h)</t>
-        </is>
-      </c>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /h)</t>
-        </is>
-      </c>
-      <c r="G36" s="11" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /s)</t>
-        </is>
-      </c>
-      <c r="H36" s="11" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="I36" s="12" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B37" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23.0 pa</t>
         </is>
       </c>
       <c r="C37" s="12" t="n"/>
       <c r="D37" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 121.7</t>
+          <t>K-Factor (m3 /h)</t>
         </is>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 583.65</t>
+          <t>Flowrate (m3 /h)</t>
         </is>
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23.0</t>
+          <t>Flowrate (m3 /s)</t>
         </is>
       </c>
       <c r="H37" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25.0%</t>
+          <t>Percentage</t>
         </is>
       </c>
       <c r="I37" s="12" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="n"/>
-      <c r="B38" s="13" t="n"/>
-      <c r="C38" s="13" t="n"/>
-      <c r="D38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23.0 pa</t>
+        </is>
+      </c>
+      <c r="C38" s="12" t="n"/>
+      <c r="D38" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 71.8</t>
+        </is>
+      </c>
+      <c r="E38" s="12" t="n"/>
+      <c r="F38" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 344.34</t>
+        </is>
+      </c>
+      <c r="G38" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 32.0</t>
+        </is>
+      </c>
+      <c r="H38" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11.0%</t>
+        </is>
+      </c>
+      <c r="I38" s="12" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                23.0 m3/s</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="12" t="n"/>
+      <c r="A39" s="13" t="n"/>
+      <c r="B39" s="13" t="n"/>
+      <c r="C39" s="13" t="n"/>
+      <c r="D39" s="13" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="14" t="inlineStr">
         <is>
-          <t>Total Percentage                                25.0%</t>
+          <t>Total Flowrate                                32.0 m3/s</t>
         </is>
       </c>
       <c r="B40" s="12" t="n"/>
       <c r="C40" s="12" t="n"/>
       <c r="D40" s="12" t="n"/>
     </row>
+    <row r="41">
+      <c r="A41" s="14" t="inlineStr">
+        <is>
+          <t>Total Percentage                                9.0%</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="n"/>
+      <c r="C41" s="12" t="n"/>
+      <c r="D41" s="12" t="n"/>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR DATA</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="n"/>
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="7" t="n"/>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="7" t="n"/>
+      <c r="H43" s="7" t="n"/>
+      <c r="I43" s="7" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drawing Number: 	</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="9" t="n"/>
+      <c r="H44" s="9" t="n"/>
+      <c r="I44" s="10" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Location: 	</t>
+        </is>
+      </c>
+      <c r="B45" s="9" t="n"/>
+      <c r="C45" s="9" t="n"/>
+      <c r="D45" s="9" t="n"/>
+      <c r="E45" s="9" t="n"/>
+      <c r="F45" s="9" t="n"/>
+      <c r="G45" s="9" t="n"/>
+      <c r="H45" s="9" t="n"/>
+      <c r="I45" s="10" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>Model: 	KVI</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="n"/>
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="9" t="n"/>
+      <c r="F46" s="9" t="n"/>
+      <c r="G46" s="9" t="n"/>
+      <c r="H46" s="9" t="n"/>
+      <c r="I46" s="10" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	1</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="n"/>
+      <c r="C47" s="9" t="n"/>
+      <c r="D47" s="9" t="n"/>
+      <c r="E47" s="9" t="n"/>
+      <c r="F47" s="9" t="n"/>
+      <c r="G47" s="9" t="n"/>
+      <c r="H47" s="9" t="n"/>
+      <c r="I47" s="10" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="n"/>
+      <c r="C48" s="9" t="n"/>
+      <c r="D48" s="9" t="n"/>
+      <c r="E48" s="9" t="n"/>
+      <c r="F48" s="9" t="n"/>
+      <c r="G48" s="9" t="n"/>
+      <c r="H48" s="9" t="n"/>
+      <c r="I48" s="10" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR READINGS</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="n"/>
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="7" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="7" t="n"/>
+      <c r="H49" s="7" t="n"/>
+      <c r="I49" s="7" t="n"/>
+    </row>
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>Module #</t>
+        </is>
+      </c>
+      <c r="B50" s="11" t="inlineStr">
+        <is>
+          <t>T.A.B Point Reading (Pa)</t>
+        </is>
+      </c>
+      <c r="C50" s="12" t="n"/>
+      <c r="D50" s="11" t="inlineStr">
+        <is>
+          <t>K-Factor (m3 /h)</t>
+        </is>
+      </c>
+      <c r="E50" s="12" t="n"/>
+      <c r="F50" s="11" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /h)</t>
+        </is>
+      </c>
+      <c r="G50" s="11" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /s)</t>
+        </is>
+      </c>
+      <c r="H50" s="11" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="I50" s="12" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B51" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 322.0 pa</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="n"/>
+      <c r="D51" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 71.8</t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="n"/>
+      <c r="F51" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1288.4</t>
+        </is>
+      </c>
+      <c r="G51" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33.0</t>
+        </is>
+      </c>
+      <c r="H51" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 39.0%</t>
+        </is>
+      </c>
+      <c r="I51" s="12" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="13" t="n"/>
+      <c r="B52" s="13" t="n"/>
+      <c r="C52" s="13" t="n"/>
+      <c r="D52" s="13" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="14" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                33.0 m3/s</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="n"/>
+      <c r="C53" s="12" t="n"/>
+      <c r="D53" s="12" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="14" t="inlineStr">
+        <is>
+          <t>Total Percentage                                3.0%</t>
+        </is>
+      </c>
+      <c r="B54" s="12" t="n"/>
+      <c r="C54" s="12" t="n"/>
+      <c r="D54" s="12" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D36:E36"/>
+  <mergeCells count="33">
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A39:D39"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A43:I43"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A49:I49"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A16:I16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="4" manualBreakCount="4">
     <brk id="12" min="0" max="16383" man="1"/>
-    <brk id="42" min="0" max="16383" man="1"/>
+    <brk id="28" min="0" max="16383" man="1"/>
+    <brk id="41" min="0" max="16383" man="1"/>
+    <brk id="54" min="0" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -546,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -596,14 +596,14 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DATE OF VISIT: 2024-10-01 </t>
+          <t xml:space="preserve">DATE OF VISIT: 2024-10-02 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENGINEER(s): Mike, Yazan </t>
+          <t xml:space="preserve">ENGINEER(s):  </t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>Drawing Number: 	1212</t>
+          <t>Drawing Number: 	223</t>
         </is>
       </c>
       <c r="B17" s="9" t="n"/>
@@ -647,7 +647,7 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>Location: 	Main Kitchen</t>
+          <t>Location: 	feeffe</t>
         </is>
       </c>
       <c r="B18" s="9" t="n"/>
@@ -662,7 +662,7 @@
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>Model: 	KCH-I</t>
+          <t>Model: 	KVF</t>
         </is>
       </c>
       <c r="B19" s="9" t="n"/>
@@ -677,7 +677,7 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>Quantity of Canopy Sections: 	2</t>
+          <t>Quantity of Canopy Sections: 	1</t>
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
@@ -762,113 +762,93 @@
       </c>
       <c r="B24" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 300.0 pa</t>
+          <t xml:space="preserve"> 23.0 pa</t>
         </is>
       </c>
       <c r="C24" s="12" t="n"/>
       <c r="D24" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 215.4</t>
+          <t xml:space="preserve"> 71.8</t>
         </is>
       </c>
       <c r="E24" s="12" t="n"/>
       <c r="F24" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3730.84</t>
+          <t xml:space="preserve"> 344.34</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 400.0</t>
+          <t xml:space="preserve"> 2323.0</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0%</t>
+          <t xml:space="preserve"> 0.0%</t>
         </is>
       </c>
       <c r="I24" s="12" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B25" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 322.0 pa</t>
-        </is>
-      </c>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 143.6</t>
-        </is>
-      </c>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2576.81</t>
-        </is>
-      </c>
-      <c r="G25" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 323.0</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0%</t>
-        </is>
-      </c>
-      <c r="I25" s="12" t="n"/>
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
+      <c r="A26" s="14" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                2323.0 m3/s</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="n"/>
+      <c r="C26" s="12" t="n"/>
+      <c r="D26" s="12" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="14" t="inlineStr">
         <is>
-          <t>Total Flowrate                                723.0 m3/s</t>
+          <t>Total Percentage                                675.0%</t>
         </is>
       </c>
       <c r="B27" s="12" t="n"/>
       <c r="C27" s="12" t="n"/>
       <c r="D27" s="12" t="n"/>
     </row>
-    <row r="28">
-      <c r="A28" s="14" t="inlineStr">
-        <is>
-          <t>Total Percentage                                11.0%</t>
-        </is>
-      </c>
-      <c r="B28" s="12" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="12" t="n"/>
-    </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>EXTRACT AIR DATA</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
-      <c r="H30" s="7" t="n"/>
-      <c r="I30" s="7" t="n"/>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>SUPPLY AIR DATA</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="7" t="n"/>
+      <c r="H29" s="7" t="n"/>
+      <c r="I29" s="7" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Drawing Number: 	223</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="G30" s="9" t="n"/>
+      <c r="H30" s="9" t="n"/>
+      <c r="I30" s="10" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Drawing Number: 	</t>
+          <t>Location: 	feeffe</t>
         </is>
       </c>
       <c r="B31" s="9" t="n"/>
@@ -883,7 +863,7 @@
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Location: 	</t>
+          <t>Model: 	KVF</t>
         </is>
       </c>
       <c r="B32" s="9" t="n"/>
@@ -898,7 +878,7 @@
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
         <is>
-          <t>Model: 	KVI</t>
+          <t>Quantity of Canopy Sections: 	1</t>
         </is>
       </c>
       <c r="B33" s="9" t="n"/>
@@ -913,7 +893,7 @@
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>Quantity of Canopy Sections: 	1</t>
+          <t>Calculation: 	QV = Kf x √Pa</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
@@ -926,375 +906,144 @@
       <c r="I34" s="10" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
-      <c r="D35" s="9" t="n"/>
-      <c r="E35" s="9" t="n"/>
-      <c r="F35" s="9" t="n"/>
-      <c r="G35" s="9" t="n"/>
-      <c r="H35" s="9" t="n"/>
-      <c r="I35" s="10" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>EXTRACT AIR READINGS</t>
-        </is>
-      </c>
-      <c r="B36" s="7" t="n"/>
-      <c r="C36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="7" t="n"/>
-      <c r="H36" s="7" t="n"/>
-      <c r="I36" s="7" t="n"/>
-    </row>
-    <row r="37" ht="30" customHeight="1">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>SUPPLY AIR READINGS</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
+      <c r="G35" s="7" t="n"/>
+      <c r="H35" s="7" t="n"/>
+      <c r="I35" s="7" t="n"/>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>Module #</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="inlineStr">
+        <is>
+          <t>T.A.B Point Reading (Pa)</t>
+        </is>
+      </c>
+      <c r="C36" s="12" t="n"/>
+      <c r="D36" s="11" t="inlineStr">
+        <is>
+          <t>K-Factor (m3 /h)</t>
+        </is>
+      </c>
+      <c r="E36" s="12" t="n"/>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /h)</t>
+        </is>
+      </c>
+      <c r="G36" s="11" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /s)</t>
+        </is>
+      </c>
+      <c r="H36" s="11" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="I36" s="12" t="n"/>
+    </row>
+    <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>Module #</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B37" s="11" t="inlineStr">
         <is>
-          <t>T.A.B Point Reading (Pa)</t>
+          <t xml:space="preserve"> 23.0 pa</t>
         </is>
       </c>
       <c r="C37" s="12" t="n"/>
       <c r="D37" s="11" t="inlineStr">
         <is>
-          <t>K-Factor (m3 /h)</t>
+          <t xml:space="preserve"> 121.7</t>
         </is>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="11" t="inlineStr">
         <is>
-          <t>Flowrate (m3 /h)</t>
+          <t xml:space="preserve"> 583.65</t>
         </is>
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
-          <t>Flowrate (m3 /s)</t>
+          <t xml:space="preserve"> 232.0</t>
         </is>
       </c>
       <c r="H37" s="11" t="inlineStr">
         <is>
-          <t>Percentage</t>
+          <t xml:space="preserve"> 3.0%</t>
         </is>
       </c>
       <c r="I37" s="12" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B38" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23.0 pa</t>
-        </is>
-      </c>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 71.8</t>
-        </is>
-      </c>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 344.34</t>
-        </is>
-      </c>
-      <c r="G38" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 32.0</t>
-        </is>
-      </c>
-      <c r="H38" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11.0%</t>
-        </is>
-      </c>
-      <c r="I38" s="12" t="n"/>
+      <c r="A38" s="13" t="n"/>
+      <c r="B38" s="13" t="n"/>
+      <c r="C38" s="13" t="n"/>
+      <c r="D38" s="13" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="n"/>
-      <c r="B39" s="13" t="n"/>
-      <c r="C39" s="13" t="n"/>
-      <c r="D39" s="13" t="n"/>
+      <c r="A39" s="14" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                232.0 m3/s</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="n"/>
+      <c r="C39" s="12" t="n"/>
+      <c r="D39" s="12" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="14" t="inlineStr">
         <is>
-          <t>Total Flowrate                                32.0 m3/s</t>
+          <t>Total Percentage                                3.0%</t>
         </is>
       </c>
       <c r="B40" s="12" t="n"/>
       <c r="C40" s="12" t="n"/>
       <c r="D40" s="12" t="n"/>
     </row>
-    <row r="41">
-      <c r="A41" s="14" t="inlineStr">
-        <is>
-          <t>Total Percentage                                9.0%</t>
-        </is>
-      </c>
-      <c r="B41" s="12" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="12" t="n"/>
-    </row>
-    <row r="43" ht="20" customHeight="1">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>EXTRACT AIR DATA</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="7" t="n"/>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
-      <c r="H43" s="7" t="n"/>
-      <c r="I43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drawing Number: 	</t>
-        </is>
-      </c>
-      <c r="B44" s="9" t="n"/>
-      <c r="C44" s="9" t="n"/>
-      <c r="D44" s="9" t="n"/>
-      <c r="E44" s="9" t="n"/>
-      <c r="F44" s="9" t="n"/>
-      <c r="G44" s="9" t="n"/>
-      <c r="H44" s="9" t="n"/>
-      <c r="I44" s="10" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Location: 	</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="9" t="n"/>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="n"/>
-      <c r="F45" s="9" t="n"/>
-      <c r="G45" s="9" t="n"/>
-      <c r="H45" s="9" t="n"/>
-      <c r="I45" s="10" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>Model: 	KVI</t>
-        </is>
-      </c>
-      <c r="B46" s="9" t="n"/>
-      <c r="C46" s="9" t="n"/>
-      <c r="D46" s="9" t="n"/>
-      <c r="E46" s="9" t="n"/>
-      <c r="F46" s="9" t="n"/>
-      <c r="G46" s="9" t="n"/>
-      <c r="H46" s="9" t="n"/>
-      <c r="I46" s="10" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>Quantity of Canopy Sections: 	1</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="9" t="n"/>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="n"/>
-      <c r="F47" s="9" t="n"/>
-      <c r="G47" s="9" t="n"/>
-      <c r="H47" s="9" t="n"/>
-      <c r="I47" s="10" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
-        <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
-        </is>
-      </c>
-      <c r="B48" s="9" t="n"/>
-      <c r="C48" s="9" t="n"/>
-      <c r="D48" s="9" t="n"/>
-      <c r="E48" s="9" t="n"/>
-      <c r="F48" s="9" t="n"/>
-      <c r="G48" s="9" t="n"/>
-      <c r="H48" s="9" t="n"/>
-      <c r="I48" s="10" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>EXTRACT AIR READINGS</t>
-        </is>
-      </c>
-      <c r="B49" s="7" t="n"/>
-      <c r="C49" s="7" t="n"/>
-      <c r="D49" s="7" t="n"/>
-      <c r="E49" s="7" t="n"/>
-      <c r="F49" s="7" t="n"/>
-      <c r="G49" s="7" t="n"/>
-      <c r="H49" s="7" t="n"/>
-      <c r="I49" s="7" t="n"/>
-    </row>
-    <row r="50" ht="30" customHeight="1">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>Module #</t>
-        </is>
-      </c>
-      <c r="B50" s="11" t="inlineStr">
-        <is>
-          <t>T.A.B Point Reading (Pa)</t>
-        </is>
-      </c>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="11" t="inlineStr">
-        <is>
-          <t>K-Factor (m3 /h)</t>
-        </is>
-      </c>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="11" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /h)</t>
-        </is>
-      </c>
-      <c r="G50" s="11" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /s)</t>
-        </is>
-      </c>
-      <c r="H50" s="11" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="I50" s="12" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B51" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 322.0 pa</t>
-        </is>
-      </c>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 71.8</t>
-        </is>
-      </c>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1288.4</t>
-        </is>
-      </c>
-      <c r="G51" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 33.0</t>
-        </is>
-      </c>
-      <c r="H51" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 39.0%</t>
-        </is>
-      </c>
-      <c r="I51" s="12" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="13" t="n"/>
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="13" t="n"/>
-      <c r="D52" s="13" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="14" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                33.0 m3/s</t>
-        </is>
-      </c>
-      <c r="B53" s="12" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="12" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="14" t="inlineStr">
-        <is>
-          <t>Total Percentage                                3.0%</t>
-        </is>
-      </c>
-      <c r="B54" s="12" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="12" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="H25:I25"/>
+  <mergeCells count="20">
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H36:I36"/>
     <mergeCell ref="A22:I22"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A54:D54"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A49:I49"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A16:I16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <rowBreaks count="4" manualBreakCount="4">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="12" min="0" max="16383" man="1"/>
-    <brk id="28" min="0" max="16383" man="1"/>
-    <brk id="41" min="0" max="16383" man="1"/>
-    <brk id="54" min="0" max="16383" man="1"/>
+    <brk id="42" min="0" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -42,6 +42,10 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="14"/>
     </font>
   </fonts>
@@ -59,7 +63,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -110,17 +114,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -132,8 +160,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,6 +291,56 @@
     </pic>
     <clientData/>
   </twoCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>91</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -546,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -575,475 +662,715 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CLIENT:  </t>
+          <t xml:space="preserve">CLIENT: Edcec </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NAME:  </t>
+          <t xml:space="preserve">PROJECT NAME: Edde </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NUMBER:  </t>
+          <t xml:space="preserve">PROJECT NUMBER: Edead </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DATE OF VISIT: 2024-10-02 </t>
+          <t xml:space="preserve">DATE OF VISIT: 2024-10-17 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENGINEER(s):  </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+          <t xml:space="preserve">ENGINEER(s): Eddead, Aedada </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Your Kitchen Ventilation System has the following serviceable technology....</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>KITCHEN CANOPY AIR READINGS</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>EXTRACT AIR DATA</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>Drawing Number: 	223</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="9" t="n"/>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="9" t="n"/>
-      <c r="F17" s="9" t="n"/>
-      <c r="G17" s="9" t="n"/>
-      <c r="H17" s="9" t="n"/>
-      <c r="I17" s="10" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Location: 	feeffe</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="n"/>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="9" t="n"/>
-      <c r="F18" s="9" t="n"/>
-      <c r="G18" s="9" t="n"/>
-      <c r="H18" s="9" t="n"/>
-      <c r="I18" s="10" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Model: 	KVF</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
-      <c r="H19" s="9" t="n"/>
-      <c r="I19" s="10" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="B38" s="8" t="n"/>
+      <c r="C38" s="8" t="n"/>
+      <c r="D38" s="8" t="n"/>
+      <c r="E38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
+      <c r="G38" s="8" t="n"/>
+      <c r="H38" s="8" t="n"/>
+      <c r="I38" s="8" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>Drawing Number: 	21</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n"/>
+      <c r="C39" s="10" t="n"/>
+      <c r="D39" s="10" t="n"/>
+      <c r="E39" s="10" t="n"/>
+      <c r="F39" s="10" t="n"/>
+      <c r="G39" s="10" t="n"/>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="11" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Location: 	cddc</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n"/>
+      <c r="C40" s="10" t="n"/>
+      <c r="D40" s="10" t="n"/>
+      <c r="E40" s="10" t="n"/>
+      <c r="F40" s="10" t="n"/>
+      <c r="G40" s="10" t="n"/>
+      <c r="H40" s="10" t="n"/>
+      <c r="I40" s="11" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="inlineStr">
+        <is>
+          <t>Model: 	UVF</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n"/>
+      <c r="C41" s="10" t="n"/>
+      <c r="D41" s="10" t="n"/>
+      <c r="E41" s="10" t="n"/>
+      <c r="F41" s="10" t="n"/>
+      <c r="G41" s="10" t="n"/>
+      <c r="H41" s="10" t="n"/>
+      <c r="I41" s="11" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>Quantity of Canopy Sections: 	1</t>
         </is>
       </c>
-      <c r="B20" s="9" t="n"/>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="9" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="G20" s="9" t="n"/>
-      <c r="H20" s="9" t="n"/>
-      <c r="I20" s="10" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="B42" s="10" t="n"/>
+      <c r="C42" s="10" t="n"/>
+      <c r="D42" s="10" t="n"/>
+      <c r="E42" s="10" t="n"/>
+      <c r="F42" s="10" t="n"/>
+      <c r="G42" s="10" t="n"/>
+      <c r="H42" s="10" t="n"/>
+      <c r="I42" s="11" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="inlineStr">
         <is>
           <t>Calculation: 	QV = Kf x √Pa</t>
         </is>
       </c>
-      <c r="B21" s="9" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="9" t="n"/>
-      <c r="E21" s="9" t="n"/>
-      <c r="F21" s="9" t="n"/>
-      <c r="G21" s="9" t="n"/>
-      <c r="H21" s="9" t="n"/>
-      <c r="I21" s="10" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="B43" s="10" t="n"/>
+      <c r="C43" s="10" t="n"/>
+      <c r="D43" s="10" t="n"/>
+      <c r="E43" s="10" t="n"/>
+      <c r="F43" s="10" t="n"/>
+      <c r="G43" s="10" t="n"/>
+      <c r="H43" s="10" t="n"/>
+      <c r="I43" s="11" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
         <is>
           <t>EXTRACT AIR READINGS</t>
         </is>
       </c>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-      <c r="H22" s="7" t="n"/>
-      <c r="I22" s="7" t="n"/>
-    </row>
-    <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="11" t="inlineStr">
+      <c r="B44" s="8" t="n"/>
+      <c r="C44" s="8" t="n"/>
+      <c r="D44" s="8" t="n"/>
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="8" t="n"/>
+      <c r="H44" s="8" t="n"/>
+      <c r="I44" s="8" t="n"/>
+    </row>
+    <row r="45" ht="30" customHeight="1">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>Module #</t>
         </is>
       </c>
-      <c r="B23" s="11" t="inlineStr">
+      <c r="B45" s="12" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
         </is>
       </c>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="C45" s="13" t="n"/>
+      <c r="D45" s="12" t="inlineStr">
         <is>
           <t>K-Factor (m3 /h)</t>
         </is>
       </c>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="11" t="inlineStr">
+      <c r="E45" s="13" t="n"/>
+      <c r="F45" s="12" t="inlineStr">
         <is>
           <t>Flowrate (m3 /h)</t>
         </is>
       </c>
-      <c r="G23" s="11" t="inlineStr">
+      <c r="G45" s="12" t="inlineStr">
         <is>
           <t>Flowrate (m3 /s)</t>
         </is>
       </c>
-      <c r="H23" s="11" t="inlineStr">
+      <c r="H45" s="12" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
-      <c r="I23" s="12" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
+      <c r="I45" s="13" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23.0 pa</t>
-        </is>
-      </c>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="11" t="inlineStr">
+      <c r="B46" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0 pa</t>
+        </is>
+      </c>
+      <c r="C46" s="13" t="n"/>
+      <c r="D46" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 71.8</t>
         </is>
       </c>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 344.34</t>
-        </is>
-      </c>
-      <c r="G24" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2323.0</t>
-        </is>
-      </c>
-      <c r="H24" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0%</t>
-        </is>
-      </c>
-      <c r="I24" s="12" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="n"/>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                2323.0 m3/s</t>
-        </is>
-      </c>
-      <c r="B26" s="12" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="12" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="inlineStr">
-        <is>
-          <t>Total Percentage                                675.0%</t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="12" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
+      <c r="E46" s="13" t="n"/>
+      <c r="F46" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="G46" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="H46" s="14" t="n"/>
+      <c r="I46" s="13" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="15" t="n"/>
+      <c r="B47" s="15" t="n"/>
+      <c r="C47" s="15" t="n"/>
+      <c r="D47" s="15" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="16" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                0.0 m3/s</t>
+        </is>
+      </c>
+      <c r="B48" s="13" t="n"/>
+      <c r="C48" s="13" t="n"/>
+      <c r="D48" s="13" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="13" t="n"/>
+      <c r="B49" s="13" t="n"/>
+      <c r="C49" s="13" t="n"/>
+      <c r="D49" s="13" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="inlineStr">
         <is>
           <t>SUPPLY AIR DATA</t>
         </is>
       </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="n"/>
-      <c r="I29" s="7" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Drawing Number: 	223</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="n"/>
-      <c r="C30" s="9" t="n"/>
-      <c r="D30" s="9" t="n"/>
-      <c r="E30" s="9" t="n"/>
-      <c r="F30" s="9" t="n"/>
-      <c r="G30" s="9" t="n"/>
-      <c r="H30" s="9" t="n"/>
-      <c r="I30" s="10" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>Location: 	feeffe</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="n"/>
-      <c r="C31" s="9" t="n"/>
-      <c r="D31" s="9" t="n"/>
-      <c r="E31" s="9" t="n"/>
-      <c r="F31" s="9" t="n"/>
-      <c r="G31" s="9" t="n"/>
-      <c r="H31" s="9" t="n"/>
-      <c r="I31" s="10" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>Model: 	KVF</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="n"/>
-      <c r="C32" s="9" t="n"/>
-      <c r="D32" s="9" t="n"/>
-      <c r="E32" s="9" t="n"/>
-      <c r="F32" s="9" t="n"/>
-      <c r="G32" s="9" t="n"/>
-      <c r="H32" s="9" t="n"/>
-      <c r="I32" s="10" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
+      <c r="B51" s="8" t="n"/>
+      <c r="C51" s="8" t="n"/>
+      <c r="D51" s="8" t="n"/>
+      <c r="E51" s="8" t="n"/>
+      <c r="F51" s="8" t="n"/>
+      <c r="G51" s="8" t="n"/>
+      <c r="H51" s="8" t="n"/>
+      <c r="I51" s="8" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>Drawing Number: 	21</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n"/>
+      <c r="C52" s="10" t="n"/>
+      <c r="D52" s="10" t="n"/>
+      <c r="E52" s="10" t="n"/>
+      <c r="F52" s="10" t="n"/>
+      <c r="G52" s="10" t="n"/>
+      <c r="H52" s="10" t="n"/>
+      <c r="I52" s="11" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="inlineStr">
+        <is>
+          <t>Location: 	cddc</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n"/>
+      <c r="C53" s="10" t="n"/>
+      <c r="D53" s="10" t="n"/>
+      <c r="E53" s="10" t="n"/>
+      <c r="F53" s="10" t="n"/>
+      <c r="G53" s="10" t="n"/>
+      <c r="H53" s="10" t="n"/>
+      <c r="I53" s="11" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>Model: 	UVF</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n"/>
+      <c r="C54" s="10" t="n"/>
+      <c r="D54" s="10" t="n"/>
+      <c r="E54" s="10" t="n"/>
+      <c r="F54" s="10" t="n"/>
+      <c r="G54" s="10" t="n"/>
+      <c r="H54" s="10" t="n"/>
+      <c r="I54" s="11" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>Quantity of Canopy Sections: 	1</t>
         </is>
       </c>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="n"/>
-      <c r="D33" s="9" t="n"/>
-      <c r="E33" s="9" t="n"/>
-      <c r="F33" s="9" t="n"/>
-      <c r="G33" s="9" t="n"/>
-      <c r="H33" s="9" t="n"/>
-      <c r="I33" s="10" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
+      <c r="B55" s="10" t="n"/>
+      <c r="C55" s="10" t="n"/>
+      <c r="D55" s="10" t="n"/>
+      <c r="E55" s="10" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
+      <c r="I55" s="11" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
         <is>
           <t>Calculation: 	QV = Kf x √Pa</t>
         </is>
       </c>
-      <c r="B34" s="9" t="n"/>
-      <c r="C34" s="9" t="n"/>
-      <c r="D34" s="9" t="n"/>
-      <c r="E34" s="9" t="n"/>
-      <c r="F34" s="9" t="n"/>
-      <c r="G34" s="9" t="n"/>
-      <c r="H34" s="9" t="n"/>
-      <c r="I34" s="10" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="inlineStr">
+      <c r="B56" s="10" t="n"/>
+      <c r="C56" s="10" t="n"/>
+      <c r="D56" s="10" t="n"/>
+      <c r="E56" s="10" t="n"/>
+      <c r="F56" s="10" t="n"/>
+      <c r="G56" s="10" t="n"/>
+      <c r="H56" s="10" t="n"/>
+      <c r="I56" s="11" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="inlineStr">
         <is>
           <t>SUPPLY AIR READINGS</t>
         </is>
       </c>
-      <c r="B35" s="7" t="n"/>
-      <c r="C35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="7" t="n"/>
-      <c r="I35" s="7" t="n"/>
-    </row>
-    <row r="36" ht="30" customHeight="1">
-      <c r="A36" s="11" t="inlineStr">
+      <c r="B57" s="8" t="n"/>
+      <c r="C57" s="8" t="n"/>
+      <c r="D57" s="8" t="n"/>
+      <c r="E57" s="8" t="n"/>
+      <c r="F57" s="8" t="n"/>
+      <c r="G57" s="8" t="n"/>
+      <c r="H57" s="8" t="n"/>
+      <c r="I57" s="8" t="n"/>
+    </row>
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>Module #</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr">
+      <c r="B58" s="12" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
         </is>
       </c>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="11" t="inlineStr">
+      <c r="C58" s="13" t="n"/>
+      <c r="D58" s="12" t="inlineStr">
         <is>
           <t>K-Factor (m3 /h)</t>
         </is>
       </c>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="11" t="inlineStr">
+      <c r="E58" s="13" t="n"/>
+      <c r="F58" s="12" t="inlineStr">
         <is>
           <t>Flowrate (m3 /h)</t>
         </is>
       </c>
-      <c r="G36" s="11" t="inlineStr">
+      <c r="G58" s="12" t="inlineStr">
         <is>
           <t>Flowrate (m3 /s)</t>
         </is>
       </c>
-      <c r="H36" s="11" t="inlineStr">
+      <c r="H58" s="12" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
-      <c r="I36" s="12" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
+      <c r="I58" s="13" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B37" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23.0 pa</t>
-        </is>
-      </c>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="11" t="inlineStr">
+      <c r="B59" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0 pa</t>
+        </is>
+      </c>
+      <c r="C59" s="13" t="n"/>
+      <c r="D59" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 121.7</t>
         </is>
       </c>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 583.65</t>
-        </is>
-      </c>
-      <c r="G37" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 232.0</t>
-        </is>
-      </c>
-      <c r="H37" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0%</t>
-        </is>
-      </c>
-      <c r="I37" s="12" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="13" t="n"/>
-      <c r="B38" s="13" t="n"/>
-      <c r="C38" s="13" t="n"/>
-      <c r="D38" s="13" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="14" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                232.0 m3/s</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="12" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="14" t="inlineStr">
-        <is>
-          <t>Total Percentage                                3.0%</t>
-        </is>
-      </c>
-      <c r="B40" s="12" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="12" t="n"/>
-    </row>
+      <c r="E59" s="13" t="n"/>
+      <c r="F59" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="G59" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="H59" s="14" t="n"/>
+      <c r="I59" s="13" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="15" t="n"/>
+      <c r="B60" s="15" t="n"/>
+      <c r="C60" s="15" t="n"/>
+      <c r="D60" s="15" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="16" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                0.0 m3/s</t>
+        </is>
+      </c>
+      <c r="B61" s="13" t="n"/>
+      <c r="C61" s="13" t="n"/>
+      <c r="D61" s="13" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="16" t="inlineStr">
+        <is>
+          <t>Total Percentage                                0%</t>
+        </is>
+      </c>
+      <c r="B62" s="13" t="n"/>
+      <c r="C62" s="13" t="n"/>
+      <c r="D62" s="13" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>UV CAPTURE RAY SYSTEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="15" t="inlineStr">
+        <is>
+          <t>UV SYSTEM CHECK RESULTS</t>
+        </is>
+      </c>
+      <c r="B69" s="15" t="n"/>
+      <c r="C69" s="15" t="n"/>
+      <c r="D69" s="15" t="n"/>
+    </row>
+    <row r="70" ht="30" customHeight="1">
+      <c r="A70" s="14" t="inlineStr">
+        <is>
+          <t>Quantity of Slaves per System</t>
+        </is>
+      </c>
+      <c r="B70" s="8" t="n"/>
+      <c r="C70" s="17" t="n"/>
+      <c r="D70" s="12" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" ht="30" customHeight="1">
+      <c r="A71" s="14" t="inlineStr">
+        <is>
+          <t>UV Pressure Setpoint (Pa)</t>
+        </is>
+      </c>
+      <c r="B71" s="8" t="n"/>
+      <c r="C71" s="17" t="n"/>
+      <c r="D71" s="12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="30" customHeight="1">
+      <c r="A72" s="14" t="inlineStr">
+        <is>
+          <t>Airflow Proved on Each Controller</t>
+        </is>
+      </c>
+      <c r="B72" s="8" t="n"/>
+      <c r="C72" s="17" t="n"/>
+      <c r="D72" s="12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1">
+      <c r="A73" s="14" t="inlineStr">
+        <is>
+          <t>Communication To All Canopy Controllers</t>
+        </is>
+      </c>
+      <c r="B73" s="8" t="n"/>
+      <c r="C73" s="17" t="n"/>
+      <c r="D73" s="12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="30" customHeight="1">
+      <c r="A74" s="14" t="inlineStr">
+        <is>
+          <t>UV System Tested and Fully Operational</t>
+        </is>
+      </c>
+      <c r="B74" s="8" t="n"/>
+      <c r="C74" s="17" t="n"/>
+      <c r="D74" s="12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1">
+      <c r="A75" s="14" t="inlineStr">
+        <is>
+          <t>All UV Safety Switches Tested</t>
+        </is>
+      </c>
+      <c r="B75" s="8" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="30" customHeight="1">
+      <c r="A76" s="14" t="inlineStr">
+        <is>
+          <t>All Filter Safety Switches Tested</t>
+        </is>
+      </c>
+      <c r="B76" s="8" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1">
+      <c r="A77" s="14" t="inlineStr">
+        <is>
+          <t>UV Capture Jet Operational</t>
+        </is>
+      </c>
+      <c r="B77" s="8" t="n"/>
+      <c r="C77" s="17" t="n"/>
+      <c r="D77" s="12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="30" customHeight="1">
+      <c r="A78" s="14" t="inlineStr">
+        <is>
+          <t>Capture Jet average pressure Reading (PA)</t>
+        </is>
+      </c>
+      <c r="B78" s="8" t="n"/>
+      <c r="C78" s="17" t="n"/>
+      <c r="D78" s="12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="18" t="inlineStr">
+        <is>
+          <t>ADDITIONAL NOTES</t>
+        </is>
+      </c>
+      <c r="B84" s="15" t="n"/>
+      <c r="C84" s="15" t="n"/>
+      <c r="D84" s="15" t="n"/>
+      <c r="E84" s="15" t="n"/>
+      <c r="F84" s="15" t="n"/>
+      <c r="G84" s="15" t="n"/>
+      <c r="H84" s="15" t="n"/>
+      <c r="I84" s="15" t="n"/>
+    </row>
+    <row r="85" ht="30" customHeight="1">
+      <c r="A85" s="19" t="inlineStr">
+        <is>
+          <t>dded</t>
+        </is>
+      </c>
+      <c r="I85" s="20" t="n"/>
+    </row>
+    <row r="86" ht="30" customHeight="1">
+      <c r="A86" s="19" t="inlineStr">
+        <is>
+          <t>eddeed</t>
+        </is>
+      </c>
+      <c r="I86" s="20" t="n"/>
+    </row>
+    <row r="87" ht="30" customHeight="1">
+      <c r="A87" s="19" t="inlineStr">
+        <is>
+          <t>deded</t>
+        </is>
+      </c>
+      <c r="I87" s="20" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="16" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B88" s="13" t="n"/>
+      <c r="C88" s="16" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="D88" s="13" t="n"/>
+      <c r="E88" s="13" t="n"/>
+      <c r="F88" s="13" t="n"/>
+      <c r="G88" s="13" t="n"/>
+      <c r="H88" s="13" t="n"/>
+      <c r="I88" s="13" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="16" t="inlineStr">
+        <is>
+          <t>Print</t>
+        </is>
+      </c>
+      <c r="B89" s="13" t="n"/>
+      <c r="C89" s="16" t="inlineStr">
+        <is>
+          <t>eddead, aedada</t>
+        </is>
+      </c>
+      <c r="D89" s="13" t="n"/>
+      <c r="E89" s="13" t="n"/>
+      <c r="F89" s="13" t="n"/>
+      <c r="G89" s="13" t="n"/>
+      <c r="H89" s="13" t="n"/>
+      <c r="I89" s="13" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="16" t="inlineStr">
+        <is>
+          <t>Sign</t>
+        </is>
+      </c>
+      <c r="B90" s="13" t="n"/>
+    </row>
+    <row r="92"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A16:I16"/>
+  <mergeCells count="38">
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="C88:I88"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="12" min="0" max="16383" man="1"/>
-    <brk id="42" min="0" max="16383" man="1"/>
+    <brk id="34" min="0" max="16383" man="1"/>
+    <brk id="112" min="0" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -58,8 +58,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009ac9f4"/>
-        <bgColor rgb="009ac9f4"/>
+        <fgColor rgb="002499D5"/>
+        <bgColor rgb="002499D5"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,6 +81,22 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
@@ -93,32 +109,16 @@
     </border>
     <border>
       <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -149,23 +149,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -298,7 +303,7 @@
       <row>18</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5715000" cy="1428750"/>
+    <ext cx="5905500" cy="1238250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -320,7 +325,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>91</row>
+      <row>102</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1905000" cy="714375"/>
@@ -633,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -662,42 +667,42 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CLIENT: Edcec </t>
+          <t xml:space="preserve">CLIENT:  </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NAME: Edde </t>
+          <t xml:space="preserve">PROJECT NAME:  </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NUMBER: Edead </t>
+          <t xml:space="preserve">PROJECT NUMBER: 2322 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DATE OF VISIT: 2024-10-17 </t>
+          <t xml:space="preserve">DATE OF VISIT: 2024-11-16 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENGINEER(s): Eddead, Aedada </t>
+          <t xml:space="preserve">ENGINEER(s): Simon </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Your Kitchen Ventilation System has the following serviceable technology....</t>
+          <t>Your Kitchen Ventilation System has the following serviceable technology:</t>
         </is>
       </c>
     </row>
@@ -721,656 +726,926 @@
       <c r="F38" s="8" t="n"/>
       <c r="G38" s="8" t="n"/>
       <c r="H38" s="8" t="n"/>
-      <c r="I38" s="8" t="n"/>
+      <c r="I38" s="9" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="inlineStr">
-        <is>
-          <t>Drawing Number: 	21</t>
-        </is>
-      </c>
-      <c r="B39" s="10" t="n"/>
-      <c r="C39" s="10" t="n"/>
-      <c r="D39" s="10" t="n"/>
-      <c r="E39" s="10" t="n"/>
-      <c r="F39" s="10" t="n"/>
-      <c r="G39" s="10" t="n"/>
-      <c r="H39" s="10" t="n"/>
-      <c r="I39" s="11" t="n"/>
+      <c r="A39" s="10" t="inlineStr">
+        <is>
+          <t>Drawing Number: 2322-23323</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n"/>
+      <c r="C39" s="11" t="n"/>
+      <c r="D39" s="11" t="n"/>
+      <c r="E39" s="11" t="n"/>
+      <c r="F39" s="11" t="n"/>
+      <c r="G39" s="11" t="n"/>
+      <c r="H39" s="11" t="n"/>
+      <c r="I39" s="12" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Location: 	cddc</t>
-        </is>
-      </c>
-      <c r="B40" s="10" t="n"/>
-      <c r="C40" s="10" t="n"/>
-      <c r="D40" s="10" t="n"/>
-      <c r="E40" s="10" t="n"/>
-      <c r="F40" s="10" t="n"/>
-      <c r="G40" s="10" t="n"/>
-      <c r="H40" s="10" t="n"/>
-      <c r="I40" s="11" t="n"/>
+      <c r="A40" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Location: 	</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n"/>
+      <c r="C40" s="11" t="n"/>
+      <c r="D40" s="11" t="n"/>
+      <c r="E40" s="11" t="n"/>
+      <c r="F40" s="11" t="n"/>
+      <c r="G40" s="11" t="n"/>
+      <c r="H40" s="11" t="n"/>
+      <c r="I40" s="12" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="inlineStr">
-        <is>
-          <t>Model: 	UVF</t>
-        </is>
-      </c>
-      <c r="B41" s="10" t="n"/>
-      <c r="C41" s="10" t="n"/>
-      <c r="D41" s="10" t="n"/>
-      <c r="E41" s="10" t="n"/>
-      <c r="F41" s="10" t="n"/>
-      <c r="G41" s="10" t="n"/>
-      <c r="H41" s="10" t="n"/>
-      <c r="I41" s="11" t="n"/>
+      <c r="A41" s="10" t="inlineStr">
+        <is>
+          <t>Model: 	KVF</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n"/>
+      <c r="C41" s="11" t="n"/>
+      <c r="D41" s="11" t="n"/>
+      <c r="E41" s="11" t="n"/>
+      <c r="F41" s="11" t="n"/>
+      <c r="G41" s="11" t="n"/>
+      <c r="H41" s="11" t="n"/>
+      <c r="I41" s="12" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="inlineStr">
-        <is>
-          <t>Quantity of Canopy Sections: 	1</t>
-        </is>
-      </c>
-      <c r="B42" s="10" t="n"/>
-      <c r="C42" s="10" t="n"/>
-      <c r="D42" s="10" t="n"/>
-      <c r="E42" s="10" t="n"/>
-      <c r="F42" s="10" t="n"/>
-      <c r="G42" s="10" t="n"/>
-      <c r="H42" s="10" t="n"/>
-      <c r="I42" s="11" t="n"/>
+      <c r="A42" s="10" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	2</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n"/>
+      <c r="C42" s="11" t="n"/>
+      <c r="D42" s="11" t="n"/>
+      <c r="E42" s="11" t="n"/>
+      <c r="F42" s="11" t="n"/>
+      <c r="G42" s="11" t="n"/>
+      <c r="H42" s="11" t="n"/>
+      <c r="I42" s="12" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="inlineStr">
+      <c r="A43" s="10" t="inlineStr">
         <is>
           <t>Calculation: 	QV = Kf x √Pa</t>
         </is>
       </c>
-      <c r="B43" s="10" t="n"/>
-      <c r="C43" s="10" t="n"/>
-      <c r="D43" s="10" t="n"/>
-      <c r="E43" s="10" t="n"/>
-      <c r="F43" s="10" t="n"/>
-      <c r="G43" s="10" t="n"/>
-      <c r="H43" s="10" t="n"/>
-      <c r="I43" s="11" t="n"/>
+      <c r="B43" s="11" t="n"/>
+      <c r="C43" s="11" t="n"/>
+      <c r="D43" s="11" t="n"/>
+      <c r="E43" s="11" t="n"/>
+      <c r="F43" s="11" t="n"/>
+      <c r="G43" s="11" t="n"/>
+      <c r="H43" s="11" t="n"/>
+      <c r="I43" s="12" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="inlineStr">
+      <c r="A44" s="13" t="inlineStr">
         <is>
           <t>EXTRACT AIR READINGS</t>
         </is>
       </c>
-      <c r="B44" s="8" t="n"/>
-      <c r="C44" s="8" t="n"/>
-      <c r="D44" s="8" t="n"/>
-      <c r="E44" s="8" t="n"/>
-      <c r="F44" s="8" t="n"/>
-      <c r="G44" s="8" t="n"/>
-      <c r="H44" s="8" t="n"/>
-      <c r="I44" s="8" t="n"/>
+      <c r="B44" s="14" t="n"/>
+      <c r="C44" s="14" t="n"/>
+      <c r="D44" s="14" t="n"/>
+      <c r="E44" s="14" t="n"/>
+      <c r="F44" s="14" t="n"/>
+      <c r="G44" s="14" t="n"/>
+      <c r="H44" s="14" t="n"/>
+      <c r="I44" s="15" t="n"/>
     </row>
     <row r="45" ht="30" customHeight="1">
-      <c r="A45" s="12" t="inlineStr">
+      <c r="A45" s="16" t="inlineStr">
         <is>
           <t>Module #</t>
         </is>
       </c>
-      <c r="B45" s="12" t="inlineStr">
+      <c r="B45" s="16" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
         </is>
       </c>
-      <c r="C45" s="13" t="n"/>
-      <c r="D45" s="12" t="inlineStr">
+      <c r="C45" s="17" t="n"/>
+      <c r="D45" s="16" t="inlineStr">
         <is>
           <t>K-Factor (m3 /h)</t>
         </is>
       </c>
-      <c r="E45" s="13" t="n"/>
-      <c r="F45" s="12" t="inlineStr">
+      <c r="E45" s="17" t="n"/>
+      <c r="F45" s="16" t="inlineStr">
         <is>
           <t>Flowrate (m3 /h)</t>
         </is>
       </c>
-      <c r="G45" s="12" t="inlineStr">
+      <c r="G45" s="16" t="inlineStr">
         <is>
           <t>Flowrate (m3 /s)</t>
         </is>
       </c>
-      <c r="H45" s="12" t="inlineStr">
+      <c r="H45" s="16" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
-      <c r="I45" s="13" t="n"/>
+      <c r="I45" s="17" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="12" t="inlineStr">
+      <c r="A46" s="16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B46" s="12" t="inlineStr">
+      <c r="B46" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.0 pa</t>
         </is>
       </c>
-      <c r="C46" s="13" t="n"/>
-      <c r="D46" s="12" t="inlineStr">
+      <c r="C46" s="17" t="n"/>
+      <c r="D46" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 71.8</t>
         </is>
       </c>
-      <c r="E46" s="13" t="n"/>
-      <c r="F46" s="12" t="inlineStr">
+      <c r="E46" s="17" t="n"/>
+      <c r="F46" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.0</t>
         </is>
       </c>
-      <c r="G46" s="12" t="inlineStr">
+      <c r="G46" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.0</t>
         </is>
       </c>
-      <c r="H46" s="14" t="n"/>
-      <c r="I46" s="13" t="n"/>
+      <c r="H46" s="18" t="n"/>
+      <c r="I46" s="17" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="n"/>
-      <c r="B47" s="15" t="n"/>
-      <c r="C47" s="15" t="n"/>
-      <c r="D47" s="15" t="n"/>
+      <c r="A47" s="16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B47" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0 pa</t>
+        </is>
+      </c>
+      <c r="C47" s="17" t="n"/>
+      <c r="D47" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 71.8</t>
+        </is>
+      </c>
+      <c r="E47" s="17" t="n"/>
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="G47" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="H47" s="18" t="n"/>
+      <c r="I47" s="17" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="16" t="inlineStr">
+      <c r="A48" s="19" t="n"/>
+      <c r="B48" s="19" t="n"/>
+      <c r="C48" s="19" t="n"/>
+      <c r="D48" s="19" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="20" t="inlineStr">
         <is>
           <t>Total Flowrate                                0.0 m3/s</t>
         </is>
       </c>
-      <c r="B48" s="13" t="n"/>
-      <c r="C48" s="13" t="n"/>
-      <c r="D48" s="13" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="13" t="n"/>
-      <c r="B49" s="13" t="n"/>
-      <c r="C49" s="13" t="n"/>
-      <c r="D49" s="13" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="7" t="inlineStr">
+      <c r="B49" s="17" t="n"/>
+      <c r="C49" s="17" t="n"/>
+      <c r="D49" s="17" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="17" t="n"/>
+      <c r="B50" s="17" t="n"/>
+      <c r="C50" s="17" t="n"/>
+      <c r="D50" s="17" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="13" t="inlineStr">
         <is>
           <t>SUPPLY AIR DATA</t>
         </is>
       </c>
-      <c r="B51" s="8" t="n"/>
-      <c r="C51" s="8" t="n"/>
-      <c r="D51" s="8" t="n"/>
-      <c r="E51" s="8" t="n"/>
-      <c r="F51" s="8" t="n"/>
-      <c r="G51" s="8" t="n"/>
-      <c r="H51" s="8" t="n"/>
-      <c r="I51" s="8" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="inlineStr">
-        <is>
-          <t>Drawing Number: 	21</t>
-        </is>
-      </c>
-      <c r="B52" s="10" t="n"/>
-      <c r="C52" s="10" t="n"/>
-      <c r="D52" s="10" t="n"/>
-      <c r="E52" s="10" t="n"/>
-      <c r="F52" s="10" t="n"/>
-      <c r="G52" s="10" t="n"/>
-      <c r="H52" s="10" t="n"/>
-      <c r="I52" s="11" t="n"/>
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="14" t="n"/>
+      <c r="D52" s="14" t="n"/>
+      <c r="E52" s="14" t="n"/>
+      <c r="F52" s="14" t="n"/>
+      <c r="G52" s="14" t="n"/>
+      <c r="H52" s="14" t="n"/>
+      <c r="I52" s="15" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="inlineStr">
-        <is>
-          <t>Location: 	cddc</t>
-        </is>
-      </c>
-      <c r="B53" s="10" t="n"/>
-      <c r="C53" s="10" t="n"/>
-      <c r="D53" s="10" t="n"/>
-      <c r="E53" s="10" t="n"/>
-      <c r="F53" s="10" t="n"/>
-      <c r="G53" s="10" t="n"/>
-      <c r="H53" s="10" t="n"/>
-      <c r="I53" s="11" t="n"/>
+      <c r="A53" s="10" t="inlineStr">
+        <is>
+          <t>2322-23323</t>
+        </is>
+      </c>
+      <c r="B53" s="11" t="n"/>
+      <c r="C53" s="11" t="n"/>
+      <c r="D53" s="11" t="n"/>
+      <c r="E53" s="11" t="n"/>
+      <c r="F53" s="11" t="n"/>
+      <c r="G53" s="11" t="n"/>
+      <c r="H53" s="11" t="n"/>
+      <c r="I53" s="12" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="inlineStr">
-        <is>
-          <t>Model: 	UVF</t>
-        </is>
-      </c>
-      <c r="B54" s="10" t="n"/>
-      <c r="C54" s="10" t="n"/>
-      <c r="D54" s="10" t="n"/>
-      <c r="E54" s="10" t="n"/>
-      <c r="F54" s="10" t="n"/>
-      <c r="G54" s="10" t="n"/>
-      <c r="H54" s="10" t="n"/>
-      <c r="I54" s="11" t="n"/>
+      <c r="A54" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Location: 	</t>
+        </is>
+      </c>
+      <c r="B54" s="11" t="n"/>
+      <c r="C54" s="11" t="n"/>
+      <c r="D54" s="11" t="n"/>
+      <c r="E54" s="11" t="n"/>
+      <c r="F54" s="11" t="n"/>
+      <c r="G54" s="11" t="n"/>
+      <c r="H54" s="11" t="n"/>
+      <c r="I54" s="12" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="inlineStr">
-        <is>
-          <t>Quantity of Canopy Sections: 	1</t>
-        </is>
-      </c>
-      <c r="B55" s="10" t="n"/>
-      <c r="C55" s="10" t="n"/>
-      <c r="D55" s="10" t="n"/>
-      <c r="E55" s="10" t="n"/>
-      <c r="F55" s="10" t="n"/>
-      <c r="G55" s="10" t="n"/>
-      <c r="H55" s="10" t="n"/>
-      <c r="I55" s="11" t="n"/>
+      <c r="A55" s="10" t="inlineStr">
+        <is>
+          <t>Model: 	KVF</t>
+        </is>
+      </c>
+      <c r="B55" s="11" t="n"/>
+      <c r="C55" s="11" t="n"/>
+      <c r="D55" s="11" t="n"/>
+      <c r="E55" s="11" t="n"/>
+      <c r="F55" s="11" t="n"/>
+      <c r="G55" s="11" t="n"/>
+      <c r="H55" s="11" t="n"/>
+      <c r="I55" s="12" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="inlineStr">
+      <c r="A56" s="10" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	2</t>
+        </is>
+      </c>
+      <c r="B56" s="11" t="n"/>
+      <c r="C56" s="11" t="n"/>
+      <c r="D56" s="11" t="n"/>
+      <c r="E56" s="11" t="n"/>
+      <c r="F56" s="11" t="n"/>
+      <c r="G56" s="11" t="n"/>
+      <c r="H56" s="11" t="n"/>
+      <c r="I56" s="12" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="10" t="inlineStr">
         <is>
           <t>Calculation: 	QV = Kf x √Pa</t>
         </is>
       </c>
-      <c r="B56" s="10" t="n"/>
-      <c r="C56" s="10" t="n"/>
-      <c r="D56" s="10" t="n"/>
-      <c r="E56" s="10" t="n"/>
-      <c r="F56" s="10" t="n"/>
-      <c r="G56" s="10" t="n"/>
-      <c r="H56" s="10" t="n"/>
-      <c r="I56" s="11" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="7" t="inlineStr">
+      <c r="B57" s="11" t="n"/>
+      <c r="C57" s="11" t="n"/>
+      <c r="D57" s="11" t="n"/>
+      <c r="E57" s="11" t="n"/>
+      <c r="F57" s="11" t="n"/>
+      <c r="G57" s="11" t="n"/>
+      <c r="H57" s="11" t="n"/>
+      <c r="I57" s="12" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="13" t="inlineStr">
         <is>
           <t>SUPPLY AIR READINGS</t>
         </is>
       </c>
-      <c r="B57" s="8" t="n"/>
-      <c r="C57" s="8" t="n"/>
-      <c r="D57" s="8" t="n"/>
-      <c r="E57" s="8" t="n"/>
-      <c r="F57" s="8" t="n"/>
-      <c r="G57" s="8" t="n"/>
-      <c r="H57" s="8" t="n"/>
-      <c r="I57" s="8" t="n"/>
-    </row>
-    <row r="58" ht="30" customHeight="1">
-      <c r="A58" s="12" t="inlineStr">
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="14" t="n"/>
+      <c r="D58" s="14" t="n"/>
+      <c r="E58" s="14" t="n"/>
+      <c r="F58" s="14" t="n"/>
+      <c r="G58" s="14" t="n"/>
+      <c r="H58" s="14" t="n"/>
+      <c r="I58" s="15" t="n"/>
+    </row>
+    <row r="59" ht="30" customHeight="1">
+      <c r="A59" s="16" t="inlineStr">
         <is>
           <t>Module #</t>
         </is>
       </c>
-      <c r="B58" s="12" t="inlineStr">
+      <c r="B59" s="16" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
         </is>
       </c>
-      <c r="C58" s="13" t="n"/>
-      <c r="D58" s="12" t="inlineStr">
+      <c r="C59" s="17" t="n"/>
+      <c r="D59" s="16" t="inlineStr">
         <is>
           <t>K-Factor (m3 /h)</t>
         </is>
       </c>
-      <c r="E58" s="13" t="n"/>
-      <c r="F58" s="12" t="inlineStr">
+      <c r="E59" s="17" t="n"/>
+      <c r="F59" s="16" t="inlineStr">
         <is>
           <t>Flowrate (m3 /h)</t>
         </is>
       </c>
-      <c r="G58" s="12" t="inlineStr">
+      <c r="G59" s="16" t="inlineStr">
         <is>
           <t>Flowrate (m3 /s)</t>
         </is>
       </c>
-      <c r="H58" s="12" t="inlineStr">
+      <c r="H59" s="16" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
-      <c r="I58" s="13" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="inlineStr">
+      <c r="I59" s="17" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B59" s="12" t="inlineStr">
+      <c r="B60" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.0 pa</t>
         </is>
       </c>
-      <c r="C59" s="13" t="n"/>
-      <c r="D59" s="12" t="inlineStr">
+      <c r="C60" s="17" t="n"/>
+      <c r="D60" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 121.7</t>
         </is>
       </c>
-      <c r="E59" s="13" t="n"/>
-      <c r="F59" s="12" t="inlineStr">
+      <c r="E60" s="17" t="n"/>
+      <c r="F60" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.0</t>
         </is>
       </c>
-      <c r="G59" s="12" t="inlineStr">
+      <c r="G60" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.0</t>
         </is>
       </c>
-      <c r="H59" s="14" t="n"/>
-      <c r="I59" s="13" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="15" t="n"/>
-      <c r="B60" s="15" t="n"/>
-      <c r="C60" s="15" t="n"/>
-      <c r="D60" s="15" t="n"/>
+      <c r="H60" s="18" t="n"/>
+      <c r="I60" s="17" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B61" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0 pa</t>
+        </is>
+      </c>
+      <c r="C61" s="17" t="n"/>
+      <c r="D61" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121.7</t>
+        </is>
+      </c>
+      <c r="E61" s="17" t="n"/>
+      <c r="F61" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="G61" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="H61" s="18" t="n"/>
+      <c r="I61" s="17" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="19" t="n"/>
+      <c r="B62" s="19" t="n"/>
+      <c r="C62" s="19" t="n"/>
+      <c r="D62" s="19" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="20" t="inlineStr">
+        <is>
           <t>Total Flowrate                                0.0 m3/s</t>
         </is>
       </c>
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="13" t="n"/>
-      <c r="D61" s="13" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="16" t="inlineStr">
+      <c r="B63" s="17" t="n"/>
+      <c r="C63" s="17" t="n"/>
+      <c r="D63" s="17" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="20" t="inlineStr">
         <is>
           <t>Total Percentage                                0%</t>
         </is>
       </c>
-      <c r="B62" s="13" t="n"/>
-      <c r="C62" s="13" t="n"/>
-      <c r="D62" s="13" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="4" t="inlineStr">
-        <is>
-          <t>UV CAPTURE RAY SYSTEM</t>
-        </is>
-      </c>
+      <c r="B64" s="17" t="n"/>
+      <c r="C64" s="17" t="n"/>
+      <c r="D64" s="17" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="13" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. SYSTEM FOR KVF</t>
+        </is>
+      </c>
+      <c r="B68" s="14" t="n"/>
+      <c r="C68" s="14" t="n"/>
+      <c r="D68" s="14" t="n"/>
+      <c r="E68" s="14" t="n"/>
+      <c r="F68" s="14" t="n"/>
+      <c r="G68" s="14" t="n"/>
+      <c r="H68" s="14" t="n"/>
+      <c r="I68" s="15" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="15" t="inlineStr">
-        <is>
-          <t>UV SYSTEM CHECK RESULTS</t>
-        </is>
-      </c>
-      <c r="B69" s="15" t="n"/>
-      <c r="C69" s="15" t="n"/>
-      <c r="D69" s="15" t="n"/>
-    </row>
-    <row r="70" ht="30" customHeight="1">
-      <c r="A70" s="14" t="inlineStr">
-        <is>
-          <t>Quantity of Slaves per System</t>
-        </is>
-      </c>
-      <c r="B70" s="8" t="n"/>
+      <c r="A69" s="20" t="inlineStr">
+        <is>
+          <t>Canopy 'Minimum' Air Flow Set Point % of Design</t>
+        </is>
+      </c>
+      <c r="B69" s="17" t="n"/>
+      <c r="C69" s="17" t="n"/>
+      <c r="D69" s="17" t="n"/>
+      <c r="E69" s="17" t="n"/>
+      <c r="F69" s="17" t="n"/>
+      <c r="G69" s="17" t="n"/>
+      <c r="H69" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="17" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="20" t="inlineStr">
+        <is>
+          <t>Canopy 'Idle' Air Flow Set % Of Design</t>
+        </is>
+      </c>
+      <c r="B70" s="17" t="n"/>
       <c r="C70" s="17" t="n"/>
-      <c r="D70" s="12" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" ht="30" customHeight="1">
-      <c r="A71" s="14" t="inlineStr">
-        <is>
-          <t>UV Pressure Setpoint (Pa)</t>
-        </is>
-      </c>
-      <c r="B71" s="8" t="n"/>
+      <c r="D70" s="17" t="n"/>
+      <c r="E70" s="17" t="n"/>
+      <c r="F70" s="17" t="n"/>
+      <c r="G70" s="17" t="n"/>
+      <c r="H70" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="17" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="20" t="inlineStr">
+        <is>
+          <t>Canopy 'Cook' Air Flow Set % Of Design</t>
+        </is>
+      </c>
+      <c r="B71" s="17" t="n"/>
       <c r="C71" s="17" t="n"/>
-      <c r="D71" s="12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="72" ht="30" customHeight="1">
-      <c r="A72" s="14" t="inlineStr">
-        <is>
-          <t>Airflow Proved on Each Controller</t>
-        </is>
-      </c>
-      <c r="B72" s="8" t="n"/>
+      <c r="D71" s="17" t="n"/>
+      <c r="E71" s="17" t="n"/>
+      <c r="F71" s="17" t="n"/>
+      <c r="G71" s="17" t="n"/>
+      <c r="H71" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="17" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="20" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Tested in 'Minimum' Mode</t>
+        </is>
+      </c>
+      <c r="B72" s="17" t="n"/>
       <c r="C72" s="17" t="n"/>
-      <c r="D72" s="12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="30" customHeight="1">
-      <c r="A73" s="14" t="inlineStr">
-        <is>
-          <t>Communication To All Canopy Controllers</t>
-        </is>
-      </c>
-      <c r="B73" s="8" t="n"/>
+      <c r="D72" s="17" t="n"/>
+      <c r="E72" s="17" t="n"/>
+      <c r="F72" s="17" t="n"/>
+      <c r="G72" s="17" t="n"/>
+      <c r="H72" s="18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I72" s="17" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="20" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Tested in 'Idle' Mode</t>
+        </is>
+      </c>
+      <c r="B73" s="17" t="n"/>
       <c r="C73" s="17" t="n"/>
-      <c r="D73" s="12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="74" ht="30" customHeight="1">
-      <c r="A74" s="14" t="inlineStr">
-        <is>
-          <t>UV System Tested and Fully Operational</t>
-        </is>
-      </c>
-      <c r="B74" s="8" t="n"/>
+      <c r="D73" s="17" t="n"/>
+      <c r="E73" s="17" t="n"/>
+      <c r="F73" s="17" t="n"/>
+      <c r="G73" s="17" t="n"/>
+      <c r="H73" s="18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I73" s="17" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="20" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Tested in 'Cook' Mode</t>
+        </is>
+      </c>
+      <c r="B74" s="17" t="n"/>
       <c r="C74" s="17" t="n"/>
-      <c r="D74" s="12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="75" ht="30" customHeight="1">
-      <c r="A75" s="14" t="inlineStr">
-        <is>
-          <t>All UV Safety Switches Tested</t>
-        </is>
-      </c>
-      <c r="B75" s="8" t="n"/>
+      <c r="D74" s="17" t="n"/>
+      <c r="E74" s="17" t="n"/>
+      <c r="F74" s="17" t="n"/>
+      <c r="G74" s="17" t="n"/>
+      <c r="H74" s="18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I74" s="17" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="20" t="inlineStr">
+        <is>
+          <t>Cook Mode Run Time (Seconds)</t>
+        </is>
+      </c>
+      <c r="B75" s="17" t="n"/>
       <c r="C75" s="17" t="n"/>
-      <c r="D75" s="12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="76" ht="30" customHeight="1">
-      <c r="A76" s="14" t="inlineStr">
-        <is>
-          <t>All Filter Safety Switches Tested</t>
-        </is>
-      </c>
-      <c r="B76" s="8" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="17" t="n"/>
+      <c r="F75" s="17" t="n"/>
+      <c r="G75" s="17" t="n"/>
+      <c r="H75" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="17" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="20" t="inlineStr">
+        <is>
+          <t>Testing of Canopy LIR-2 Sensors Successful</t>
+        </is>
+      </c>
+      <c r="B76" s="17" t="n"/>
       <c r="C76" s="17" t="n"/>
-      <c r="D76" s="12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="77" ht="30" customHeight="1">
-      <c r="A77" s="14" t="inlineStr">
-        <is>
-          <t>UV Capture Jet Operational</t>
-        </is>
-      </c>
-      <c r="B77" s="8" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="17" t="n"/>
+      <c r="F76" s="17" t="n"/>
+      <c r="G76" s="17" t="n"/>
+      <c r="H76" s="18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I76" s="17" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="20" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Override Temp Setpoint (°C)</t>
+        </is>
+      </c>
+      <c r="B77" s="17" t="n"/>
       <c r="C77" s="17" t="n"/>
-      <c r="D77" s="12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="78" ht="30" customHeight="1">
-      <c r="A78" s="14" t="inlineStr">
-        <is>
-          <t>Capture Jet average pressure Reading (PA)</t>
-        </is>
-      </c>
-      <c r="B78" s="8" t="n"/>
+      <c r="D77" s="17" t="n"/>
+      <c r="E77" s="17" t="n"/>
+      <c r="F77" s="17" t="n"/>
+      <c r="G77" s="17" t="n"/>
+      <c r="H77" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="17" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="20" t="inlineStr">
+        <is>
+          <t>Override Test on Halton HMI Successful</t>
+        </is>
+      </c>
+      <c r="B78" s="17" t="n"/>
       <c r="C78" s="17" t="n"/>
-      <c r="D78" s="12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="18" t="inlineStr">
+      <c r="D78" s="17" t="n"/>
+      <c r="E78" s="17" t="n"/>
+      <c r="F78" s="17" t="n"/>
+      <c r="G78" s="17" t="n"/>
+      <c r="H78" s="18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I78" s="17" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="20" t="inlineStr">
+        <is>
+          <t>Auto-Balance of M.A.R.V.E.L. System Successful</t>
+        </is>
+      </c>
+      <c r="B79" s="17" t="n"/>
+      <c r="C79" s="17" t="n"/>
+      <c r="D79" s="17" t="n"/>
+      <c r="E79" s="17" t="n"/>
+      <c r="F79" s="17" t="n"/>
+      <c r="G79" s="17" t="n"/>
+      <c r="H79" s="18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I79" s="17" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>RESULTS SUMMARY - EXTRACT AIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>Drawing Number</t>
+        </is>
+      </c>
+      <c r="B86" s="17" t="n"/>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>Design Flow Rate (m³/s)</t>
+        </is>
+      </c>
+      <c r="D86" s="17" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>Actual Flowrate (m³/s)</t>
+        </is>
+      </c>
+      <c r="F86" s="17" t="n"/>
+      <c r="G86" s="21" t="inlineStr">
+        <is>
+          <t>Percentage of Design</t>
+        </is>
+      </c>
+      <c r="H86" s="17" t="n"/>
+      <c r="I86" s="9" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="20" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B87" s="17" t="n"/>
+      <c r="C87" s="20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D87" s="17" t="n"/>
+      <c r="E87" s="20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F87" s="17" t="n"/>
+      <c r="G87" s="20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H87" s="17" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>RESULTS SUMMARY - SUPPLY AIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>Drawing Number</t>
+        </is>
+      </c>
+      <c r="B91" s="17" t="n"/>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>Design Flow Rate (m³/s)</t>
+        </is>
+      </c>
+      <c r="D91" s="17" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>Actual Flowrate (m³/s)</t>
+        </is>
+      </c>
+      <c r="F91" s="17" t="n"/>
+      <c r="G91" s="21" t="inlineStr">
+        <is>
+          <t>Percentage of Design</t>
+        </is>
+      </c>
+      <c r="H91" s="17" t="n"/>
+      <c r="I91" s="9" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="20" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B92" s="17" t="n"/>
+      <c r="C92" s="20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" s="17" t="n"/>
+      <c r="E92" s="20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F92" s="17" t="n"/>
+      <c r="G92" s="20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H92" s="17" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="21" t="inlineStr">
         <is>
           <t>ADDITIONAL NOTES</t>
         </is>
       </c>
-      <c r="B84" s="15" t="n"/>
-      <c r="C84" s="15" t="n"/>
-      <c r="D84" s="15" t="n"/>
-      <c r="E84" s="15" t="n"/>
-      <c r="F84" s="15" t="n"/>
-      <c r="G84" s="15" t="n"/>
-      <c r="H84" s="15" t="n"/>
-      <c r="I84" s="15" t="n"/>
-    </row>
-    <row r="85" ht="30" customHeight="1">
-      <c r="A85" s="19" t="inlineStr">
-        <is>
-          <t>dded</t>
-        </is>
-      </c>
-      <c r="I85" s="20" t="n"/>
-    </row>
-    <row r="86" ht="30" customHeight="1">
-      <c r="A86" s="19" t="inlineStr">
-        <is>
-          <t>eddeed</t>
-        </is>
-      </c>
-      <c r="I86" s="20" t="n"/>
-    </row>
-    <row r="87" ht="30" customHeight="1">
-      <c r="A87" s="19" t="inlineStr">
-        <is>
-          <t>deded</t>
-        </is>
-      </c>
-      <c r="I87" s="20" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="16" t="inlineStr">
+      <c r="B97" s="14" t="n"/>
+      <c r="C97" s="14" t="n"/>
+      <c r="D97" s="14" t="n"/>
+      <c r="E97" s="14" t="n"/>
+      <c r="F97" s="14" t="n"/>
+      <c r="G97" s="14" t="n"/>
+      <c r="H97" s="14" t="n"/>
+      <c r="I97" s="15" t="n"/>
+    </row>
+    <row r="98" ht="30" customHeight="1">
+      <c r="A98" s="22" t="inlineStr"/>
+      <c r="I98" s="23" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="20" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B88" s="13" t="n"/>
-      <c r="C88" s="16" t="inlineStr">
-        <is>
-          <t>2024-10-17</t>
-        </is>
-      </c>
-      <c r="D88" s="13" t="n"/>
-      <c r="E88" s="13" t="n"/>
-      <c r="F88" s="13" t="n"/>
-      <c r="G88" s="13" t="n"/>
-      <c r="H88" s="13" t="n"/>
-      <c r="I88" s="13" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="16" t="inlineStr">
+      <c r="B99" s="17" t="n"/>
+      <c r="C99" s="20" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="D99" s="17" t="n"/>
+      <c r="E99" s="17" t="n"/>
+      <c r="F99" s="17" t="n"/>
+      <c r="G99" s="17" t="n"/>
+      <c r="H99" s="17" t="n"/>
+      <c r="I99" s="17" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="20" t="inlineStr">
         <is>
           <t>Print</t>
         </is>
       </c>
-      <c r="B89" s="13" t="n"/>
-      <c r="C89" s="16" t="inlineStr">
-        <is>
-          <t>eddead, aedada</t>
-        </is>
-      </c>
-      <c r="D89" s="13" t="n"/>
-      <c r="E89" s="13" t="n"/>
-      <c r="F89" s="13" t="n"/>
-      <c r="G89" s="13" t="n"/>
-      <c r="H89" s="13" t="n"/>
-      <c r="I89" s="13" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="16" t="inlineStr">
+      <c r="B100" s="17" t="n"/>
+      <c r="C100" s="20" t="inlineStr">
+        <is>
+          <t>Simon</t>
+        </is>
+      </c>
+      <c r="D100" s="17" t="n"/>
+      <c r="E100" s="17" t="n"/>
+      <c r="F100" s="17" t="n"/>
+      <c r="G100" s="17" t="n"/>
+      <c r="H100" s="17" t="n"/>
+      <c r="I100" s="17" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="20" t="inlineStr">
         <is>
           <t>Sign</t>
         </is>
       </c>
-      <c r="B90" s="13" t="n"/>
-    </row>
-    <row r="92"/>
+      <c r="B101" s="17" t="n"/>
+    </row>
+    <row r="103"/>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A75:C75"/>
+  <mergeCells count="73">
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="G86:H86"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="H78:I78"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E92:F92"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A87:B87"/>
     <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="H73:I73"/>
     <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D61:E61"/>
     <mergeCell ref="A49:D49"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="H70:I70"/>
     <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="C88:I88"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="E86:F86"/>
     <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A69:G69"/>
     <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="C103:I103"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="C100:I100"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C99:I99"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="H76:I76"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A71:G71"/>
     <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C87:D87"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="34" min="0" max="16383" man="1"/>
-    <brk id="112" min="0" max="16383" man="1"/>
+    <brk id="123" min="0" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -166,11 +166,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -325,7 +325,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>102</row>
+      <row>128</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1905000" cy="714375"/>
@@ -638,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -681,21 +681,21 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NUMBER: 2322 </t>
+          <t xml:space="preserve">PROJECT NUMBER: 2332 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DATE OF VISIT: 2024-11-16 </t>
+          <t xml:space="preserve">DATE OF VISIT: 2025-01-23 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENGINEER(s): Simon </t>
+          <t xml:space="preserve">ENGINEER(s):  </t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
     <row r="39">
       <c r="A39" s="10" t="inlineStr">
         <is>
-          <t>Drawing Number: 2322-23323</t>
+          <t>Drawing Number: 2332-1212</t>
         </is>
       </c>
       <c r="B39" s="11" t="n"/>
@@ -746,7 +746,7 @@
     <row r="40">
       <c r="A40" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Location: 	</t>
+          <t>Location: 	1221</t>
         </is>
       </c>
       <c r="B40" s="11" t="n"/>
@@ -776,7 +776,7 @@
     <row r="42">
       <c r="A42" s="10" t="inlineStr">
         <is>
-          <t>Quantity of Canopy Sections: 	2</t>
+          <t>Total Design Airflow: 	1.8 M³/s</t>
         </is>
       </c>
       <c r="B42" s="11" t="n"/>
@@ -791,7 +791,7 @@
     <row r="43">
       <c r="A43" s="10" t="inlineStr">
         <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
+          <t>Quantity of Canopy Sections: 	2</t>
         </is>
       </c>
       <c r="B43" s="11" t="n"/>
@@ -804,203 +804,184 @@
       <c r="I43" s="12" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="inlineStr">
+      <c r="A44" s="10" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n"/>
+      <c r="C44" s="11" t="n"/>
+      <c r="D44" s="11" t="n"/>
+      <c r="E44" s="11" t="n"/>
+      <c r="F44" s="11" t="n"/>
+      <c r="G44" s="11" t="n"/>
+      <c r="H44" s="11" t="n"/>
+      <c r="I44" s="12" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="13" t="inlineStr">
         <is>
           <t>EXTRACT AIR READINGS</t>
         </is>
       </c>
-      <c r="B44" s="14" t="n"/>
-      <c r="C44" s="14" t="n"/>
-      <c r="D44" s="14" t="n"/>
-      <c r="E44" s="14" t="n"/>
-      <c r="F44" s="14" t="n"/>
-      <c r="G44" s="14" t="n"/>
-      <c r="H44" s="14" t="n"/>
-      <c r="I44" s="15" t="n"/>
-    </row>
-    <row r="45" ht="30" customHeight="1">
-      <c r="A45" s="16" t="inlineStr">
-        <is>
-          <t>Module #</t>
-        </is>
-      </c>
-      <c r="B45" s="16" t="inlineStr">
+      <c r="B46" s="14" t="n"/>
+      <c r="C46" s="14" t="n"/>
+      <c r="D46" s="14" t="n"/>
+      <c r="E46" s="14" t="n"/>
+      <c r="F46" s="14" t="n"/>
+      <c r="G46" s="14" t="n"/>
+      <c r="H46" s="14" t="n"/>
+      <c r="I46" s="15" t="n"/>
+    </row>
+    <row r="47" ht="30" customHeight="1">
+      <c r="A47" s="16" t="inlineStr">
+        <is>
+          <t>Section #</t>
+        </is>
+      </c>
+      <c r="B47" s="16" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
         </is>
       </c>
-      <c r="C45" s="17" t="n"/>
-      <c r="D45" s="16" t="inlineStr">
+      <c r="D47" s="16" t="inlineStr">
         <is>
           <t>K-Factor (m3 /h)</t>
-        </is>
-      </c>
-      <c r="E45" s="17" t="n"/>
-      <c r="F45" s="16" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /h)</t>
-        </is>
-      </c>
-      <c r="G45" s="16" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /s)</t>
-        </is>
-      </c>
-      <c r="H45" s="16" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="I45" s="17" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B46" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0 pa</t>
-        </is>
-      </c>
-      <c r="C46" s="17" t="n"/>
-      <c r="D46" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 71.8</t>
-        </is>
-      </c>
-      <c r="E46" s="17" t="n"/>
-      <c r="F46" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0</t>
-        </is>
-      </c>
-      <c r="G46" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0</t>
-        </is>
-      </c>
-      <c r="H46" s="18" t="n"/>
-      <c r="I46" s="17" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B47" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0 pa</t>
-        </is>
-      </c>
-      <c r="C47" s="17" t="n"/>
-      <c r="D47" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 71.8</t>
         </is>
       </c>
       <c r="E47" s="17" t="n"/>
       <c r="F47" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.0</t>
+          <t>Flowrate (m3 /h)</t>
         </is>
       </c>
       <c r="G47" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.0</t>
-        </is>
-      </c>
-      <c r="H47" s="18" t="n"/>
+          <t>Flowrate (m3 /s)</t>
+        </is>
+      </c>
+      <c r="H47" s="16" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
       <c r="I47" s="17" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="19" t="n"/>
-      <c r="B48" s="19" t="n"/>
-      <c r="C48" s="19" t="n"/>
-      <c r="D48" s="19" t="n"/>
+      <c r="A48" s="16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B48" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40.0 pa</t>
+        </is>
+      </c>
+      <c r="C48" s="17" t="n"/>
+      <c r="D48" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 215.4</t>
+        </is>
+      </c>
+      <c r="E48" s="17" t="n"/>
+      <c r="F48" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1362.31</t>
+        </is>
+      </c>
+      <c r="G48" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.38</t>
+        </is>
+      </c>
+      <c r="H48" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 21.0%</t>
+        </is>
+      </c>
+      <c r="I48" s="17" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="20" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                0.0 m3/s</t>
-        </is>
-      </c>
-      <c r="B49" s="17" t="n"/>
+      <c r="A49" s="16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B49" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 50.0 pa</t>
+        </is>
+      </c>
       <c r="C49" s="17" t="n"/>
-      <c r="D49" s="17" t="n"/>
+      <c r="D49" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 143.6</t>
+        </is>
+      </c>
+      <c r="E49" s="17" t="n"/>
+      <c r="F49" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1015.41</t>
+        </is>
+      </c>
+      <c r="G49" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.28</t>
+        </is>
+      </c>
+      <c r="H49" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16.0%</t>
+        </is>
+      </c>
+      <c r="I49" s="17" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="17" t="n"/>
-      <c r="B50" s="17" t="n"/>
-      <c r="C50" s="17" t="n"/>
-      <c r="D50" s="17" t="n"/>
+      <c r="A50" s="18" t="n"/>
+      <c r="B50" s="18" t="n"/>
+      <c r="C50" s="18" t="n"/>
+      <c r="D50" s="18" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="19" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                0.66 M³/s</t>
+        </is>
+      </c>
+      <c r="B51" s="17" t="n"/>
+      <c r="C51" s="17" t="n"/>
+      <c r="D51" s="17" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="inlineStr">
+      <c r="A52" s="19" t="inlineStr">
+        <is>
+          <t>Total Percentage                                36.7%</t>
+        </is>
+      </c>
+      <c r="B52" s="17" t="n"/>
+      <c r="C52" s="17" t="n"/>
+      <c r="D52" s="17" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="13" t="inlineStr">
         <is>
           <t>SUPPLY AIR DATA</t>
         </is>
       </c>
-      <c r="B52" s="14" t="n"/>
-      <c r="C52" s="14" t="n"/>
-      <c r="D52" s="14" t="n"/>
-      <c r="E52" s="14" t="n"/>
-      <c r="F52" s="14" t="n"/>
-      <c r="G52" s="14" t="n"/>
-      <c r="H52" s="14" t="n"/>
-      <c r="I52" s="15" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="10" t="inlineStr">
-        <is>
-          <t>2322-23323</t>
-        </is>
-      </c>
-      <c r="B53" s="11" t="n"/>
-      <c r="C53" s="11" t="n"/>
-      <c r="D53" s="11" t="n"/>
-      <c r="E53" s="11" t="n"/>
-      <c r="F53" s="11" t="n"/>
-      <c r="G53" s="11" t="n"/>
-      <c r="H53" s="11" t="n"/>
-      <c r="I53" s="12" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Location: 	</t>
-        </is>
-      </c>
-      <c r="B54" s="11" t="n"/>
-      <c r="C54" s="11" t="n"/>
-      <c r="D54" s="11" t="n"/>
-      <c r="E54" s="11" t="n"/>
-      <c r="F54" s="11" t="n"/>
-      <c r="G54" s="11" t="n"/>
-      <c r="H54" s="11" t="n"/>
-      <c r="I54" s="12" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="10" t="inlineStr">
-        <is>
-          <t>Model: 	KVF</t>
-        </is>
-      </c>
-      <c r="B55" s="11" t="n"/>
-      <c r="C55" s="11" t="n"/>
-      <c r="D55" s="11" t="n"/>
-      <c r="E55" s="11" t="n"/>
-      <c r="F55" s="11" t="n"/>
-      <c r="G55" s="11" t="n"/>
-      <c r="H55" s="11" t="n"/>
-      <c r="I55" s="12" t="n"/>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="14" t="n"/>
+      <c r="D55" s="14" t="n"/>
+      <c r="E55" s="14" t="n"/>
+      <c r="F55" s="14" t="n"/>
+      <c r="G55" s="14" t="n"/>
+      <c r="H55" s="14" t="n"/>
+      <c r="I55" s="15" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="10" t="inlineStr">
         <is>
-          <t>Quantity of Canopy Sections: 	2</t>
+          <t>2332-1212</t>
         </is>
       </c>
       <c r="B56" s="11" t="n"/>
@@ -1015,7 +996,7 @@
     <row r="57">
       <c r="A57" s="10" t="inlineStr">
         <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
+          <t>Location: 	1221</t>
         </is>
       </c>
       <c r="B57" s="11" t="n"/>
@@ -1028,232 +1009,229 @@
       <c r="I57" s="12" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="13" t="inlineStr">
+      <c r="A58" s="10" t="inlineStr">
+        <is>
+          <t>Model: 	KVF</t>
+        </is>
+      </c>
+      <c r="B58" s="11" t="n"/>
+      <c r="C58" s="11" t="n"/>
+      <c r="D58" s="11" t="n"/>
+      <c r="E58" s="11" t="n"/>
+      <c r="F58" s="11" t="n"/>
+      <c r="G58" s="11" t="n"/>
+      <c r="H58" s="11" t="n"/>
+      <c r="I58" s="12" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="inlineStr">
+        <is>
+          <t>Total Supply Design Airflow: 	1.5 M³/s</t>
+        </is>
+      </c>
+      <c r="B59" s="11" t="n"/>
+      <c r="C59" s="11" t="n"/>
+      <c r="D59" s="11" t="n"/>
+      <c r="E59" s="11" t="n"/>
+      <c r="F59" s="11" t="n"/>
+      <c r="G59" s="11" t="n"/>
+      <c r="H59" s="11" t="n"/>
+      <c r="I59" s="12" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="10" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	2</t>
+        </is>
+      </c>
+      <c r="B60" s="11" t="n"/>
+      <c r="C60" s="11" t="n"/>
+      <c r="D60" s="11" t="n"/>
+      <c r="E60" s="11" t="n"/>
+      <c r="F60" s="11" t="n"/>
+      <c r="G60" s="11" t="n"/>
+      <c r="H60" s="11" t="n"/>
+      <c r="I60" s="12" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="10" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B61" s="11" t="n"/>
+      <c r="C61" s="11" t="n"/>
+      <c r="D61" s="11" t="n"/>
+      <c r="E61" s="11" t="n"/>
+      <c r="F61" s="11" t="n"/>
+      <c r="G61" s="11" t="n"/>
+      <c r="H61" s="11" t="n"/>
+      <c r="I61" s="12" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="13" t="inlineStr">
         <is>
           <t>SUPPLY AIR READINGS</t>
         </is>
       </c>
-      <c r="B58" s="14" t="n"/>
-      <c r="C58" s="14" t="n"/>
-      <c r="D58" s="14" t="n"/>
-      <c r="E58" s="14" t="n"/>
-      <c r="F58" s="14" t="n"/>
-      <c r="G58" s="14" t="n"/>
-      <c r="H58" s="14" t="n"/>
-      <c r="I58" s="15" t="n"/>
-    </row>
-    <row r="59" ht="30" customHeight="1">
-      <c r="A59" s="16" t="inlineStr">
-        <is>
-          <t>Module #</t>
-        </is>
-      </c>
-      <c r="B59" s="16" t="inlineStr">
+      <c r="B62" s="14" t="n"/>
+      <c r="C62" s="14" t="n"/>
+      <c r="D62" s="14" t="n"/>
+      <c r="E62" s="14" t="n"/>
+      <c r="F62" s="14" t="n"/>
+      <c r="G62" s="14" t="n"/>
+      <c r="H62" s="14" t="n"/>
+      <c r="I62" s="15" t="n"/>
+    </row>
+    <row r="63" ht="30" customHeight="1">
+      <c r="A63" s="16" t="inlineStr">
+        <is>
+          <t>Section #</t>
+        </is>
+      </c>
+      <c r="B63" s="16" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
         </is>
       </c>
-      <c r="C59" s="17" t="n"/>
-      <c r="D59" s="16" t="inlineStr">
+      <c r="D63" s="16" t="inlineStr">
         <is>
           <t>K-Factor (m3 /h)</t>
         </is>
       </c>
-      <c r="E59" s="17" t="n"/>
-      <c r="F59" s="16" t="inlineStr">
+      <c r="E63" s="17" t="n"/>
+      <c r="F63" s="16" t="inlineStr">
         <is>
           <t>Flowrate (m3 /h)</t>
         </is>
       </c>
-      <c r="G59" s="16" t="inlineStr">
+      <c r="G63" s="16" t="inlineStr">
         <is>
           <t>Flowrate (m3 /s)</t>
         </is>
       </c>
-      <c r="H59" s="16" t="inlineStr">
+      <c r="H63" s="16" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
-      <c r="I59" s="17" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="16" t="inlineStr">
+      <c r="I63" s="17" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B60" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0 pa</t>
-        </is>
-      </c>
-      <c r="C60" s="17" t="n"/>
-      <c r="D60" s="16" t="inlineStr">
+      <c r="B64" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30.0 pa</t>
+        </is>
+      </c>
+      <c r="C64" s="17" t="n"/>
+      <c r="D64" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 243.4</t>
+        </is>
+      </c>
+      <c r="E64" s="17" t="n"/>
+      <c r="F64" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1333.16</t>
+        </is>
+      </c>
+      <c r="G64" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.37</t>
+        </is>
+      </c>
+      <c r="H64" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25.0%</t>
+        </is>
+      </c>
+      <c r="I64" s="17" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B65" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 44.0 pa</t>
+        </is>
+      </c>
+      <c r="C65" s="17" t="n"/>
+      <c r="D65" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 121.7</t>
         </is>
       </c>
-      <c r="E60" s="17" t="n"/>
-      <c r="F60" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0</t>
-        </is>
-      </c>
-      <c r="G60" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0</t>
-        </is>
-      </c>
-      <c r="H60" s="18" t="n"/>
-      <c r="I60" s="17" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B61" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0 pa</t>
-        </is>
-      </c>
-      <c r="C61" s="17" t="n"/>
-      <c r="D61" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 121.7</t>
-        </is>
-      </c>
-      <c r="E61" s="17" t="n"/>
-      <c r="F61" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0</t>
-        </is>
-      </c>
-      <c r="G61" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.0</t>
-        </is>
-      </c>
-      <c r="H61" s="18" t="n"/>
-      <c r="I61" s="17" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="19" t="n"/>
-      <c r="B62" s="19" t="n"/>
-      <c r="C62" s="19" t="n"/>
-      <c r="D62" s="19" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="20" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                0.0 m3/s</t>
-        </is>
-      </c>
-      <c r="B63" s="17" t="n"/>
-      <c r="C63" s="17" t="n"/>
-      <c r="D63" s="17" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="20" t="inlineStr">
-        <is>
-          <t>Total Percentage                                0%</t>
-        </is>
-      </c>
-      <c r="B64" s="17" t="n"/>
-      <c r="C64" s="17" t="n"/>
-      <c r="D64" s="17" t="n"/>
+      <c r="E65" s="17" t="n"/>
+      <c r="F65" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 807.27</t>
+        </is>
+      </c>
+      <c r="G65" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.22</t>
+        </is>
+      </c>
+      <c r="H65" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.0%</t>
+        </is>
+      </c>
+      <c r="I65" s="17" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="18" t="n"/>
+      <c r="B66" s="18" t="n"/>
+      <c r="C66" s="18" t="n"/>
+      <c r="D66" s="18" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="19" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                0.59 m3/s</t>
+        </is>
+      </c>
+      <c r="B67" s="17" t="n"/>
+      <c r="C67" s="17" t="n"/>
+      <c r="D67" s="17" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="13" t="inlineStr">
+      <c r="A68" s="19" t="inlineStr">
+        <is>
+          <t>Total Percentage                                40.0%</t>
+        </is>
+      </c>
+      <c r="B68" s="17" t="n"/>
+      <c r="C68" s="17" t="n"/>
+      <c r="D68" s="17" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="13" t="inlineStr">
         <is>
           <t>M.A.R.V.E.L. SYSTEM FOR KVF</t>
         </is>
       </c>
-      <c r="B68" s="14" t="n"/>
-      <c r="C68" s="14" t="n"/>
-      <c r="D68" s="14" t="n"/>
-      <c r="E68" s="14" t="n"/>
-      <c r="F68" s="14" t="n"/>
-      <c r="G68" s="14" t="n"/>
-      <c r="H68" s="14" t="n"/>
-      <c r="I68" s="15" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="20" t="inlineStr">
+      <c r="B72" s="14" t="n"/>
+      <c r="C72" s="14" t="n"/>
+      <c r="D72" s="14" t="n"/>
+      <c r="E72" s="14" t="n"/>
+      <c r="F72" s="14" t="n"/>
+      <c r="G72" s="14" t="n"/>
+      <c r="H72" s="14" t="n"/>
+      <c r="I72" s="15" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="19" t="inlineStr">
         <is>
           <t>Canopy 'Minimum' Air Flow Set Point % of Design</t>
-        </is>
-      </c>
-      <c r="B69" s="17" t="n"/>
-      <c r="C69" s="17" t="n"/>
-      <c r="D69" s="17" t="n"/>
-      <c r="E69" s="17" t="n"/>
-      <c r="F69" s="17" t="n"/>
-      <c r="G69" s="17" t="n"/>
-      <c r="H69" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="17" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="20" t="inlineStr">
-        <is>
-          <t>Canopy 'Idle' Air Flow Set % Of Design</t>
-        </is>
-      </c>
-      <c r="B70" s="17" t="n"/>
-      <c r="C70" s="17" t="n"/>
-      <c r="D70" s="17" t="n"/>
-      <c r="E70" s="17" t="n"/>
-      <c r="F70" s="17" t="n"/>
-      <c r="G70" s="17" t="n"/>
-      <c r="H70" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" s="17" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="20" t="inlineStr">
-        <is>
-          <t>Canopy 'Cook' Air Flow Set % Of Design</t>
-        </is>
-      </c>
-      <c r="B71" s="17" t="n"/>
-      <c r="C71" s="17" t="n"/>
-      <c r="D71" s="17" t="n"/>
-      <c r="E71" s="17" t="n"/>
-      <c r="F71" s="17" t="n"/>
-      <c r="G71" s="17" t="n"/>
-      <c r="H71" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" s="17" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="20" t="inlineStr">
-        <is>
-          <t>M.A.R.V.E.L. System Tested in 'Minimum' Mode</t>
-        </is>
-      </c>
-      <c r="B72" s="17" t="n"/>
-      <c r="C72" s="17" t="n"/>
-      <c r="D72" s="17" t="n"/>
-      <c r="E72" s="17" t="n"/>
-      <c r="F72" s="17" t="n"/>
-      <c r="G72" s="17" t="n"/>
-      <c r="H72" s="18" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="I72" s="17" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="20" t="inlineStr">
-        <is>
-          <t>M.A.R.V.E.L. System Tested in 'Idle' Mode</t>
         </is>
       </c>
       <c r="B73" s="17" t="n"/>
@@ -1262,17 +1240,15 @@
       <c r="E73" s="17" t="n"/>
       <c r="F73" s="17" t="n"/>
       <c r="G73" s="17" t="n"/>
-      <c r="H73" s="18" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
+      <c r="H73" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="I73" s="17" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="20" t="inlineStr">
-        <is>
-          <t>M.A.R.V.E.L. System Tested in 'Cook' Mode</t>
+      <c r="A74" s="19" t="inlineStr">
+        <is>
+          <t>Canopy 'Idle' Air Flow Set % Of Design</t>
         </is>
       </c>
       <c r="B74" s="17" t="n"/>
@@ -1281,17 +1257,15 @@
       <c r="E74" s="17" t="n"/>
       <c r="F74" s="17" t="n"/>
       <c r="G74" s="17" t="n"/>
-      <c r="H74" s="18" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
+      <c r="H74" s="20" t="n">
+        <v>2</v>
       </c>
       <c r="I74" s="17" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="20" t="inlineStr">
-        <is>
-          <t>Cook Mode Run Time (Seconds)</t>
+      <c r="A75" s="19" t="inlineStr">
+        <is>
+          <t>Canopy 'Cook' Air Flow Set % Of Design</t>
         </is>
       </c>
       <c r="B75" s="17" t="n"/>
@@ -1300,15 +1274,15 @@
       <c r="E75" s="17" t="n"/>
       <c r="F75" s="17" t="n"/>
       <c r="G75" s="17" t="n"/>
-      <c r="H75" s="18" t="n">
+      <c r="H75" s="20" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="17" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="20" t="inlineStr">
-        <is>
-          <t>Testing of Canopy LIR-2 Sensors Successful</t>
+      <c r="A76" s="19" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Tested in 'Minimum' Mode</t>
         </is>
       </c>
       <c r="B76" s="17" t="n"/>
@@ -1317,7 +1291,7 @@
       <c r="E76" s="17" t="n"/>
       <c r="F76" s="17" t="n"/>
       <c r="G76" s="17" t="n"/>
-      <c r="H76" s="18" t="inlineStr">
+      <c r="H76" s="20" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1325,9 +1299,9 @@
       <c r="I76" s="17" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="20" t="inlineStr">
-        <is>
-          <t>M.A.R.V.E.L. System Override Temp Setpoint (°C)</t>
+      <c r="A77" s="19" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Tested in 'Idle' Mode</t>
         </is>
       </c>
       <c r="B77" s="17" t="n"/>
@@ -1336,15 +1310,17 @@
       <c r="E77" s="17" t="n"/>
       <c r="F77" s="17" t="n"/>
       <c r="G77" s="17" t="n"/>
-      <c r="H77" s="18" t="n">
-        <v>0</v>
+      <c r="H77" s="20" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
       </c>
       <c r="I77" s="17" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="20" t="inlineStr">
-        <is>
-          <t>Override Test on Halton HMI Successful</t>
+      <c r="A78" s="19" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Tested in 'Cook' Mode</t>
         </is>
       </c>
       <c r="B78" s="17" t="n"/>
@@ -1353,7 +1329,7 @@
       <c r="E78" s="17" t="n"/>
       <c r="F78" s="17" t="n"/>
       <c r="G78" s="17" t="n"/>
-      <c r="H78" s="18" t="inlineStr">
+      <c r="H78" s="20" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1361,9 +1337,9 @@
       <c r="I78" s="17" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="20" t="inlineStr">
-        <is>
-          <t>Auto-Balance of M.A.R.V.E.L. System Successful</t>
+      <c r="A79" s="19" t="inlineStr">
+        <is>
+          <t>Cook Mode Run Time (Seconds)</t>
         </is>
       </c>
       <c r="B79" s="17" t="n"/>
@@ -1372,280 +1348,678 @@
       <c r="E79" s="17" t="n"/>
       <c r="F79" s="17" t="n"/>
       <c r="G79" s="17" t="n"/>
-      <c r="H79" s="18" t="inlineStr">
+      <c r="H79" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" s="17" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="19" t="inlineStr">
+        <is>
+          <t>Testing of Canopy LIR-2 Sensors Successful</t>
+        </is>
+      </c>
+      <c r="B80" s="17" t="n"/>
+      <c r="C80" s="17" t="n"/>
+      <c r="D80" s="17" t="n"/>
+      <c r="E80" s="17" t="n"/>
+      <c r="F80" s="17" t="n"/>
+      <c r="G80" s="17" t="n"/>
+      <c r="H80" s="20" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
-      <c r="I79" s="17" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="inlineStr">
+      <c r="I80" s="17" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="19" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Override Temp Setpoint (°C)</t>
+        </is>
+      </c>
+      <c r="B81" s="17" t="n"/>
+      <c r="C81" s="17" t="n"/>
+      <c r="D81" s="17" t="n"/>
+      <c r="E81" s="17" t="n"/>
+      <c r="F81" s="17" t="n"/>
+      <c r="G81" s="17" t="n"/>
+      <c r="H81" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="17" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="19" t="inlineStr">
+        <is>
+          <t>Override Test on Halton HMI Successful</t>
+        </is>
+      </c>
+      <c r="B82" s="17" t="n"/>
+      <c r="C82" s="17" t="n"/>
+      <c r="D82" s="17" t="n"/>
+      <c r="E82" s="17" t="n"/>
+      <c r="F82" s="17" t="n"/>
+      <c r="G82" s="17" t="n"/>
+      <c r="H82" s="20" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I82" s="17" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="19" t="inlineStr">
+        <is>
+          <t>Auto-Balance of M.A.R.V.E.L. System Successful</t>
+        </is>
+      </c>
+      <c r="B83" s="17" t="n"/>
+      <c r="C83" s="17" t="n"/>
+      <c r="D83" s="17" t="n"/>
+      <c r="E83" s="17" t="n"/>
+      <c r="F83" s="17" t="n"/>
+      <c r="G83" s="17" t="n"/>
+      <c r="H83" s="20" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I83" s="17" t="n"/>
+    </row>
+    <row r="87" ht="20" customHeight="1">
+      <c r="A87" s="7" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR DATA</t>
+        </is>
+      </c>
+      <c r="B87" s="8" t="n"/>
+      <c r="C87" s="8" t="n"/>
+      <c r="D87" s="8" t="n"/>
+      <c r="E87" s="8" t="n"/>
+      <c r="F87" s="8" t="n"/>
+      <c r="G87" s="8" t="n"/>
+      <c r="H87" s="8" t="n"/>
+      <c r="I87" s="9" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="10" t="inlineStr">
+        <is>
+          <t>Drawing Number: 2332-323</t>
+        </is>
+      </c>
+      <c r="B88" s="11" t="n"/>
+      <c r="C88" s="11" t="n"/>
+      <c r="D88" s="11" t="n"/>
+      <c r="E88" s="11" t="n"/>
+      <c r="F88" s="11" t="n"/>
+      <c r="G88" s="11" t="n"/>
+      <c r="H88" s="11" t="n"/>
+      <c r="I88" s="12" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="10" t="inlineStr">
+        <is>
+          <t>Location: 	cddccd</t>
+        </is>
+      </c>
+      <c r="B89" s="11" t="n"/>
+      <c r="C89" s="11" t="n"/>
+      <c r="D89" s="11" t="n"/>
+      <c r="E89" s="11" t="n"/>
+      <c r="F89" s="11" t="n"/>
+      <c r="G89" s="11" t="n"/>
+      <c r="H89" s="11" t="n"/>
+      <c r="I89" s="12" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="10" t="inlineStr">
+        <is>
+          <t>Model: 	KCH-I</t>
+        </is>
+      </c>
+      <c r="B90" s="11" t="n"/>
+      <c r="C90" s="11" t="n"/>
+      <c r="D90" s="11" t="n"/>
+      <c r="E90" s="11" t="n"/>
+      <c r="F90" s="11" t="n"/>
+      <c r="G90" s="11" t="n"/>
+      <c r="H90" s="11" t="n"/>
+      <c r="I90" s="12" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="10" t="inlineStr">
+        <is>
+          <t>Total Design Airflow: 	1.5 M³/s</t>
+        </is>
+      </c>
+      <c r="B91" s="11" t="n"/>
+      <c r="C91" s="11" t="n"/>
+      <c r="D91" s="11" t="n"/>
+      <c r="E91" s="11" t="n"/>
+      <c r="F91" s="11" t="n"/>
+      <c r="G91" s="11" t="n"/>
+      <c r="H91" s="11" t="n"/>
+      <c r="I91" s="12" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="10" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	1</t>
+        </is>
+      </c>
+      <c r="B92" s="11" t="n"/>
+      <c r="C92" s="11" t="n"/>
+      <c r="D92" s="11" t="n"/>
+      <c r="E92" s="11" t="n"/>
+      <c r="F92" s="11" t="n"/>
+      <c r="G92" s="11" t="n"/>
+      <c r="H92" s="11" t="n"/>
+      <c r="I92" s="12" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="10" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B93" s="11" t="n"/>
+      <c r="C93" s="11" t="n"/>
+      <c r="D93" s="11" t="n"/>
+      <c r="E93" s="11" t="n"/>
+      <c r="F93" s="11" t="n"/>
+      <c r="G93" s="11" t="n"/>
+      <c r="H93" s="11" t="n"/>
+      <c r="I93" s="12" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="13" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR READINGS</t>
+        </is>
+      </c>
+      <c r="B95" s="14" t="n"/>
+      <c r="C95" s="14" t="n"/>
+      <c r="D95" s="14" t="n"/>
+      <c r="E95" s="14" t="n"/>
+      <c r="F95" s="14" t="n"/>
+      <c r="G95" s="14" t="n"/>
+      <c r="H95" s="14" t="n"/>
+      <c r="I95" s="15" t="n"/>
+    </row>
+    <row r="96" ht="30" customHeight="1">
+      <c r="A96" s="16" t="inlineStr">
+        <is>
+          <t>Section #</t>
+        </is>
+      </c>
+      <c r="B96" s="16" t="inlineStr">
+        <is>
+          <t>T.A.B Point Reading (Pa)</t>
+        </is>
+      </c>
+      <c r="D96" s="16" t="inlineStr">
+        <is>
+          <t>K-Factor (m3 /h)</t>
+        </is>
+      </c>
+      <c r="E96" s="17" t="n"/>
+      <c r="F96" s="16" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /h)</t>
+        </is>
+      </c>
+      <c r="G96" s="16" t="inlineStr">
+        <is>
+          <t>Flowrate (m3 /s)</t>
+        </is>
+      </c>
+      <c r="H96" s="16" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="I96" s="17" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B97" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 32.0 pa</t>
+        </is>
+      </c>
+      <c r="C97" s="17" t="n"/>
+      <c r="D97" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 143.6</t>
+        </is>
+      </c>
+      <c r="E97" s="17" t="n"/>
+      <c r="F97" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 812.32</t>
+        </is>
+      </c>
+      <c r="G97" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.23</t>
+        </is>
+      </c>
+      <c r="H97" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.0%</t>
+        </is>
+      </c>
+      <c r="I97" s="17" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="18" t="n"/>
+      <c r="B98" s="18" t="n"/>
+      <c r="C98" s="18" t="n"/>
+      <c r="D98" s="18" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="19" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                0.23 M³/s</t>
+        </is>
+      </c>
+      <c r="B99" s="17" t="n"/>
+      <c r="C99" s="17" t="n"/>
+      <c r="D99" s="17" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="19" t="inlineStr">
+        <is>
+          <t>Total Percentage                                15.0%</t>
+        </is>
+      </c>
+      <c r="B100" s="17" t="n"/>
+      <c r="C100" s="17" t="n"/>
+      <c r="D100" s="17" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="inlineStr">
         <is>
           <t>RESULTS SUMMARY - EXTRACT AIR</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="21" t="inlineStr">
+    <row r="107">
+      <c r="A107" s="21" t="inlineStr">
         <is>
           <t>Drawing Number</t>
         </is>
       </c>
-      <c r="B86" s="17" t="n"/>
-      <c r="C86" s="21" t="inlineStr">
+      <c r="B107" s="17" t="n"/>
+      <c r="C107" s="21" t="inlineStr">
         <is>
           <t>Design Flow Rate (m³/s)</t>
         </is>
       </c>
-      <c r="D86" s="17" t="n"/>
-      <c r="E86" s="21" t="inlineStr">
+      <c r="D107" s="17" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
         <is>
           <t>Actual Flowrate (m³/s)</t>
         </is>
       </c>
-      <c r="F86" s="17" t="n"/>
-      <c r="G86" s="21" t="inlineStr">
+      <c r="F107" s="17" t="n"/>
+      <c r="G107" s="21" t="inlineStr">
         <is>
           <t>Percentage of Design</t>
         </is>
       </c>
-      <c r="H86" s="17" t="n"/>
-      <c r="I86" s="9" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="20" t="inlineStr">
+      <c r="H107" s="17" t="n"/>
+      <c r="I107" s="9" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="19" t="inlineStr">
+        <is>
+          <t>2332-1212</t>
+        </is>
+      </c>
+      <c r="B108" s="17" t="n"/>
+      <c r="C108" s="19" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D108" s="17" t="n"/>
+      <c r="E108" s="19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="F108" s="17" t="n"/>
+      <c r="G108" s="19" t="inlineStr">
+        <is>
+          <t>36.7%</t>
+        </is>
+      </c>
+      <c r="H108" s="17" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="19" t="inlineStr">
+        <is>
+          <t>2332-323</t>
+        </is>
+      </c>
+      <c r="B109" s="17" t="n"/>
+      <c r="C109" s="19" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D109" s="17" t="n"/>
+      <c r="E109" s="19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F109" s="17" t="n"/>
+      <c r="G109" s="19" t="inlineStr">
+        <is>
+          <t>15.3%</t>
+        </is>
+      </c>
+      <c r="H109" s="17" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="19" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B87" s="17" t="n"/>
-      <c r="C87" s="20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D87" s="17" t="n"/>
-      <c r="E87" s="20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F87" s="17" t="n"/>
-      <c r="G87" s="20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H87" s="17" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="4" t="inlineStr">
+      <c r="B110" s="17" t="n"/>
+      <c r="C110" s="19" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D110" s="17" t="n"/>
+      <c r="E110" s="19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="F110" s="17" t="n"/>
+      <c r="G110" s="19" t="inlineStr">
+        <is>
+          <t>27.0%</t>
+        </is>
+      </c>
+      <c r="H110" s="17" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="inlineStr">
         <is>
           <t>RESULTS SUMMARY - SUPPLY AIR</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="21" t="inlineStr">
+    <row r="114">
+      <c r="A114" s="21" t="inlineStr">
         <is>
           <t>Drawing Number</t>
         </is>
       </c>
-      <c r="B91" s="17" t="n"/>
-      <c r="C91" s="21" t="inlineStr">
+      <c r="B114" s="17" t="n"/>
+      <c r="C114" s="21" t="inlineStr">
         <is>
           <t>Design Flow Rate (m³/s)</t>
         </is>
       </c>
-      <c r="D91" s="17" t="n"/>
-      <c r="E91" s="21" t="inlineStr">
+      <c r="D114" s="17" t="n"/>
+      <c r="E114" s="21" t="inlineStr">
         <is>
           <t>Actual Flowrate (m³/s)</t>
         </is>
       </c>
-      <c r="F91" s="17" t="n"/>
-      <c r="G91" s="21" t="inlineStr">
+      <c r="F114" s="17" t="n"/>
+      <c r="G114" s="21" t="inlineStr">
         <is>
           <t>Percentage of Design</t>
         </is>
       </c>
-      <c r="H91" s="17" t="n"/>
-      <c r="I91" s="9" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="20" t="inlineStr">
+      <c r="H114" s="17" t="n"/>
+      <c r="I114" s="9" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="19" t="inlineStr">
+        <is>
+          <t>2332-1212</t>
+        </is>
+      </c>
+      <c r="B115" s="17" t="n"/>
+      <c r="C115" s="19" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D115" s="17" t="n"/>
+      <c r="E115" s="19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="F115" s="17" t="n"/>
+      <c r="G115" s="19" t="inlineStr">
+        <is>
+          <t>39.3%</t>
+        </is>
+      </c>
+      <c r="H115" s="17" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="19" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B92" s="17" t="n"/>
-      <c r="C92" s="20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D92" s="17" t="n"/>
-      <c r="E92" s="20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F92" s="17" t="n"/>
-      <c r="G92" s="20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H92" s="17" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="21" t="inlineStr">
+      <c r="B116" s="17" t="n"/>
+      <c r="C116" s="19" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D116" s="17" t="n"/>
+      <c r="E116" s="19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="F116" s="17" t="n"/>
+      <c r="G116" s="19" t="inlineStr">
+        <is>
+          <t>39.3%</t>
+        </is>
+      </c>
+      <c r="H116" s="17" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="21" t="inlineStr">
         <is>
           <t>ADDITIONAL NOTES</t>
         </is>
       </c>
-      <c r="B97" s="14" t="n"/>
-      <c r="C97" s="14" t="n"/>
-      <c r="D97" s="14" t="n"/>
-      <c r="E97" s="14" t="n"/>
-      <c r="F97" s="14" t="n"/>
-      <c r="G97" s="14" t="n"/>
-      <c r="H97" s="14" t="n"/>
-      <c r="I97" s="15" t="n"/>
-    </row>
-    <row r="98" ht="30" customHeight="1">
-      <c r="A98" s="22" t="inlineStr"/>
-      <c r="I98" s="23" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="20" t="inlineStr">
+      <c r="B121" s="14" t="n"/>
+      <c r="C121" s="14" t="n"/>
+      <c r="D121" s="14" t="n"/>
+      <c r="E121" s="14" t="n"/>
+      <c r="F121" s="14" t="n"/>
+      <c r="G121" s="14" t="n"/>
+      <c r="H121" s="14" t="n"/>
+      <c r="I121" s="15" t="n"/>
+    </row>
+    <row r="122" ht="30" customHeight="1">
+      <c r="A122" s="22" t="inlineStr">
+        <is>
+          <t>dfdafe</t>
+        </is>
+      </c>
+      <c r="I122" s="23" t="n"/>
+    </row>
+    <row r="123" ht="30" customHeight="1">
+      <c r="A123" s="22" t="inlineStr">
+        <is>
+          <t>fefafef</t>
+        </is>
+      </c>
+      <c r="I123" s="23" t="n"/>
+    </row>
+    <row r="124" ht="30" customHeight="1">
+      <c r="A124" s="22" t="inlineStr"/>
+      <c r="I124" s="23" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="19" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B99" s="17" t="n"/>
-      <c r="C99" s="20" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-      <c r="D99" s="17" t="n"/>
-      <c r="E99" s="17" t="n"/>
-      <c r="F99" s="17" t="n"/>
-      <c r="G99" s="17" t="n"/>
-      <c r="H99" s="17" t="n"/>
-      <c r="I99" s="17" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="20" t="inlineStr">
+      <c r="B125" s="17" t="n"/>
+      <c r="C125" s="19" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="D125" s="17" t="n"/>
+      <c r="E125" s="17" t="n"/>
+      <c r="F125" s="17" t="n"/>
+      <c r="G125" s="17" t="n"/>
+      <c r="H125" s="17" t="n"/>
+      <c r="I125" s="17" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="19" t="inlineStr">
         <is>
           <t>Print</t>
         </is>
       </c>
-      <c r="B100" s="17" t="n"/>
-      <c r="C100" s="20" t="inlineStr">
-        <is>
-          <t>Simon</t>
-        </is>
-      </c>
-      <c r="D100" s="17" t="n"/>
-      <c r="E100" s="17" t="n"/>
-      <c r="F100" s="17" t="n"/>
-      <c r="G100" s="17" t="n"/>
-      <c r="H100" s="17" t="n"/>
-      <c r="I100" s="17" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="20" t="inlineStr">
+      <c r="B126" s="17" t="n"/>
+      <c r="C126" s="19" t="inlineStr"/>
+      <c r="D126" s="17" t="n"/>
+      <c r="E126" s="17" t="n"/>
+      <c r="F126" s="17" t="n"/>
+      <c r="G126" s="17" t="n"/>
+      <c r="H126" s="17" t="n"/>
+      <c r="I126" s="17" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="19" t="inlineStr">
         <is>
           <t>Sign</t>
         </is>
       </c>
-      <c r="B101" s="17" t="n"/>
-    </row>
-    <row r="103"/>
+      <c r="B127" s="17" t="n"/>
+    </row>
+    <row r="129"/>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="B59:C59"/>
+  <mergeCells count="94">
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C129:I129"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="C125:I125"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="C126:I126"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A124:I124"/>
     <mergeCell ref="H78:I78"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="D97:E97"/>
     <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A97:I97"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="C103:I103"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="C100:I100"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A121:I121"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C99:I99"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A74:G74"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="G109:H109"/>
     <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A127:B127"/>
     <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="A114:B114"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="34" min="0" max="16383" man="1"/>
-    <brk id="123" min="0" max="16383" man="1"/>
+    <brk id="149" min="0" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="560" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +37,8 @@
       <u val="single"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -47,6 +48,11 @@
     <font>
       <b val="1"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -141,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -149,7 +155,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -157,7 +163,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -168,10 +174,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -265,7 +275,7 @@
       <col>9</col>
       <colOff>89083</colOff>
       <row>1</row>
-      <rowOff>155323</rowOff>
+      <rowOff>100503</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -303,7 +313,7 @@
       <row>18</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5905500" cy="1238250"/>
+    <ext cx="5715000" cy="1428750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -325,7 +335,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>128</row>
+      <row>105</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1905000" cy="714375"/>
@@ -638,15 +648,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="29" customHeight="1">
+    <row r="1" ht="33" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Canopy Commissioning Report</t>
@@ -681,14 +691,14 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NUMBER: 2332 </t>
+          <t xml:space="preserve">PROJECT NUMBER: 1234 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DATE OF VISIT: 2025-01-23 </t>
+          <t xml:space="preserve">DATE OF VISIT: 2025-01-24 </t>
         </is>
       </c>
     </row>
@@ -706,77 +716,32 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="6" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>KITCHEN CANOPY AIR READINGS</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="20" customHeight="1">
-      <c r="A38" s="7" t="inlineStr">
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="7" t="inlineStr">
         <is>
           <t>EXTRACT AIR DATA</t>
         </is>
       </c>
-      <c r="B38" s="8" t="n"/>
-      <c r="C38" s="8" t="n"/>
-      <c r="D38" s="8" t="n"/>
-      <c r="E38" s="8" t="n"/>
-      <c r="F38" s="8" t="n"/>
-      <c r="G38" s="8" t="n"/>
-      <c r="H38" s="8" t="n"/>
-      <c r="I38" s="9" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="10" t="inlineStr">
-        <is>
-          <t>Drawing Number: 2332-1212</t>
-        </is>
-      </c>
-      <c r="B39" s="11" t="n"/>
-      <c r="C39" s="11" t="n"/>
-      <c r="D39" s="11" t="n"/>
-      <c r="E39" s="11" t="n"/>
-      <c r="F39" s="11" t="n"/>
-      <c r="G39" s="11" t="n"/>
-      <c r="H39" s="11" t="n"/>
-      <c r="I39" s="12" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="10" t="inlineStr">
-        <is>
-          <t>Location: 	1221</t>
-        </is>
-      </c>
-      <c r="B40" s="11" t="n"/>
-      <c r="C40" s="11" t="n"/>
-      <c r="D40" s="11" t="n"/>
-      <c r="E40" s="11" t="n"/>
-      <c r="F40" s="11" t="n"/>
-      <c r="G40" s="11" t="n"/>
-      <c r="H40" s="11" t="n"/>
-      <c r="I40" s="12" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="10" t="inlineStr">
-        <is>
-          <t>Model: 	KVF</t>
-        </is>
-      </c>
-      <c r="B41" s="11" t="n"/>
-      <c r="C41" s="11" t="n"/>
-      <c r="D41" s="11" t="n"/>
-      <c r="E41" s="11" t="n"/>
-      <c r="F41" s="11" t="n"/>
-      <c r="G41" s="11" t="n"/>
-      <c r="H41" s="11" t="n"/>
-      <c r="I41" s="12" t="n"/>
+      <c r="B41" s="8" t="n"/>
+      <c r="C41" s="8" t="n"/>
+      <c r="D41" s="8" t="n"/>
+      <c r="E41" s="8" t="n"/>
+      <c r="F41" s="8" t="n"/>
+      <c r="G41" s="8" t="n"/>
+      <c r="H41" s="8" t="n"/>
+      <c r="I41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="10" t="inlineStr">
         <is>
-          <t>Total Design Airflow: 	1.8 M³/s</t>
+          <t>Drawing Number: 1234</t>
         </is>
       </c>
       <c r="B42" s="11" t="n"/>
@@ -791,7 +756,7 @@
     <row r="43">
       <c r="A43" s="10" t="inlineStr">
         <is>
-          <t>Quantity of Canopy Sections: 	2</t>
+          <t xml:space="preserve">Location: 	</t>
         </is>
       </c>
       <c r="B43" s="11" t="n"/>
@@ -806,7 +771,7 @@
     <row r="44">
       <c r="A44" s="10" t="inlineStr">
         <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
+          <t>Model: 	UVF</t>
         </is>
       </c>
       <c r="B44" s="11" t="n"/>
@@ -818,185 +783,181 @@
       <c r="H44" s="11" t="n"/>
       <c r="I44" s="12" t="n"/>
     </row>
+    <row r="45">
+      <c r="A45" s="10" t="inlineStr">
+        <is>
+          <t>Total Design Airflow: 	1.8 m³/s</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n"/>
+      <c r="C45" s="11" t="n"/>
+      <c r="D45" s="11" t="n"/>
+      <c r="E45" s="11" t="n"/>
+      <c r="F45" s="11" t="n"/>
+      <c r="G45" s="11" t="n"/>
+      <c r="H45" s="11" t="n"/>
+      <c r="I45" s="12" t="n"/>
+    </row>
     <row r="46">
-      <c r="A46" s="13" t="inlineStr">
+      <c r="A46" s="10" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	1</t>
+        </is>
+      </c>
+      <c r="B46" s="11" t="n"/>
+      <c r="C46" s="11" t="n"/>
+      <c r="D46" s="11" t="n"/>
+      <c r="E46" s="11" t="n"/>
+      <c r="F46" s="11" t="n"/>
+      <c r="G46" s="11" t="n"/>
+      <c r="H46" s="11" t="n"/>
+      <c r="I46" s="12" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="10" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B47" s="11" t="n"/>
+      <c r="C47" s="11" t="n"/>
+      <c r="D47" s="11" t="n"/>
+      <c r="E47" s="11" t="n"/>
+      <c r="F47" s="11" t="n"/>
+      <c r="G47" s="11" t="n"/>
+      <c r="H47" s="11" t="n"/>
+      <c r="I47" s="12" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="13" t="inlineStr">
         <is>
           <t>EXTRACT AIR READINGS</t>
         </is>
       </c>
-      <c r="B46" s="14" t="n"/>
-      <c r="C46" s="14" t="n"/>
-      <c r="D46" s="14" t="n"/>
-      <c r="E46" s="14" t="n"/>
-      <c r="F46" s="14" t="n"/>
-      <c r="G46" s="14" t="n"/>
-      <c r="H46" s="14" t="n"/>
-      <c r="I46" s="15" t="n"/>
-    </row>
-    <row r="47" ht="30" customHeight="1">
-      <c r="A47" s="16" t="inlineStr">
+      <c r="B48" s="14" t="n"/>
+      <c r="C48" s="14" t="n"/>
+      <c r="D48" s="14" t="n"/>
+      <c r="E48" s="14" t="n"/>
+      <c r="F48" s="14" t="n"/>
+      <c r="G48" s="14" t="n"/>
+      <c r="H48" s="14" t="n"/>
+      <c r="I48" s="15" t="n"/>
+    </row>
+    <row r="49" ht="30" customHeight="1">
+      <c r="A49" s="16" t="inlineStr">
         <is>
           <t>Section #</t>
         </is>
       </c>
-      <c r="B47" s="16" t="inlineStr">
+      <c r="B49" s="16" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
-        </is>
-      </c>
-      <c r="D47" s="16" t="inlineStr">
-        <is>
-          <t>K-Factor (m3 /h)</t>
-        </is>
-      </c>
-      <c r="E47" s="17" t="n"/>
-      <c r="F47" s="16" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /h)</t>
-        </is>
-      </c>
-      <c r="G47" s="16" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /s)</t>
-        </is>
-      </c>
-      <c r="H47" s="16" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="I47" s="17" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B48" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 40.0 pa</t>
-        </is>
-      </c>
-      <c r="C48" s="17" t="n"/>
-      <c r="D48" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 215.4</t>
-        </is>
-      </c>
-      <c r="E48" s="17" t="n"/>
-      <c r="F48" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1362.31</t>
-        </is>
-      </c>
-      <c r="G48" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.38</t>
-        </is>
-      </c>
-      <c r="H48" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 21.0%</t>
-        </is>
-      </c>
-      <c r="I48" s="17" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B49" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 50.0 pa</t>
         </is>
       </c>
       <c r="C49" s="17" t="n"/>
       <c r="D49" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 143.6</t>
+          <t>K-Factor (m³/h)</t>
         </is>
       </c>
       <c r="E49" s="17" t="n"/>
       <c r="F49" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1015.41</t>
+          <t>Flowrate (m³/h)</t>
         </is>
       </c>
       <c r="G49" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.28</t>
+          <t>Flowrate (m³/s)</t>
         </is>
       </c>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16.0%</t>
+          <t>Percentage</t>
         </is>
       </c>
       <c r="I49" s="17" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="18" t="n"/>
-      <c r="B50" s="18" t="n"/>
-      <c r="C50" s="18" t="n"/>
-      <c r="D50" s="18" t="n"/>
+      <c r="A50" s="16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B50" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0 Pa</t>
+        </is>
+      </c>
+      <c r="C50" s="17" t="n"/>
+      <c r="D50" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 71.8</t>
+        </is>
+      </c>
+      <c r="E50" s="17" t="n"/>
+      <c r="F50" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="G50" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="H50" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0%</t>
+        </is>
+      </c>
+      <c r="I50" s="17" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="19" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                0.66 M³/s</t>
-        </is>
-      </c>
-      <c r="B51" s="17" t="n"/>
-      <c r="C51" s="17" t="n"/>
-      <c r="D51" s="17" t="n"/>
+      <c r="A51" s="18" t="n"/>
+      <c r="B51" s="18" t="n"/>
+      <c r="C51" s="18" t="n"/>
+      <c r="D51" s="18" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="19" t="inlineStr">
         <is>
-          <t>Total Percentage                                36.7%</t>
+          <t>Total Flowrate                                0.0 m³/s</t>
         </is>
       </c>
       <c r="B52" s="17" t="n"/>
       <c r="C52" s="17" t="n"/>
       <c r="D52" s="17" t="n"/>
     </row>
-    <row r="55">
-      <c r="A55" s="13" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="19" t="inlineStr">
+        <is>
+          <t>Total Percentage                                0.0%</t>
+        </is>
+      </c>
+      <c r="B53" s="17" t="n"/>
+      <c r="C53" s="17" t="n"/>
+      <c r="D53" s="17" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="13" t="inlineStr">
         <is>
           <t>SUPPLY AIR DATA</t>
         </is>
       </c>
-      <c r="B55" s="14" t="n"/>
-      <c r="C55" s="14" t="n"/>
-      <c r="D55" s="14" t="n"/>
-      <c r="E55" s="14" t="n"/>
-      <c r="F55" s="14" t="n"/>
-      <c r="G55" s="14" t="n"/>
-      <c r="H55" s="14" t="n"/>
-      <c r="I55" s="15" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="10" t="inlineStr">
-        <is>
-          <t>2332-1212</t>
-        </is>
-      </c>
-      <c r="B56" s="11" t="n"/>
-      <c r="C56" s="11" t="n"/>
-      <c r="D56" s="11" t="n"/>
-      <c r="E56" s="11" t="n"/>
-      <c r="F56" s="11" t="n"/>
-      <c r="G56" s="11" t="n"/>
-      <c r="H56" s="11" t="n"/>
-      <c r="I56" s="12" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="14" t="n"/>
+      <c r="D56" s="14" t="n"/>
+      <c r="E56" s="14" t="n"/>
+      <c r="F56" s="14" t="n"/>
+      <c r="G56" s="14" t="n"/>
+      <c r="H56" s="14" t="n"/>
+      <c r="I56" s="15" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="10" t="inlineStr">
         <is>
-          <t>Location: 	1221</t>
+          <t>Drawing Number: 1234</t>
         </is>
       </c>
       <c r="B57" s="11" t="n"/>
@@ -1011,7 +972,7 @@
     <row r="58">
       <c r="A58" s="10" t="inlineStr">
         <is>
-          <t>Model: 	KVF</t>
+          <t xml:space="preserve">Location: 	</t>
         </is>
       </c>
       <c r="B58" s="11" t="n"/>
@@ -1026,7 +987,7 @@
     <row r="59">
       <c r="A59" s="10" t="inlineStr">
         <is>
-          <t>Total Supply Design Airflow: 	1.5 M³/s</t>
+          <t>Model: 	UVF</t>
         </is>
       </c>
       <c r="B59" s="11" t="n"/>
@@ -1041,7 +1002,7 @@
     <row r="60">
       <c r="A60" s="10" t="inlineStr">
         <is>
-          <t>Quantity of Canopy Sections: 	2</t>
+          <t>Total Supply Design Airflow: 	1.5 m³/s</t>
         </is>
       </c>
       <c r="B60" s="11" t="n"/>
@@ -1056,7 +1017,7 @@
     <row r="61">
       <c r="A61" s="10" t="inlineStr">
         <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
+          <t>Quantity of Canopy Sections: 	1</t>
         </is>
       </c>
       <c r="B61" s="11" t="n"/>
@@ -1069,85 +1030,66 @@
       <c r="I61" s="12" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="inlineStr">
+      <c r="A62" s="10" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B62" s="11" t="n"/>
+      <c r="C62" s="11" t="n"/>
+      <c r="D62" s="11" t="n"/>
+      <c r="E62" s="11" t="n"/>
+      <c r="F62" s="11" t="n"/>
+      <c r="G62" s="11" t="n"/>
+      <c r="H62" s="11" t="n"/>
+      <c r="I62" s="12" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="13" t="inlineStr">
         <is>
           <t>SUPPLY AIR READINGS</t>
         </is>
       </c>
-      <c r="B62" s="14" t="n"/>
-      <c r="C62" s="14" t="n"/>
-      <c r="D62" s="14" t="n"/>
-      <c r="E62" s="14" t="n"/>
-      <c r="F62" s="14" t="n"/>
-      <c r="G62" s="14" t="n"/>
-      <c r="H62" s="14" t="n"/>
-      <c r="I62" s="15" t="n"/>
-    </row>
-    <row r="63" ht="30" customHeight="1">
-      <c r="A63" s="16" t="inlineStr">
+      <c r="B63" s="14" t="n"/>
+      <c r="C63" s="14" t="n"/>
+      <c r="D63" s="14" t="n"/>
+      <c r="E63" s="14" t="n"/>
+      <c r="F63" s="14" t="n"/>
+      <c r="G63" s="14" t="n"/>
+      <c r="H63" s="14" t="n"/>
+      <c r="I63" s="15" t="n"/>
+    </row>
+    <row r="64" ht="30" customHeight="1">
+      <c r="A64" s="16" t="inlineStr">
         <is>
           <t>Section #</t>
         </is>
       </c>
-      <c r="B63" s="16" t="inlineStr">
+      <c r="B64" s="16" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
-        </is>
-      </c>
-      <c r="D63" s="16" t="inlineStr">
-        <is>
-          <t>K-Factor (m3 /h)</t>
-        </is>
-      </c>
-      <c r="E63" s="17" t="n"/>
-      <c r="F63" s="16" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /h)</t>
-        </is>
-      </c>
-      <c r="G63" s="16" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /s)</t>
-        </is>
-      </c>
-      <c r="H63" s="16" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="I63" s="17" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B64" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30.0 pa</t>
         </is>
       </c>
       <c r="C64" s="17" t="n"/>
       <c r="D64" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 243.4</t>
+          <t>K-Factor (m³/h)</t>
         </is>
       </c>
       <c r="E64" s="17" t="n"/>
       <c r="F64" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1333.16</t>
+          <t>Flowrate (m³/h)</t>
         </is>
       </c>
       <c r="G64" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.37</t>
+          <t>Flowrate (m³/s)</t>
         </is>
       </c>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25.0%</t>
+          <t>Percentage</t>
         </is>
       </c>
       <c r="I64" s="17" t="n"/>
@@ -1155,12 +1097,12 @@
     <row r="65">
       <c r="A65" s="16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B65" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.0 pa</t>
+          <t xml:space="preserve"> 0.0 Pa</t>
         </is>
       </c>
       <c r="C65" s="17" t="n"/>
@@ -1172,17 +1114,17 @@
       <c r="E65" s="17" t="n"/>
       <c r="F65" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 807.27</t>
+          <t xml:space="preserve"> 0.0</t>
         </is>
       </c>
       <c r="G65" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.22</t>
+          <t xml:space="preserve"> 0.0</t>
         </is>
       </c>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.0%</t>
+          <t xml:space="preserve"> 0.0%</t>
         </is>
       </c>
       <c r="I65" s="17" t="n"/>
@@ -1196,7 +1138,7 @@
     <row r="67">
       <c r="A67" s="19" t="inlineStr">
         <is>
-          <t>Total Flowrate                                0.59 m3/s</t>
+          <t>Total Flowrate                                0.0 m³/s</t>
         </is>
       </c>
       <c r="B67" s="17" t="n"/>
@@ -1206,7 +1148,7 @@
     <row r="68">
       <c r="A68" s="19" t="inlineStr">
         <is>
-          <t>Total Percentage                                40.0%</t>
+          <t>Total Percentage                                0.0%</t>
         </is>
       </c>
       <c r="B68" s="17" t="n"/>
@@ -1214,9 +1156,9 @@
       <c r="D68" s="17" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="13" t="inlineStr">
-        <is>
-          <t>M.A.R.V.E.L. SYSTEM FOR KVF</t>
+      <c r="A72" s="20" t="inlineStr">
+        <is>
+          <t>UV CAPTURE RAY SYSTEM FOR UVF</t>
         </is>
       </c>
       <c r="B72" s="14" t="n"/>
@@ -1231,7 +1173,7 @@
     <row r="73">
       <c r="A73" s="19" t="inlineStr">
         <is>
-          <t>Canopy 'Minimum' Air Flow Set Point % of Design</t>
+          <t>Quantity of Slaves per System</t>
         </is>
       </c>
       <c r="B73" s="17" t="n"/>
@@ -1240,7 +1182,7 @@
       <c r="E73" s="17" t="n"/>
       <c r="F73" s="17" t="n"/>
       <c r="G73" s="17" t="n"/>
-      <c r="H73" s="20" t="n">
+      <c r="H73" s="21" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="17" t="n"/>
@@ -1248,7 +1190,7 @@
     <row r="74">
       <c r="A74" s="19" t="inlineStr">
         <is>
-          <t>Canopy 'Idle' Air Flow Set % Of Design</t>
+          <t>UV Pressure Setpoint (Pa)</t>
         </is>
       </c>
       <c r="B74" s="17" t="n"/>
@@ -1257,15 +1199,15 @@
       <c r="E74" s="17" t="n"/>
       <c r="F74" s="17" t="n"/>
       <c r="G74" s="17" t="n"/>
-      <c r="H74" s="20" t="n">
-        <v>2</v>
+      <c r="H74" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="I74" s="17" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="19" t="inlineStr">
         <is>
-          <t>Canopy 'Cook' Air Flow Set % Of Design</t>
+          <t>Capture Jet Average Pressure Reading (Pa)</t>
         </is>
       </c>
       <c r="B75" s="17" t="n"/>
@@ -1274,7 +1216,7 @@
       <c r="E75" s="17" t="n"/>
       <c r="F75" s="17" t="n"/>
       <c r="G75" s="17" t="n"/>
-      <c r="H75" s="20" t="n">
+      <c r="H75" s="21" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="17" t="n"/>
@@ -1282,7 +1224,7 @@
     <row r="76">
       <c r="A76" s="19" t="inlineStr">
         <is>
-          <t>M.A.R.V.E.L. System Tested in 'Minimum' Mode</t>
+          <t>Airflow Proved on Each Controller</t>
         </is>
       </c>
       <c r="B76" s="17" t="n"/>
@@ -1291,7 +1233,7 @@
       <c r="E76" s="17" t="n"/>
       <c r="F76" s="17" t="n"/>
       <c r="G76" s="17" t="n"/>
-      <c r="H76" s="20" t="inlineStr">
+      <c r="H76" s="21" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1301,7 +1243,7 @@
     <row r="77">
       <c r="A77" s="19" t="inlineStr">
         <is>
-          <t>M.A.R.V.E.L. System Tested in 'Idle' Mode</t>
+          <t>Communication To All Canopy Controllers</t>
         </is>
       </c>
       <c r="B77" s="17" t="n"/>
@@ -1310,7 +1252,7 @@
       <c r="E77" s="17" t="n"/>
       <c r="F77" s="17" t="n"/>
       <c r="G77" s="17" t="n"/>
-      <c r="H77" s="20" t="inlineStr">
+      <c r="H77" s="21" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1320,7 +1262,7 @@
     <row r="78">
       <c r="A78" s="19" t="inlineStr">
         <is>
-          <t>M.A.R.V.E.L. System Tested in 'Cook' Mode</t>
+          <t>UV System Tested and Fully Operational</t>
         </is>
       </c>
       <c r="B78" s="17" t="n"/>
@@ -1329,7 +1271,7 @@
       <c r="E78" s="17" t="n"/>
       <c r="F78" s="17" t="n"/>
       <c r="G78" s="17" t="n"/>
-      <c r="H78" s="20" t="inlineStr">
+      <c r="H78" s="21" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1339,7 +1281,7 @@
     <row r="79">
       <c r="A79" s="19" t="inlineStr">
         <is>
-          <t>Cook Mode Run Time (Seconds)</t>
+          <t>All UV Safety Switches Tested</t>
         </is>
       </c>
       <c r="B79" s="17" t="n"/>
@@ -1348,15 +1290,17 @@
       <c r="E79" s="17" t="n"/>
       <c r="F79" s="17" t="n"/>
       <c r="G79" s="17" t="n"/>
-      <c r="H79" s="20" t="n">
-        <v>2</v>
+      <c r="H79" s="21" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
       </c>
       <c r="I79" s="17" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="19" t="inlineStr">
         <is>
-          <t>Testing of Canopy LIR-2 Sensors Successful</t>
+          <t>All Filter Safety Switches Tested</t>
         </is>
       </c>
       <c r="B80" s="17" t="n"/>
@@ -1365,661 +1309,328 @@
       <c r="E80" s="17" t="n"/>
       <c r="F80" s="17" t="n"/>
       <c r="G80" s="17" t="n"/>
-      <c r="H80" s="20" t="inlineStr">
+      <c r="H80" s="21" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
       <c r="I80" s="17" t="n"/>
     </row>
-    <row r="81">
-      <c r="A81" s="19" t="inlineStr">
-        <is>
-          <t>M.A.R.V.E.L. System Override Temp Setpoint (°C)</t>
-        </is>
-      </c>
-      <c r="B81" s="17" t="n"/>
-      <c r="C81" s="17" t="n"/>
-      <c r="D81" s="17" t="n"/>
-      <c r="E81" s="17" t="n"/>
-      <c r="F81" s="17" t="n"/>
-      <c r="G81" s="17" t="n"/>
-      <c r="H81" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" s="17" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="19" t="inlineStr">
-        <is>
-          <t>Override Test on Halton HMI Successful</t>
-        </is>
-      </c>
-      <c r="B82" s="17" t="n"/>
-      <c r="C82" s="17" t="n"/>
-      <c r="D82" s="17" t="n"/>
-      <c r="E82" s="17" t="n"/>
-      <c r="F82" s="17" t="n"/>
-      <c r="G82" s="17" t="n"/>
-      <c r="H82" s="20" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="I82" s="17" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="19" t="inlineStr">
-        <is>
-          <t>Auto-Balance of M.A.R.V.E.L. System Successful</t>
-        </is>
-      </c>
-      <c r="B83" s="17" t="n"/>
-      <c r="C83" s="17" t="n"/>
-      <c r="D83" s="17" t="n"/>
-      <c r="E83" s="17" t="n"/>
-      <c r="F83" s="17" t="n"/>
-      <c r="G83" s="17" t="n"/>
-      <c r="H83" s="20" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="I83" s="17" t="n"/>
-    </row>
-    <row r="87" ht="20" customHeight="1">
-      <c r="A87" s="7" t="inlineStr">
-        <is>
-          <t>EXTRACT AIR DATA</t>
+    <row r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>RESULTS SUMMARY - EXTRACT AIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="22" t="inlineStr">
+        <is>
+          <t>Drawing Number</t>
         </is>
       </c>
       <c r="B87" s="8" t="n"/>
-      <c r="C87" s="8" t="n"/>
+      <c r="C87" s="23" t="inlineStr">
+        <is>
+          <t>Design Flow Rate (m³/s)</t>
+        </is>
+      </c>
       <c r="D87" s="8" t="n"/>
-      <c r="E87" s="8" t="n"/>
+      <c r="E87" s="23" t="inlineStr">
+        <is>
+          <t>Actual Flowrate (m³/s)</t>
+        </is>
+      </c>
       <c r="F87" s="8" t="n"/>
-      <c r="G87" s="8" t="n"/>
+      <c r="G87" s="23" t="inlineStr">
+        <is>
+          <t>Percentage of Design</t>
+        </is>
+      </c>
       <c r="H87" s="8" t="n"/>
       <c r="I87" s="9" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="10" t="inlineStr">
-        <is>
-          <t>Drawing Number: 2332-323</t>
-        </is>
-      </c>
-      <c r="B88" s="11" t="n"/>
-      <c r="C88" s="11" t="n"/>
-      <c r="D88" s="11" t="n"/>
-      <c r="E88" s="11" t="n"/>
-      <c r="F88" s="11" t="n"/>
-      <c r="G88" s="11" t="n"/>
-      <c r="H88" s="11" t="n"/>
-      <c r="I88" s="12" t="n"/>
+      <c r="A88" s="16" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="B88" s="17" t="n"/>
+      <c r="C88" s="16" t="inlineStr">
+        <is>
+          <t>1.8 m³/s</t>
+        </is>
+      </c>
+      <c r="D88" s="17" t="n"/>
+      <c r="E88" s="16" t="inlineStr">
+        <is>
+          <t>0.0 m³/s</t>
+        </is>
+      </c>
+      <c r="F88" s="17" t="n"/>
+      <c r="G88" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H88" s="17" t="n"/>
+      <c r="I88" s="17" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="10" t="inlineStr">
-        <is>
-          <t>Location: 	cddccd</t>
-        </is>
-      </c>
-      <c r="B89" s="11" t="n"/>
-      <c r="C89" s="11" t="n"/>
-      <c r="D89" s="11" t="n"/>
-      <c r="E89" s="11" t="n"/>
-      <c r="F89" s="11" t="n"/>
-      <c r="G89" s="11" t="n"/>
-      <c r="H89" s="11" t="n"/>
-      <c r="I89" s="12" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="10" t="inlineStr">
-        <is>
-          <t>Model: 	KCH-I</t>
-        </is>
-      </c>
-      <c r="B90" s="11" t="n"/>
-      <c r="C90" s="11" t="n"/>
-      <c r="D90" s="11" t="n"/>
-      <c r="E90" s="11" t="n"/>
-      <c r="F90" s="11" t="n"/>
-      <c r="G90" s="11" t="n"/>
-      <c r="H90" s="11" t="n"/>
-      <c r="I90" s="12" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="10" t="inlineStr">
-        <is>
-          <t>Total Design Airflow: 	1.5 M³/s</t>
-        </is>
-      </c>
-      <c r="B91" s="11" t="n"/>
-      <c r="C91" s="11" t="n"/>
-      <c r="D91" s="11" t="n"/>
-      <c r="E91" s="11" t="n"/>
-      <c r="F91" s="11" t="n"/>
-      <c r="G91" s="11" t="n"/>
-      <c r="H91" s="11" t="n"/>
-      <c r="I91" s="12" t="n"/>
+      <c r="A89" s="16" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B89" s="17" t="n"/>
+      <c r="C89" s="16" t="inlineStr">
+        <is>
+          <t>1.8 m³/s</t>
+        </is>
+      </c>
+      <c r="D89" s="17" t="n"/>
+      <c r="E89" s="16" t="inlineStr">
+        <is>
+          <t>0.0 m³/s</t>
+        </is>
+      </c>
+      <c r="F89" s="17" t="n"/>
+      <c r="G89" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H89" s="17" t="n"/>
+      <c r="I89" s="17" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="10" t="inlineStr">
-        <is>
-          <t>Quantity of Canopy Sections: 	1</t>
-        </is>
-      </c>
-      <c r="B92" s="11" t="n"/>
-      <c r="C92" s="11" t="n"/>
-      <c r="D92" s="11" t="n"/>
-      <c r="E92" s="11" t="n"/>
-      <c r="F92" s="11" t="n"/>
-      <c r="G92" s="11" t="n"/>
-      <c r="H92" s="11" t="n"/>
-      <c r="I92" s="12" t="n"/>
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>RESULTS SUMMARY - SUPPLY AIR</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="10" t="inlineStr">
-        <is>
-          <t>Calculation: 	QV = Kf x √Pa</t>
-        </is>
-      </c>
-      <c r="B93" s="11" t="n"/>
-      <c r="C93" s="11" t="n"/>
-      <c r="D93" s="11" t="n"/>
-      <c r="E93" s="11" t="n"/>
-      <c r="F93" s="11" t="n"/>
-      <c r="G93" s="11" t="n"/>
-      <c r="H93" s="11" t="n"/>
-      <c r="I93" s="12" t="n"/>
+      <c r="A93" s="23" t="inlineStr">
+        <is>
+          <t>Drawing Number</t>
+        </is>
+      </c>
+      <c r="B93" s="17" t="n"/>
+      <c r="C93" s="23" t="inlineStr">
+        <is>
+          <t>Design Flow Rate (m³/s)</t>
+        </is>
+      </c>
+      <c r="D93" s="17" t="n"/>
+      <c r="E93" s="23" t="inlineStr">
+        <is>
+          <t>Actual Flowrate (m³/s)</t>
+        </is>
+      </c>
+      <c r="F93" s="17" t="n"/>
+      <c r="G93" s="23" t="inlineStr">
+        <is>
+          <t>Percentage of Design</t>
+        </is>
+      </c>
+      <c r="H93" s="17" t="n"/>
+      <c r="I93" s="17" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="16" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="B94" s="17" t="n"/>
+      <c r="C94" s="16" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D94" s="17" t="n"/>
+      <c r="E94" s="16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F94" s="17" t="n"/>
+      <c r="G94" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H94" s="17" t="n"/>
+      <c r="I94" s="17" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="13" t="inlineStr">
-        <is>
-          <t>EXTRACT AIR READINGS</t>
-        </is>
-      </c>
-      <c r="B95" s="14" t="n"/>
-      <c r="C95" s="14" t="n"/>
-      <c r="D95" s="14" t="n"/>
-      <c r="E95" s="14" t="n"/>
-      <c r="F95" s="14" t="n"/>
-      <c r="G95" s="14" t="n"/>
-      <c r="H95" s="14" t="n"/>
-      <c r="I95" s="15" t="n"/>
-    </row>
-    <row r="96" ht="30" customHeight="1">
-      <c r="A96" s="16" t="inlineStr">
-        <is>
-          <t>Section #</t>
-        </is>
-      </c>
-      <c r="B96" s="16" t="inlineStr">
-        <is>
-          <t>T.A.B Point Reading (Pa)</t>
-        </is>
-      </c>
-      <c r="D96" s="16" t="inlineStr">
-        <is>
-          <t>K-Factor (m3 /h)</t>
-        </is>
-      </c>
-      <c r="E96" s="17" t="n"/>
-      <c r="F96" s="16" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /h)</t>
-        </is>
-      </c>
-      <c r="G96" s="16" t="inlineStr">
-        <is>
-          <t>Flowrate (m3 /s)</t>
-        </is>
-      </c>
-      <c r="H96" s="16" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="I96" s="17" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B97" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 32.0 pa</t>
-        </is>
-      </c>
-      <c r="C97" s="17" t="n"/>
-      <c r="D97" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 143.6</t>
-        </is>
-      </c>
-      <c r="E97" s="17" t="n"/>
-      <c r="F97" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 812.32</t>
-        </is>
-      </c>
-      <c r="G97" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.23</t>
-        </is>
-      </c>
-      <c r="H97" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15.0%</t>
-        </is>
-      </c>
-      <c r="I97" s="17" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="18" t="n"/>
-      <c r="B98" s="18" t="n"/>
-      <c r="C98" s="18" t="n"/>
-      <c r="D98" s="18" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="19" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                0.23 M³/s</t>
-        </is>
-      </c>
-      <c r="B99" s="17" t="n"/>
-      <c r="C99" s="17" t="n"/>
-      <c r="D99" s="17" t="n"/>
+      <c r="A95" s="16" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B95" s="17" t="n"/>
+      <c r="C95" s="16" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D95" s="17" t="n"/>
+      <c r="E95" s="16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F95" s="17" t="n"/>
+      <c r="G95" s="16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H95" s="17" t="n"/>
+      <c r="I95" s="17" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="19" t="inlineStr">
-        <is>
-          <t>Total Percentage                                15.0%</t>
-        </is>
-      </c>
-      <c r="B100" s="17" t="n"/>
-      <c r="C100" s="17" t="n"/>
-      <c r="D100" s="17" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="inlineStr">
-        <is>
-          <t>RESULTS SUMMARY - EXTRACT AIR</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="21" t="inlineStr">
-        <is>
-          <t>Drawing Number</t>
-        </is>
-      </c>
-      <c r="B107" s="17" t="n"/>
-      <c r="C107" s="21" t="inlineStr">
-        <is>
-          <t>Design Flow Rate (m³/s)</t>
-        </is>
-      </c>
-      <c r="D107" s="17" t="n"/>
-      <c r="E107" s="21" t="inlineStr">
-        <is>
-          <t>Actual Flowrate (m³/s)</t>
-        </is>
-      </c>
-      <c r="F107" s="17" t="n"/>
-      <c r="G107" s="21" t="inlineStr">
-        <is>
-          <t>Percentage of Design</t>
-        </is>
-      </c>
-      <c r="H107" s="17" t="n"/>
-      <c r="I107" s="9" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="19" t="inlineStr">
-        <is>
-          <t>2332-1212</t>
-        </is>
-      </c>
-      <c r="B108" s="17" t="n"/>
-      <c r="C108" s="19" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="D108" s="17" t="n"/>
-      <c r="E108" s="19" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F108" s="17" t="n"/>
-      <c r="G108" s="19" t="inlineStr">
-        <is>
-          <t>36.7%</t>
-        </is>
-      </c>
-      <c r="H108" s="17" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="19" t="inlineStr">
-        <is>
-          <t>2332-323</t>
-        </is>
-      </c>
-      <c r="B109" s="17" t="n"/>
-      <c r="C109" s="19" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="D109" s="17" t="n"/>
-      <c r="E109" s="19" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="F109" s="17" t="n"/>
-      <c r="G109" s="19" t="inlineStr">
-        <is>
-          <t>15.3%</t>
-        </is>
-      </c>
-      <c r="H109" s="17" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="19" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B110" s="17" t="n"/>
-      <c r="C110" s="19" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="D110" s="17" t="n"/>
-      <c r="E110" s="19" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F110" s="17" t="n"/>
-      <c r="G110" s="19" t="inlineStr">
-        <is>
-          <t>27.0%</t>
-        </is>
-      </c>
-      <c r="H110" s="17" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="4" t="inlineStr">
-        <is>
-          <t>RESULTS SUMMARY - SUPPLY AIR</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="21" t="inlineStr">
-        <is>
-          <t>Drawing Number</t>
-        </is>
-      </c>
-      <c r="B114" s="17" t="n"/>
-      <c r="C114" s="21" t="inlineStr">
-        <is>
-          <t>Design Flow Rate (m³/s)</t>
-        </is>
-      </c>
-      <c r="D114" s="17" t="n"/>
-      <c r="E114" s="21" t="inlineStr">
-        <is>
-          <t>Actual Flowrate (m³/s)</t>
-        </is>
-      </c>
-      <c r="F114" s="17" t="n"/>
-      <c r="G114" s="21" t="inlineStr">
-        <is>
-          <t>Percentage of Design</t>
-        </is>
-      </c>
-      <c r="H114" s="17" t="n"/>
-      <c r="I114" s="9" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="19" t="inlineStr">
-        <is>
-          <t>2332-1212</t>
-        </is>
-      </c>
-      <c r="B115" s="17" t="n"/>
-      <c r="C115" s="19" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="D115" s="17" t="n"/>
-      <c r="E115" s="19" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F115" s="17" t="n"/>
-      <c r="G115" s="19" t="inlineStr">
-        <is>
-          <t>39.3%</t>
-        </is>
-      </c>
-      <c r="H115" s="17" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="19" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B116" s="17" t="n"/>
-      <c r="C116" s="19" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="D116" s="17" t="n"/>
-      <c r="E116" s="19" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F116" s="17" t="n"/>
-      <c r="G116" s="19" t="inlineStr">
-        <is>
-          <t>39.3%</t>
-        </is>
-      </c>
-      <c r="H116" s="17" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="21" t="inlineStr">
+      <c r="A100" s="23" t="inlineStr">
         <is>
           <t>ADDITIONAL NOTES</t>
         </is>
       </c>
-      <c r="B121" s="14" t="n"/>
-      <c r="C121" s="14" t="n"/>
-      <c r="D121" s="14" t="n"/>
-      <c r="E121" s="14" t="n"/>
-      <c r="F121" s="14" t="n"/>
-      <c r="G121" s="14" t="n"/>
-      <c r="H121" s="14" t="n"/>
-      <c r="I121" s="15" t="n"/>
-    </row>
-    <row r="122" ht="30" customHeight="1">
-      <c r="A122" s="22" t="inlineStr">
-        <is>
-          <t>dfdafe</t>
-        </is>
-      </c>
-      <c r="I122" s="23" t="n"/>
-    </row>
-    <row r="123" ht="30" customHeight="1">
-      <c r="A123" s="22" t="inlineStr">
-        <is>
-          <t>fefafef</t>
-        </is>
-      </c>
-      <c r="I123" s="23" t="n"/>
-    </row>
-    <row r="124" ht="30" customHeight="1">
-      <c r="A124" s="22" t="inlineStr"/>
-      <c r="I124" s="23" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="19" t="inlineStr">
+      <c r="B100" s="14" t="n"/>
+      <c r="C100" s="14" t="n"/>
+      <c r="D100" s="14" t="n"/>
+      <c r="E100" s="14" t="n"/>
+      <c r="F100" s="14" t="n"/>
+      <c r="G100" s="14" t="n"/>
+      <c r="H100" s="14" t="n"/>
+      <c r="I100" s="15" t="n"/>
+    </row>
+    <row r="101" ht="30" customHeight="1">
+      <c r="A101" s="24" t="inlineStr"/>
+      <c r="I101" s="25" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="19" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B125" s="17" t="n"/>
-      <c r="C125" s="19" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-      <c r="D125" s="17" t="n"/>
-      <c r="E125" s="17" t="n"/>
-      <c r="F125" s="17" t="n"/>
-      <c r="G125" s="17" t="n"/>
-      <c r="H125" s="17" t="n"/>
-      <c r="I125" s="17" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="19" t="inlineStr">
+      <c r="B102" s="17" t="n"/>
+      <c r="C102" s="19" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="D102" s="17" t="n"/>
+      <c r="E102" s="17" t="n"/>
+      <c r="F102" s="17" t="n"/>
+      <c r="G102" s="17" t="n"/>
+      <c r="H102" s="17" t="n"/>
+      <c r="I102" s="17" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="19" t="inlineStr">
         <is>
           <t>Print</t>
         </is>
       </c>
-      <c r="B126" s="17" t="n"/>
-      <c r="C126" s="19" t="inlineStr"/>
-      <c r="D126" s="17" t="n"/>
-      <c r="E126" s="17" t="n"/>
-      <c r="F126" s="17" t="n"/>
-      <c r="G126" s="17" t="n"/>
-      <c r="H126" s="17" t="n"/>
-      <c r="I126" s="17" t="n"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="19" t="inlineStr">
+      <c r="B103" s="17" t="n"/>
+      <c r="C103" s="19" t="inlineStr"/>
+      <c r="D103" s="17" t="n"/>
+      <c r="E103" s="17" t="n"/>
+      <c r="F103" s="17" t="n"/>
+      <c r="G103" s="17" t="n"/>
+      <c r="H103" s="17" t="n"/>
+      <c r="I103" s="17" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="19" t="inlineStr">
         <is>
           <t>Sign</t>
         </is>
       </c>
-      <c r="B127" s="17" t="n"/>
-    </row>
-    <row r="129"/>
+      <c r="B104" s="17" t="n"/>
+    </row>
+    <row r="106"/>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A62:I62"/>
+  <mergeCells count="69">
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C106:I106"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A101:I101"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="C102:I102"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A100:I100"/>
     <mergeCell ref="H79:I79"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A104:B104"/>
     <mergeCell ref="A79:G79"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C103:I103"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A48:I48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A75:G75"/>
     <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="H77:I77"/>
     <mergeCell ref="D64:E64"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="A87:I87"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="A75:G75"/>
     <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C129:I129"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="C125:I125"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="C126:I126"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A95:I95"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="G109:H109"/>
     <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A76:G76"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C87:D87"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="34" min="0" max="16383" man="1"/>
-    <brk id="149" min="0" max="16383" man="1"/>
+    <brk id="37" min="0" max="16383" man="1"/>
+    <brk id="126" min="0" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -172,11 +172,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,12 +914,12 @@
     </row>
     <row r="51">
       <c r="A51" s="18" t="n"/>
-      <c r="B51" s="18" t="n"/>
-      <c r="C51" s="18" t="n"/>
-      <c r="D51" s="18" t="n"/>
+      <c r="B51" s="19" t="n"/>
+      <c r="C51" s="19" t="n"/>
+      <c r="D51" s="20" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="19" t="inlineStr">
+      <c r="A52" s="21" t="inlineStr">
         <is>
           <t>Total Flowrate                                0.0 m³/s</t>
         </is>
@@ -930,7 +929,7 @@
       <c r="D52" s="17" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="19" t="inlineStr">
+      <c r="A53" s="21" t="inlineStr">
         <is>
           <t>Total Percentage                                0.0%</t>
         </is>
@@ -1131,12 +1130,12 @@
     </row>
     <row r="66">
       <c r="A66" s="18" t="n"/>
-      <c r="B66" s="18" t="n"/>
-      <c r="C66" s="18" t="n"/>
-      <c r="D66" s="18" t="n"/>
+      <c r="B66" s="19" t="n"/>
+      <c r="C66" s="19" t="n"/>
+      <c r="D66" s="20" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="19" t="inlineStr">
+      <c r="A67" s="21" t="inlineStr">
         <is>
           <t>Total Flowrate                                0.0 m³/s</t>
         </is>
@@ -1146,7 +1145,7 @@
       <c r="D67" s="17" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="19" t="inlineStr">
+      <c r="A68" s="21" t="inlineStr">
         <is>
           <t>Total Percentage                                0.0%</t>
         </is>
@@ -1156,7 +1155,7 @@
       <c r="D68" s="17" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="20" t="inlineStr">
+      <c r="A72" s="13" t="inlineStr">
         <is>
           <t>UV CAPTURE RAY SYSTEM FOR UVF</t>
         </is>
@@ -1171,7 +1170,7 @@
       <c r="I72" s="15" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="19" t="inlineStr">
+      <c r="A73" s="21" t="inlineStr">
         <is>
           <t>Quantity of Slaves per System</t>
         </is>
@@ -1182,13 +1181,13 @@
       <c r="E73" s="17" t="n"/>
       <c r="F73" s="17" t="n"/>
       <c r="G73" s="17" t="n"/>
-      <c r="H73" s="21" t="n">
+      <c r="H73" s="22" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="17" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="19" t="inlineStr">
+      <c r="A74" s="21" t="inlineStr">
         <is>
           <t>UV Pressure Setpoint (Pa)</t>
         </is>
@@ -1199,13 +1198,13 @@
       <c r="E74" s="17" t="n"/>
       <c r="F74" s="17" t="n"/>
       <c r="G74" s="17" t="n"/>
-      <c r="H74" s="21" t="n">
+      <c r="H74" s="22" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="17" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="19" t="inlineStr">
+      <c r="A75" s="21" t="inlineStr">
         <is>
           <t>Capture Jet Average Pressure Reading (Pa)</t>
         </is>
@@ -1216,13 +1215,13 @@
       <c r="E75" s="17" t="n"/>
       <c r="F75" s="17" t="n"/>
       <c r="G75" s="17" t="n"/>
-      <c r="H75" s="21" t="n">
+      <c r="H75" s="22" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="17" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="19" t="inlineStr">
+      <c r="A76" s="21" t="inlineStr">
         <is>
           <t>Airflow Proved on Each Controller</t>
         </is>
@@ -1233,7 +1232,7 @@
       <c r="E76" s="17" t="n"/>
       <c r="F76" s="17" t="n"/>
       <c r="G76" s="17" t="n"/>
-      <c r="H76" s="21" t="inlineStr">
+      <c r="H76" s="22" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1241,7 +1240,7 @@
       <c r="I76" s="17" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="19" t="inlineStr">
+      <c r="A77" s="21" t="inlineStr">
         <is>
           <t>Communication To All Canopy Controllers</t>
         </is>
@@ -1252,7 +1251,7 @@
       <c r="E77" s="17" t="n"/>
       <c r="F77" s="17" t="n"/>
       <c r="G77" s="17" t="n"/>
-      <c r="H77" s="21" t="inlineStr">
+      <c r="H77" s="22" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1260,7 +1259,7 @@
       <c r="I77" s="17" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="19" t="inlineStr">
+      <c r="A78" s="21" t="inlineStr">
         <is>
           <t>UV System Tested and Fully Operational</t>
         </is>
@@ -1271,7 +1270,7 @@
       <c r="E78" s="17" t="n"/>
       <c r="F78" s="17" t="n"/>
       <c r="G78" s="17" t="n"/>
-      <c r="H78" s="21" t="inlineStr">
+      <c r="H78" s="22" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1279,7 +1278,7 @@
       <c r="I78" s="17" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="19" t="inlineStr">
+      <c r="A79" s="21" t="inlineStr">
         <is>
           <t>All UV Safety Switches Tested</t>
         </is>
@@ -1290,7 +1289,7 @@
       <c r="E79" s="17" t="n"/>
       <c r="F79" s="17" t="n"/>
       <c r="G79" s="17" t="n"/>
-      <c r="H79" s="21" t="inlineStr">
+      <c r="H79" s="22" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1298,7 +1297,7 @@
       <c r="I79" s="17" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="19" t="inlineStr">
+      <c r="A80" s="21" t="inlineStr">
         <is>
           <t>All Filter Safety Switches Tested</t>
         </is>
@@ -1309,7 +1308,7 @@
       <c r="E80" s="17" t="n"/>
       <c r="F80" s="17" t="n"/>
       <c r="G80" s="17" t="n"/>
-      <c r="H80" s="21" t="inlineStr">
+      <c r="H80" s="22" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1324,25 +1323,25 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="22" t="inlineStr">
+      <c r="A87" s="23" t="inlineStr">
         <is>
           <t>Drawing Number</t>
         </is>
       </c>
       <c r="B87" s="8" t="n"/>
-      <c r="C87" s="23" t="inlineStr">
+      <c r="C87" s="24" t="inlineStr">
         <is>
           <t>Design Flow Rate (m³/s)</t>
         </is>
       </c>
       <c r="D87" s="8" t="n"/>
-      <c r="E87" s="23" t="inlineStr">
+      <c r="E87" s="24" t="inlineStr">
         <is>
           <t>Actual Flowrate (m³/s)</t>
         </is>
       </c>
       <c r="F87" s="8" t="n"/>
-      <c r="G87" s="23" t="inlineStr">
+      <c r="G87" s="24" t="inlineStr">
         <is>
           <t>Percentage of Design</t>
         </is>
@@ -1412,25 +1411,25 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="23" t="inlineStr">
+      <c r="A93" s="24" t="inlineStr">
         <is>
           <t>Drawing Number</t>
         </is>
       </c>
       <c r="B93" s="17" t="n"/>
-      <c r="C93" s="23" t="inlineStr">
+      <c r="C93" s="24" t="inlineStr">
         <is>
           <t>Design Flow Rate (m³/s)</t>
         </is>
       </c>
       <c r="D93" s="17" t="n"/>
-      <c r="E93" s="23" t="inlineStr">
+      <c r="E93" s="24" t="inlineStr">
         <is>
           <t>Actual Flowrate (m³/s)</t>
         </is>
       </c>
       <c r="F93" s="17" t="n"/>
-      <c r="G93" s="23" t="inlineStr">
+      <c r="G93" s="24" t="inlineStr">
         <is>
           <t>Percentage of Design</t>
         </is>
@@ -1493,7 +1492,7 @@
       <c r="I95" s="17" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="23" t="inlineStr">
+      <c r="A100" s="24" t="inlineStr">
         <is>
           <t>ADDITIONAL NOTES</t>
         </is>
@@ -1508,17 +1507,17 @@
       <c r="I100" s="15" t="n"/>
     </row>
     <row r="101" ht="30" customHeight="1">
-      <c r="A101" s="24" t="inlineStr"/>
-      <c r="I101" s="25" t="n"/>
+      <c r="A101" s="25" t="inlineStr"/>
+      <c r="I101" s="26" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="19" t="inlineStr">
+      <c r="A102" s="21" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
       <c r="B102" s="17" t="n"/>
-      <c r="C102" s="19" t="inlineStr">
+      <c r="C102" s="21" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
@@ -1531,13 +1530,13 @@
       <c r="I102" s="17" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="19" t="inlineStr">
+      <c r="A103" s="21" t="inlineStr">
         <is>
           <t>Print</t>
         </is>
       </c>
       <c r="B103" s="17" t="n"/>
-      <c r="C103" s="19" t="inlineStr"/>
+      <c r="C103" s="21" t="inlineStr"/>
       <c r="D103" s="17" t="n"/>
       <c r="E103" s="17" t="n"/>
       <c r="F103" s="17" t="n"/>
@@ -1546,7 +1545,7 @@
       <c r="I103" s="17" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="19" t="inlineStr">
+      <c r="A104" s="21" t="inlineStr">
         <is>
           <t>Sign</t>
         </is>
@@ -1555,7 +1554,7 @@
     </row>
     <row r="106"/>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="71">
     <mergeCell ref="A41:I41"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="H78:I78"/>
@@ -1591,6 +1590,7 @@
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="G88:I88"/>
     <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A51:D51"/>
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A100:I100"/>
     <mergeCell ref="H79:I79"/>
@@ -1611,6 +1611,7 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:D66"/>
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="A74:G74"/>

--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,10 @@
       <name val="Calibri"/>
       <color rgb="00000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
     </font>
     <font>
       <b val="1"/>
@@ -143,14 +147,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -158,7 +163,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -174,8 +179,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -304,10 +309,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>82</row>
+      <row>18</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1905000" cy="714375"/>
+    <ext cx="5905500" cy="1238250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -315,6 +320,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>145</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -617,7 +647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -646,738 +676,1458 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CLIENT:  </t>
+          <t xml:space="preserve">CLIENT: Cardiff Arena </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NAME:  </t>
+          <t xml:space="preserve">PROJECT NAME: Main Kitchen </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROJECT NUMBER:  </t>
+          <t xml:space="preserve">PROJECT NUMBER: 1234 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DATE OF VISIT: 2025-01-26 </t>
+          <t xml:space="preserve">DATE OF VISIT: 2025-02-05 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENGINEER(s):  </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+          <t xml:space="preserve">ENGINEER(s): Mike, Yazan </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Your Kitchen Ventilation System has the following serviceable technology:</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>KITCHEN CANOPY AIR READINGS</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="6" t="inlineStr">
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>EXTRACT AIR DATA</t>
         </is>
       </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
-      <c r="H30" s="7" t="n"/>
-      <c r="I30" s="8" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drawing Number: </t>
-        </is>
-      </c>
-      <c r="B31" s="10" t="n"/>
-      <c r="C31" s="10" t="n"/>
-      <c r="D31" s="10" t="n"/>
-      <c r="E31" s="10" t="n"/>
-      <c r="F31" s="10" t="n"/>
-      <c r="G31" s="10" t="n"/>
-      <c r="H31" s="10" t="n"/>
-      <c r="I31" s="11" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="B38" s="8" t="n"/>
+      <c r="C38" s="8" t="n"/>
+      <c r="D38" s="8" t="n"/>
+      <c r="E38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
+      <c r="G38" s="8" t="n"/>
+      <c r="H38" s="8" t="n"/>
+      <c r="I38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="10" t="inlineStr">
+        <is>
+          <t>Drawing Number: 123</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n"/>
+      <c r="C39" s="11" t="n"/>
+      <c r="D39" s="11" t="n"/>
+      <c r="E39" s="11" t="n"/>
+      <c r="F39" s="11" t="n"/>
+      <c r="G39" s="11" t="n"/>
+      <c r="H39" s="11" t="n"/>
+      <c r="I39" s="12" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Location: 	</t>
         </is>
       </c>
-      <c r="B32" s="10" t="n"/>
-      <c r="C32" s="10" t="n"/>
-      <c r="D32" s="10" t="n"/>
-      <c r="E32" s="10" t="n"/>
-      <c r="F32" s="10" t="n"/>
-      <c r="G32" s="10" t="n"/>
-      <c r="H32" s="10" t="n"/>
-      <c r="I32" s="11" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
+      <c r="B40" s="11" t="n"/>
+      <c r="C40" s="11" t="n"/>
+      <c r="D40" s="11" t="n"/>
+      <c r="E40" s="11" t="n"/>
+      <c r="F40" s="11" t="n"/>
+      <c r="G40" s="11" t="n"/>
+      <c r="H40" s="11" t="n"/>
+      <c r="I40" s="12" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>Model: 	KVF</t>
         </is>
       </c>
-      <c r="B33" s="10" t="n"/>
-      <c r="C33" s="10" t="n"/>
-      <c r="D33" s="10" t="n"/>
-      <c r="E33" s="10" t="n"/>
-      <c r="F33" s="10" t="n"/>
-      <c r="G33" s="10" t="n"/>
-      <c r="H33" s="10" t="n"/>
-      <c r="I33" s="11" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="inlineStr">
-        <is>
-          <t>Total Design Airflow: 	1.8 m³/s</t>
-        </is>
-      </c>
-      <c r="B34" s="10" t="n"/>
-      <c r="C34" s="10" t="n"/>
-      <c r="D34" s="10" t="n"/>
-      <c r="E34" s="10" t="n"/>
-      <c r="F34" s="10" t="n"/>
-      <c r="G34" s="10" t="n"/>
-      <c r="H34" s="10" t="n"/>
-      <c r="I34" s="11" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="inlineStr">
+      <c r="B41" s="11" t="n"/>
+      <c r="C41" s="11" t="n"/>
+      <c r="D41" s="11" t="n"/>
+      <c r="E41" s="11" t="n"/>
+      <c r="F41" s="11" t="n"/>
+      <c r="G41" s="11" t="n"/>
+      <c r="H41" s="11" t="n"/>
+      <c r="I41" s="12" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="10" t="inlineStr">
+        <is>
+          <t>Total Design Airflow: 	0.0 m³/s</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n"/>
+      <c r="C42" s="11" t="n"/>
+      <c r="D42" s="11" t="n"/>
+      <c r="E42" s="11" t="n"/>
+      <c r="F42" s="11" t="n"/>
+      <c r="G42" s="11" t="n"/>
+      <c r="H42" s="11" t="n"/>
+      <c r="I42" s="12" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	0</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n"/>
+      <c r="C43" s="11" t="n"/>
+      <c r="D43" s="11" t="n"/>
+      <c r="E43" s="11" t="n"/>
+      <c r="F43" s="11" t="n"/>
+      <c r="G43" s="11" t="n"/>
+      <c r="H43" s="11" t="n"/>
+      <c r="I43" s="12" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n"/>
+      <c r="C44" s="11" t="n"/>
+      <c r="D44" s="11" t="n"/>
+      <c r="E44" s="11" t="n"/>
+      <c r="F44" s="11" t="n"/>
+      <c r="G44" s="11" t="n"/>
+      <c r="H44" s="11" t="n"/>
+      <c r="I44" s="12" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="13" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR READINGS</t>
+        </is>
+      </c>
+      <c r="B45" s="14" t="n"/>
+      <c r="C45" s="14" t="n"/>
+      <c r="D45" s="14" t="n"/>
+      <c r="E45" s="14" t="n"/>
+      <c r="F45" s="14" t="n"/>
+      <c r="G45" s="14" t="n"/>
+      <c r="H45" s="14" t="n"/>
+      <c r="I45" s="15" t="n"/>
+    </row>
+    <row r="46" ht="30" customHeight="1">
+      <c r="A46" s="16" t="inlineStr">
+        <is>
+          <t>Section #</t>
+        </is>
+      </c>
+      <c r="B46" s="16" t="inlineStr">
+        <is>
+          <t>T.A.B Point Reading (Pa)</t>
+        </is>
+      </c>
+      <c r="C46" s="17" t="n"/>
+      <c r="D46" s="16" t="inlineStr">
+        <is>
+          <t>K-Factor (m³/h)</t>
+        </is>
+      </c>
+      <c r="E46" s="17" t="n"/>
+      <c r="F46" s="16" t="inlineStr">
+        <is>
+          <t>Flowrate (m³/h)</t>
+        </is>
+      </c>
+      <c r="G46" s="16" t="inlineStr">
+        <is>
+          <t>Flowrate (m³/s)</t>
+        </is>
+      </c>
+      <c r="H46" s="16" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="I46" s="17" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="18" t="n"/>
+      <c r="B47" s="19" t="n"/>
+      <c r="C47" s="19" t="n"/>
+      <c r="D47" s="20" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                0 m³/s</t>
+        </is>
+      </c>
+      <c r="B48" s="17" t="n"/>
+      <c r="C48" s="17" t="n"/>
+      <c r="D48" s="17" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="17" t="n"/>
+      <c r="B49" s="17" t="n"/>
+      <c r="C49" s="17" t="n"/>
+      <c r="D49" s="17" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="13" t="inlineStr">
+        <is>
+          <t>SUPPLY AIR DATA</t>
+        </is>
+      </c>
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="14" t="n"/>
+      <c r="D52" s="14" t="n"/>
+      <c r="E52" s="14" t="n"/>
+      <c r="F52" s="14" t="n"/>
+      <c r="G52" s="14" t="n"/>
+      <c r="H52" s="14" t="n"/>
+      <c r="I52" s="15" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="inlineStr">
+        <is>
+          <t>Drawing Number: 123</t>
+        </is>
+      </c>
+      <c r="B53" s="11" t="n"/>
+      <c r="C53" s="11" t="n"/>
+      <c r="D53" s="11" t="n"/>
+      <c r="E53" s="11" t="n"/>
+      <c r="F53" s="11" t="n"/>
+      <c r="G53" s="11" t="n"/>
+      <c r="H53" s="11" t="n"/>
+      <c r="I53" s="12" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Location: 	</t>
+        </is>
+      </c>
+      <c r="B54" s="11" t="n"/>
+      <c r="C54" s="11" t="n"/>
+      <c r="D54" s="11" t="n"/>
+      <c r="E54" s="11" t="n"/>
+      <c r="F54" s="11" t="n"/>
+      <c r="G54" s="11" t="n"/>
+      <c r="H54" s="11" t="n"/>
+      <c r="I54" s="12" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="10" t="inlineStr">
+        <is>
+          <t>Model: 	KVF</t>
+        </is>
+      </c>
+      <c r="B55" s="11" t="n"/>
+      <c r="C55" s="11" t="n"/>
+      <c r="D55" s="11" t="n"/>
+      <c r="E55" s="11" t="n"/>
+      <c r="F55" s="11" t="n"/>
+      <c r="G55" s="11" t="n"/>
+      <c r="H55" s="11" t="n"/>
+      <c r="I55" s="12" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="10" t="inlineStr">
+        <is>
+          <t>Total Supply Design Airflow: 	0.0 m³/s</t>
+        </is>
+      </c>
+      <c r="B56" s="11" t="n"/>
+      <c r="C56" s="11" t="n"/>
+      <c r="D56" s="11" t="n"/>
+      <c r="E56" s="11" t="n"/>
+      <c r="F56" s="11" t="n"/>
+      <c r="G56" s="11" t="n"/>
+      <c r="H56" s="11" t="n"/>
+      <c r="I56" s="12" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="10" t="inlineStr">
+        <is>
+          <t>Quantity of Canopy Sections: 	0</t>
+        </is>
+      </c>
+      <c r="B57" s="11" t="n"/>
+      <c r="C57" s="11" t="n"/>
+      <c r="D57" s="11" t="n"/>
+      <c r="E57" s="11" t="n"/>
+      <c r="F57" s="11" t="n"/>
+      <c r="G57" s="11" t="n"/>
+      <c r="H57" s="11" t="n"/>
+      <c r="I57" s="12" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="10" t="inlineStr">
+        <is>
+          <t>Calculation: 	QV = Kf x √Pa</t>
+        </is>
+      </c>
+      <c r="B58" s="11" t="n"/>
+      <c r="C58" s="11" t="n"/>
+      <c r="D58" s="11" t="n"/>
+      <c r="E58" s="11" t="n"/>
+      <c r="F58" s="11" t="n"/>
+      <c r="G58" s="11" t="n"/>
+      <c r="H58" s="11" t="n"/>
+      <c r="I58" s="12" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="13" t="inlineStr">
+        <is>
+          <t>SUPPLY AIR READINGS</t>
+        </is>
+      </c>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="14" t="n"/>
+      <c r="D59" s="14" t="n"/>
+      <c r="E59" s="14" t="n"/>
+      <c r="F59" s="14" t="n"/>
+      <c r="G59" s="14" t="n"/>
+      <c r="H59" s="14" t="n"/>
+      <c r="I59" s="15" t="n"/>
+    </row>
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="16" t="inlineStr">
+        <is>
+          <t>Section #</t>
+        </is>
+      </c>
+      <c r="B60" s="16" t="inlineStr">
+        <is>
+          <t>T.A.B Point Reading (Pa)</t>
+        </is>
+      </c>
+      <c r="C60" s="17" t="n"/>
+      <c r="D60" s="16" t="inlineStr">
+        <is>
+          <t>K-Factor (m³/h)</t>
+        </is>
+      </c>
+      <c r="E60" s="17" t="n"/>
+      <c r="F60" s="16" t="inlineStr">
+        <is>
+          <t>Flowrate (m³/h)</t>
+        </is>
+      </c>
+      <c r="G60" s="16" t="inlineStr">
+        <is>
+          <t>Flowrate (m³/s)</t>
+        </is>
+      </c>
+      <c r="H60" s="16" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="I60" s="17" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="18" t="n"/>
+      <c r="B61" s="19" t="n"/>
+      <c r="C61" s="19" t="n"/>
+      <c r="D61" s="20" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="21" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                0 m³/s</t>
+        </is>
+      </c>
+      <c r="B62" s="17" t="n"/>
+      <c r="C62" s="17" t="n"/>
+      <c r="D62" s="17" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="21" t="inlineStr">
+        <is>
+          <t>Total Percentage                                0%</t>
+        </is>
+      </c>
+      <c r="B63" s="17" t="n"/>
+      <c r="C63" s="17" t="n"/>
+      <c r="D63" s="17" t="n"/>
+    </row>
+    <row r="68" ht="20" customHeight="1">
+      <c r="A68" s="7" t="inlineStr">
+        <is>
+          <t>EXTRACT AIR DATA</t>
+        </is>
+      </c>
+      <c r="B68" s="8" t="n"/>
+      <c r="C68" s="8" t="n"/>
+      <c r="D68" s="8" t="n"/>
+      <c r="E68" s="8" t="n"/>
+      <c r="F68" s="8" t="n"/>
+      <c r="G68" s="8" t="n"/>
+      <c r="H68" s="8" t="n"/>
+      <c r="I68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="10" t="inlineStr">
+        <is>
+          <t>Drawing Number: 1</t>
+        </is>
+      </c>
+      <c r="B69" s="11" t="n"/>
+      <c r="C69" s="11" t="n"/>
+      <c r="D69" s="11" t="n"/>
+      <c r="E69" s="11" t="n"/>
+      <c r="F69" s="11" t="n"/>
+      <c r="G69" s="11" t="n"/>
+      <c r="H69" s="11" t="n"/>
+      <c r="I69" s="12" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Location: 	</t>
+        </is>
+      </c>
+      <c r="B70" s="11" t="n"/>
+      <c r="C70" s="11" t="n"/>
+      <c r="D70" s="11" t="n"/>
+      <c r="E70" s="11" t="n"/>
+      <c r="F70" s="11" t="n"/>
+      <c r="G70" s="11" t="n"/>
+      <c r="H70" s="11" t="n"/>
+      <c r="I70" s="12" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="10" t="inlineStr">
+        <is>
+          <t>Model: 	KVF</t>
+        </is>
+      </c>
+      <c r="B71" s="11" t="n"/>
+      <c r="C71" s="11" t="n"/>
+      <c r="D71" s="11" t="n"/>
+      <c r="E71" s="11" t="n"/>
+      <c r="F71" s="11" t="n"/>
+      <c r="G71" s="11" t="n"/>
+      <c r="H71" s="11" t="n"/>
+      <c r="I71" s="12" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="10" t="inlineStr">
+        <is>
+          <t>Total Design Airflow: 	0.0 m³/s</t>
+        </is>
+      </c>
+      <c r="B72" s="11" t="n"/>
+      <c r="C72" s="11" t="n"/>
+      <c r="D72" s="11" t="n"/>
+      <c r="E72" s="11" t="n"/>
+      <c r="F72" s="11" t="n"/>
+      <c r="G72" s="11" t="n"/>
+      <c r="H72" s="11" t="n"/>
+      <c r="I72" s="12" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="10" t="inlineStr">
         <is>
           <t>Quantity of Canopy Sections: 	1</t>
         </is>
       </c>
-      <c r="B35" s="10" t="n"/>
-      <c r="C35" s="10" t="n"/>
-      <c r="D35" s="10" t="n"/>
-      <c r="E35" s="10" t="n"/>
-      <c r="F35" s="10" t="n"/>
-      <c r="G35" s="10" t="n"/>
-      <c r="H35" s="10" t="n"/>
-      <c r="I35" s="11" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="inlineStr">
+      <c r="B73" s="11" t="n"/>
+      <c r="C73" s="11" t="n"/>
+      <c r="D73" s="11" t="n"/>
+      <c r="E73" s="11" t="n"/>
+      <c r="F73" s="11" t="n"/>
+      <c r="G73" s="11" t="n"/>
+      <c r="H73" s="11" t="n"/>
+      <c r="I73" s="12" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="10" t="inlineStr">
         <is>
           <t>Calculation: 	QV = Kf x √Pa</t>
         </is>
       </c>
-      <c r="B36" s="10" t="n"/>
-      <c r="C36" s="10" t="n"/>
-      <c r="D36" s="10" t="n"/>
-      <c r="E36" s="10" t="n"/>
-      <c r="F36" s="10" t="n"/>
-      <c r="G36" s="10" t="n"/>
-      <c r="H36" s="10" t="n"/>
-      <c r="I36" s="11" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="inlineStr">
+      <c r="B74" s="11" t="n"/>
+      <c r="C74" s="11" t="n"/>
+      <c r="D74" s="11" t="n"/>
+      <c r="E74" s="11" t="n"/>
+      <c r="F74" s="11" t="n"/>
+      <c r="G74" s="11" t="n"/>
+      <c r="H74" s="11" t="n"/>
+      <c r="I74" s="12" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="13" t="inlineStr">
         <is>
           <t>EXTRACT AIR READINGS</t>
         </is>
       </c>
-      <c r="B37" s="13" t="n"/>
-      <c r="C37" s="13" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="13" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="13" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="14" t="n"/>
-    </row>
-    <row r="38" ht="30" customHeight="1">
-      <c r="A38" s="15" t="inlineStr">
+      <c r="B75" s="14" t="n"/>
+      <c r="C75" s="14" t="n"/>
+      <c r="D75" s="14" t="n"/>
+      <c r="E75" s="14" t="n"/>
+      <c r="F75" s="14" t="n"/>
+      <c r="G75" s="14" t="n"/>
+      <c r="H75" s="14" t="n"/>
+      <c r="I75" s="15" t="n"/>
+    </row>
+    <row r="76" ht="30" customHeight="1">
+      <c r="A76" s="16" t="inlineStr">
         <is>
           <t>Section #</t>
         </is>
       </c>
-      <c r="B38" s="15" t="inlineStr">
+      <c r="B76" s="16" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
         </is>
       </c>
-      <c r="C38" s="16" t="n"/>
-      <c r="D38" s="15" t="inlineStr">
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="16" t="inlineStr">
         <is>
           <t>K-Factor (m³/h)</t>
         </is>
       </c>
-      <c r="E38" s="16" t="n"/>
-      <c r="F38" s="15" t="inlineStr">
+      <c r="E76" s="17" t="n"/>
+      <c r="F76" s="16" t="inlineStr">
         <is>
           <t>Flowrate (m³/h)</t>
         </is>
       </c>
-      <c r="G38" s="15" t="inlineStr">
+      <c r="G76" s="16" t="inlineStr">
         <is>
           <t>Flowrate (m³/s)</t>
         </is>
       </c>
-      <c r="H38" s="15" t="inlineStr">
+      <c r="H76" s="16" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
-      <c r="I38" s="16" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="15" t="inlineStr">
+      <c r="I76" s="17" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B39" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 40.0 Pa</t>
-        </is>
-      </c>
-      <c r="C39" s="16" t="n"/>
-      <c r="D39" s="15" t="inlineStr">
+      <c r="B77" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0 Pa</t>
+        </is>
+      </c>
+      <c r="C77" s="17" t="n"/>
+      <c r="D77" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 71.8</t>
         </is>
       </c>
-      <c r="E39" s="16" t="n"/>
-      <c r="F39" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 454.0</t>
-        </is>
-      </c>
-      <c r="G39" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.13</t>
-        </is>
-      </c>
-      <c r="H39" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.0%</t>
-        </is>
-      </c>
-      <c r="I39" s="16" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="17" t="n"/>
-      <c r="B40" s="18" t="n"/>
-      <c r="C40" s="18" t="n"/>
-      <c r="D40" s="19" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="20" t="inlineStr">
-        <is>
-          <t>Total Flowrate                                0.13 m³/s</t>
-        </is>
-      </c>
-      <c r="B41" s="16" t="n"/>
-      <c r="C41" s="16" t="n"/>
-      <c r="D41" s="16" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="20" t="inlineStr">
-        <is>
-          <t>Total Percentage                                7.0%</t>
-        </is>
-      </c>
-      <c r="B42" s="16" t="n"/>
-      <c r="C42" s="16" t="n"/>
-      <c r="D42" s="16" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="inlineStr">
+      <c r="E77" s="17" t="n"/>
+      <c r="F77" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="G77" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.0</t>
+        </is>
+      </c>
+      <c r="H77" s="22" t="n"/>
+      <c r="I77" s="17" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="18" t="n"/>
+      <c r="B78" s="19" t="n"/>
+      <c r="C78" s="19" t="n"/>
+      <c r="D78" s="20" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="21" t="inlineStr">
+        <is>
+          <t>Total Flowrate                                0.0 m³/s</t>
+        </is>
+      </c>
+      <c r="B79" s="17" t="n"/>
+      <c r="C79" s="17" t="n"/>
+      <c r="D79" s="17" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="17" t="n"/>
+      <c r="B80" s="17" t="n"/>
+      <c r="C80" s="17" t="n"/>
+      <c r="D80" s="17" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="13" t="inlineStr">
         <is>
           <t>SUPPLY AIR DATA</t>
         </is>
       </c>
-      <c r="B45" s="13" t="n"/>
-      <c r="C45" s="13" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="13" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="13" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="14" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drawing Number: </t>
-        </is>
-      </c>
-      <c r="B46" s="10" t="n"/>
-      <c r="C46" s="10" t="n"/>
-      <c r="D46" s="10" t="n"/>
-      <c r="E46" s="10" t="n"/>
-      <c r="F46" s="10" t="n"/>
-      <c r="G46" s="10" t="n"/>
-      <c r="H46" s="10" t="n"/>
-      <c r="I46" s="11" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="inlineStr">
+      <c r="B83" s="14" t="n"/>
+      <c r="C83" s="14" t="n"/>
+      <c r="D83" s="14" t="n"/>
+      <c r="E83" s="14" t="n"/>
+      <c r="F83" s="14" t="n"/>
+      <c r="G83" s="14" t="n"/>
+      <c r="H83" s="14" t="n"/>
+      <c r="I83" s="15" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="10" t="inlineStr">
+        <is>
+          <t>Drawing Number: 1</t>
+        </is>
+      </c>
+      <c r="B84" s="11" t="n"/>
+      <c r="C84" s="11" t="n"/>
+      <c r="D84" s="11" t="n"/>
+      <c r="E84" s="11" t="n"/>
+      <c r="F84" s="11" t="n"/>
+      <c r="G84" s="11" t="n"/>
+      <c r="H84" s="11" t="n"/>
+      <c r="I84" s="12" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Location: 	</t>
         </is>
       </c>
-      <c r="B47" s="10" t="n"/>
-      <c r="C47" s="10" t="n"/>
-      <c r="D47" s="10" t="n"/>
-      <c r="E47" s="10" t="n"/>
-      <c r="F47" s="10" t="n"/>
-      <c r="G47" s="10" t="n"/>
-      <c r="H47" s="10" t="n"/>
-      <c r="I47" s="11" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="inlineStr">
+      <c r="B85" s="11" t="n"/>
+      <c r="C85" s="11" t="n"/>
+      <c r="D85" s="11" t="n"/>
+      <c r="E85" s="11" t="n"/>
+      <c r="F85" s="11" t="n"/>
+      <c r="G85" s="11" t="n"/>
+      <c r="H85" s="11" t="n"/>
+      <c r="I85" s="12" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="10" t="inlineStr">
         <is>
           <t>Model: 	KVF</t>
         </is>
       </c>
-      <c r="B48" s="10" t="n"/>
-      <c r="C48" s="10" t="n"/>
-      <c r="D48" s="10" t="n"/>
-      <c r="E48" s="10" t="n"/>
-      <c r="F48" s="10" t="n"/>
-      <c r="G48" s="10" t="n"/>
-      <c r="H48" s="10" t="n"/>
-      <c r="I48" s="11" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="inlineStr">
+      <c r="B86" s="11" t="n"/>
+      <c r="C86" s="11" t="n"/>
+      <c r="D86" s="11" t="n"/>
+      <c r="E86" s="11" t="n"/>
+      <c r="F86" s="11" t="n"/>
+      <c r="G86" s="11" t="n"/>
+      <c r="H86" s="11" t="n"/>
+      <c r="I86" s="12" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="10" t="inlineStr">
         <is>
           <t>Total Supply Design Airflow: 	0.0 m³/s</t>
         </is>
       </c>
-      <c r="B49" s="10" t="n"/>
-      <c r="C49" s="10" t="n"/>
-      <c r="D49" s="10" t="n"/>
-      <c r="E49" s="10" t="n"/>
-      <c r="F49" s="10" t="n"/>
-      <c r="G49" s="10" t="n"/>
-      <c r="H49" s="10" t="n"/>
-      <c r="I49" s="11" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="inlineStr">
+      <c r="B87" s="11" t="n"/>
+      <c r="C87" s="11" t="n"/>
+      <c r="D87" s="11" t="n"/>
+      <c r="E87" s="11" t="n"/>
+      <c r="F87" s="11" t="n"/>
+      <c r="G87" s="11" t="n"/>
+      <c r="H87" s="11" t="n"/>
+      <c r="I87" s="12" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="10" t="inlineStr">
         <is>
           <t>Quantity of Canopy Sections: 	1</t>
         </is>
       </c>
-      <c r="B50" s="10" t="n"/>
-      <c r="C50" s="10" t="n"/>
-      <c r="D50" s="10" t="n"/>
-      <c r="E50" s="10" t="n"/>
-      <c r="F50" s="10" t="n"/>
-      <c r="G50" s="10" t="n"/>
-      <c r="H50" s="10" t="n"/>
-      <c r="I50" s="11" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="inlineStr">
+      <c r="B88" s="11" t="n"/>
+      <c r="C88" s="11" t="n"/>
+      <c r="D88" s="11" t="n"/>
+      <c r="E88" s="11" t="n"/>
+      <c r="F88" s="11" t="n"/>
+      <c r="G88" s="11" t="n"/>
+      <c r="H88" s="11" t="n"/>
+      <c r="I88" s="12" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="10" t="inlineStr">
         <is>
           <t>Calculation: 	QV = Kf x √Pa</t>
         </is>
       </c>
-      <c r="B51" s="10" t="n"/>
-      <c r="C51" s="10" t="n"/>
-      <c r="D51" s="10" t="n"/>
-      <c r="E51" s="10" t="n"/>
-      <c r="F51" s="10" t="n"/>
-      <c r="G51" s="10" t="n"/>
-      <c r="H51" s="10" t="n"/>
-      <c r="I51" s="11" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="12" t="inlineStr">
+      <c r="B89" s="11" t="n"/>
+      <c r="C89" s="11" t="n"/>
+      <c r="D89" s="11" t="n"/>
+      <c r="E89" s="11" t="n"/>
+      <c r="F89" s="11" t="n"/>
+      <c r="G89" s="11" t="n"/>
+      <c r="H89" s="11" t="n"/>
+      <c r="I89" s="12" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="13" t="inlineStr">
         <is>
           <t>SUPPLY AIR READINGS</t>
         </is>
       </c>
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="13" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="13" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="13" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="14" t="n"/>
-    </row>
-    <row r="53" ht="30" customHeight="1">
-      <c r="A53" s="15" t="inlineStr">
+      <c r="B90" s="14" t="n"/>
+      <c r="C90" s="14" t="n"/>
+      <c r="D90" s="14" t="n"/>
+      <c r="E90" s="14" t="n"/>
+      <c r="F90" s="14" t="n"/>
+      <c r="G90" s="14" t="n"/>
+      <c r="H90" s="14" t="n"/>
+      <c r="I90" s="15" t="n"/>
+    </row>
+    <row r="91" ht="30" customHeight="1">
+      <c r="A91" s="16" t="inlineStr">
         <is>
           <t>Section #</t>
         </is>
       </c>
-      <c r="B53" s="15" t="inlineStr">
+      <c r="B91" s="16" t="inlineStr">
         <is>
           <t>T.A.B Point Reading (Pa)</t>
         </is>
       </c>
-      <c r="C53" s="16" t="n"/>
-      <c r="D53" s="15" t="inlineStr">
+      <c r="C91" s="17" t="n"/>
+      <c r="D91" s="16" t="inlineStr">
         <is>
           <t>K-Factor (m³/h)</t>
         </is>
       </c>
-      <c r="E53" s="16" t="n"/>
-      <c r="F53" s="15" t="inlineStr">
+      <c r="E91" s="17" t="n"/>
+      <c r="F91" s="16" t="inlineStr">
         <is>
           <t>Flowrate (m³/h)</t>
         </is>
       </c>
-      <c r="G53" s="15" t="inlineStr">
+      <c r="G91" s="16" t="inlineStr">
         <is>
           <t>Flowrate (m³/s)</t>
         </is>
       </c>
-      <c r="H53" s="15" t="inlineStr">
+      <c r="H91" s="16" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
-      <c r="I53" s="16" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="15" t="inlineStr">
+      <c r="I91" s="17" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B54" s="15" t="inlineStr">
+      <c r="B92" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.0 Pa</t>
         </is>
       </c>
-      <c r="C54" s="16" t="n"/>
-      <c r="D54" s="15" t="inlineStr">
+      <c r="C92" s="17" t="n"/>
+      <c r="D92" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 121.7</t>
         </is>
       </c>
-      <c r="E54" s="16" t="n"/>
-      <c r="F54" s="15" t="inlineStr">
+      <c r="E92" s="17" t="n"/>
+      <c r="F92" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.0</t>
         </is>
       </c>
-      <c r="G54" s="15" t="inlineStr">
+      <c r="G92" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.0</t>
         </is>
       </c>
-      <c r="H54" s="21" t="n"/>
-      <c r="I54" s="16" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="17" t="n"/>
-      <c r="B55" s="18" t="n"/>
-      <c r="C55" s="18" t="n"/>
-      <c r="D55" s="19" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="20" t="inlineStr">
+      <c r="H92" s="22" t="n"/>
+      <c r="I92" s="17" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="18" t="n"/>
+      <c r="B93" s="19" t="n"/>
+      <c r="C93" s="19" t="n"/>
+      <c r="D93" s="20" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="21" t="inlineStr">
         <is>
           <t>Total Flowrate                                0.0 m³/s</t>
         </is>
       </c>
-      <c r="B56" s="16" t="n"/>
-      <c r="C56" s="16" t="n"/>
-      <c r="D56" s="16" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="20" t="inlineStr">
+      <c r="B94" s="17" t="n"/>
+      <c r="C94" s="17" t="n"/>
+      <c r="D94" s="17" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="21" t="inlineStr">
         <is>
           <t>Total Percentage                                0%</t>
         </is>
       </c>
-      <c r="B57" s="16" t="n"/>
-      <c r="C57" s="16" t="n"/>
-      <c r="D57" s="16" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+      <c r="B95" s="17" t="n"/>
+      <c r="C95" s="17" t="n"/>
+      <c r="D95" s="17" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="13" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. SYSTEM FOR KVF</t>
+        </is>
+      </c>
+      <c r="B99" s="14" t="n"/>
+      <c r="C99" s="14" t="n"/>
+      <c r="D99" s="14" t="n"/>
+      <c r="E99" s="14" t="n"/>
+      <c r="F99" s="14" t="n"/>
+      <c r="G99" s="14" t="n"/>
+      <c r="H99" s="14" t="n"/>
+      <c r="I99" s="15" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>Canopy 'Minimum' Air Flow Set Point % of Design</t>
+        </is>
+      </c>
+      <c r="B100" s="17" t="n"/>
+      <c r="C100" s="17" t="n"/>
+      <c r="D100" s="17" t="n"/>
+      <c r="E100" s="17" t="n"/>
+      <c r="F100" s="17" t="n"/>
+      <c r="G100" s="17" t="n"/>
+      <c r="H100" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="17" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>Canopy 'Idle' Air Flow Set % Of Design</t>
+        </is>
+      </c>
+      <c r="B101" s="17" t="n"/>
+      <c r="C101" s="17" t="n"/>
+      <c r="D101" s="17" t="n"/>
+      <c r="E101" s="17" t="n"/>
+      <c r="F101" s="17" t="n"/>
+      <c r="G101" s="17" t="n"/>
+      <c r="H101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" s="17" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>Canopy 'Cook' Air Flow Set % Of Design</t>
+        </is>
+      </c>
+      <c r="B102" s="17" t="n"/>
+      <c r="C102" s="17" t="n"/>
+      <c r="D102" s="17" t="n"/>
+      <c r="E102" s="17" t="n"/>
+      <c r="F102" s="17" t="n"/>
+      <c r="G102" s="17" t="n"/>
+      <c r="H102" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" s="17" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Tested in 'Minimum' Mode</t>
+        </is>
+      </c>
+      <c r="B103" s="17" t="n"/>
+      <c r="C103" s="17" t="n"/>
+      <c r="D103" s="17" t="n"/>
+      <c r="E103" s="17" t="n"/>
+      <c r="F103" s="17" t="n"/>
+      <c r="G103" s="17" t="n"/>
+      <c r="H103" s="22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I103" s="17" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Tested in 'Idle' Mode</t>
+        </is>
+      </c>
+      <c r="B104" s="17" t="n"/>
+      <c r="C104" s="17" t="n"/>
+      <c r="D104" s="17" t="n"/>
+      <c r="E104" s="17" t="n"/>
+      <c r="F104" s="17" t="n"/>
+      <c r="G104" s="17" t="n"/>
+      <c r="H104" s="22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I104" s="17" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Tested in 'Cook' Mode</t>
+        </is>
+      </c>
+      <c r="B105" s="17" t="n"/>
+      <c r="C105" s="17" t="n"/>
+      <c r="D105" s="17" t="n"/>
+      <c r="E105" s="17" t="n"/>
+      <c r="F105" s="17" t="n"/>
+      <c r="G105" s="17" t="n"/>
+      <c r="H105" s="22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I105" s="17" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>Cook Mode Run Time (Seconds)</t>
+        </is>
+      </c>
+      <c r="B106" s="17" t="n"/>
+      <c r="C106" s="17" t="n"/>
+      <c r="D106" s="17" t="n"/>
+      <c r="E106" s="17" t="n"/>
+      <c r="F106" s="17" t="n"/>
+      <c r="G106" s="17" t="n"/>
+      <c r="H106" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" s="17" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>Testing of Canopy LIR-2 Sensors Successful</t>
+        </is>
+      </c>
+      <c r="B107" s="17" t="n"/>
+      <c r="C107" s="17" t="n"/>
+      <c r="D107" s="17" t="n"/>
+      <c r="E107" s="17" t="n"/>
+      <c r="F107" s="17" t="n"/>
+      <c r="G107" s="17" t="n"/>
+      <c r="H107" s="22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I107" s="17" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>M.A.R.V.E.L. System Override Temp Setpoint (°C)</t>
+        </is>
+      </c>
+      <c r="B108" s="17" t="n"/>
+      <c r="C108" s="17" t="n"/>
+      <c r="D108" s="17" t="n"/>
+      <c r="E108" s="17" t="n"/>
+      <c r="F108" s="17" t="n"/>
+      <c r="G108" s="17" t="n"/>
+      <c r="H108" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="17" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>Override Test on Halton HMI Successful</t>
+        </is>
+      </c>
+      <c r="B109" s="17" t="n"/>
+      <c r="C109" s="17" t="n"/>
+      <c r="D109" s="17" t="n"/>
+      <c r="E109" s="17" t="n"/>
+      <c r="F109" s="17" t="n"/>
+      <c r="G109" s="17" t="n"/>
+      <c r="H109" s="22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I109" s="17" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>Auto-Balance of M.A.R.V.E.L. System Successful</t>
+        </is>
+      </c>
+      <c r="B110" s="17" t="n"/>
+      <c r="C110" s="17" t="n"/>
+      <c r="D110" s="17" t="n"/>
+      <c r="E110" s="17" t="n"/>
+      <c r="F110" s="17" t="n"/>
+      <c r="G110" s="17" t="n"/>
+      <c r="H110" s="22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I110" s="17" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="inlineStr">
         <is>
           <t>RESULTS SUMMARY - EXTRACT AIR</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="22" t="inlineStr">
+    <row r="117">
+      <c r="A117" s="23" t="inlineStr">
         <is>
           <t>Drawing Number</t>
         </is>
       </c>
-      <c r="B65" s="7" t="n"/>
-      <c r="C65" s="23" t="inlineStr">
+      <c r="B117" s="8" t="n"/>
+      <c r="C117" s="24" t="inlineStr">
         <is>
           <t>Design Flow Rate (m³/s)</t>
         </is>
       </c>
-      <c r="D65" s="7" t="n"/>
-      <c r="E65" s="23" t="inlineStr">
+      <c r="D117" s="8" t="n"/>
+      <c r="E117" s="24" t="inlineStr">
         <is>
           <t>Actual Flowrate (m³/s)</t>
         </is>
       </c>
-      <c r="F65" s="7" t="n"/>
-      <c r="G65" s="23" t="inlineStr">
+      <c r="F117" s="8" t="n"/>
+      <c r="G117" s="24" t="inlineStr">
         <is>
           <t>Percentage of Design</t>
         </is>
       </c>
-      <c r="H65" s="7" t="n"/>
-      <c r="I65" s="8" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="15" t="inlineStr"/>
-      <c r="B66" s="16" t="n"/>
-      <c r="C66" s="15" t="inlineStr">
-        <is>
-          <t>1.8 m³/s</t>
-        </is>
-      </c>
-      <c r="D66" s="16" t="n"/>
-      <c r="E66" s="15" t="inlineStr">
-        <is>
-          <t>0.13 m³/s</t>
-        </is>
-      </c>
-      <c r="F66" s="16" t="n"/>
-      <c r="G66" s="15" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
-      <c r="H66" s="16" t="n"/>
-      <c r="I66" s="16" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="15" t="inlineStr">
+      <c r="H117" s="8" t="n"/>
+      <c r="I117" s="9" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="16" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B67" s="16" t="n"/>
-      <c r="C67" s="15" t="inlineStr">
-        <is>
-          <t>1.8 m³/s</t>
-        </is>
-      </c>
-      <c r="D67" s="16" t="n"/>
-      <c r="E67" s="15" t="inlineStr">
-        <is>
-          <t>0.13 m³/s</t>
-        </is>
-      </c>
-      <c r="F67" s="16" t="n"/>
-      <c r="G67" s="15" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
-      <c r="H67" s="16" t="n"/>
-      <c r="I67" s="16" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="4" t="inlineStr">
+      <c r="B118" s="17" t="n"/>
+      <c r="C118" s="16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D118" s="17" t="n"/>
+      <c r="E118" s="16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F118" s="17" t="n"/>
+      <c r="G118" s="16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H118" s="17" t="n"/>
+      <c r="I118" s="17" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="inlineStr">
         <is>
           <t>RESULTS SUMMARY - SUPPLY AIR</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="23" t="inlineStr">
+    <row r="122">
+      <c r="A122" s="24" t="inlineStr">
         <is>
           <t>Drawing Number</t>
         </is>
       </c>
-      <c r="B71" s="16" t="n"/>
-      <c r="C71" s="23" t="inlineStr">
+      <c r="B122" s="17" t="n"/>
+      <c r="C122" s="24" t="inlineStr">
         <is>
           <t>Design Flow Rate (m³/s)</t>
         </is>
       </c>
-      <c r="D71" s="16" t="n"/>
-      <c r="E71" s="23" t="inlineStr">
+      <c r="D122" s="17" t="n"/>
+      <c r="E122" s="24" t="inlineStr">
         <is>
           <t>Actual Flowrate (m³/s)</t>
         </is>
       </c>
-      <c r="F71" s="16" t="n"/>
-      <c r="G71" s="23" t="inlineStr">
+      <c r="F122" s="17" t="n"/>
+      <c r="G122" s="24" t="inlineStr">
         <is>
           <t>Percentage of Design</t>
         </is>
       </c>
-      <c r="H71" s="16" t="n"/>
-      <c r="I71" s="16" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="15" t="inlineStr">
+      <c r="H122" s="17" t="n"/>
+      <c r="I122" s="17" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="16" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B72" s="16" t="n"/>
-      <c r="C72" s="15" t="inlineStr">
+      <c r="B123" s="17" t="n"/>
+      <c r="C123" s="16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D72" s="16" t="n"/>
-      <c r="E72" s="15" t="inlineStr">
+      <c r="D123" s="17" t="n"/>
+      <c r="E123" s="16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F72" s="16" t="n"/>
-      <c r="G72" s="15" t="inlineStr">
+      <c r="F123" s="17" t="n"/>
+      <c r="G123" s="16" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="H72" s="16" t="n"/>
-      <c r="I72" s="16" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="23" t="inlineStr">
+      <c r="H123" s="17" t="n"/>
+      <c r="I123" s="17" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>FINAL SYSTEM CHECKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="13" t="inlineStr">
+        <is>
+          <t>EDGE BOX</t>
+        </is>
+      </c>
+      <c r="B129" s="14" t="n"/>
+      <c r="C129" s="14" t="n"/>
+      <c r="D129" s="14" t="n"/>
+      <c r="E129" s="14" t="n"/>
+      <c r="F129" s="14" t="n"/>
+      <c r="G129" s="15" t="n"/>
+      <c r="H129" s="8" t="n"/>
+      <c r="I129" s="15" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="21" t="inlineStr">
+        <is>
+          <t>Edge Installed</t>
+        </is>
+      </c>
+      <c r="B130" s="17" t="n"/>
+      <c r="C130" s="17" t="n"/>
+      <c r="D130" s="17" t="n"/>
+      <c r="E130" s="17" t="n"/>
+      <c r="F130" s="17" t="n"/>
+      <c r="G130" s="17" t="n"/>
+      <c r="H130" s="22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I130" s="17" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>Edge ID</t>
+        </is>
+      </c>
+      <c r="B131" s="17" t="n"/>
+      <c r="C131" s="17" t="n"/>
+      <c r="D131" s="17" t="n"/>
+      <c r="E131" s="17" t="n"/>
+      <c r="F131" s="17" t="n"/>
+      <c r="G131" s="17" t="n"/>
+      <c r="H131" s="22" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="I131" s="17" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="21" t="inlineStr">
+        <is>
+          <t>Edge 4G Status</t>
+        </is>
+      </c>
+      <c r="B132" s="17" t="n"/>
+      <c r="C132" s="17" t="n"/>
+      <c r="D132" s="17" t="n"/>
+      <c r="E132" s="17" t="n"/>
+      <c r="F132" s="17" t="n"/>
+      <c r="G132" s="17" t="n"/>
+      <c r="H132" s="22" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="I132" s="17" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="21" t="inlineStr">
+        <is>
+          <t>LAN Connection Available</t>
+        </is>
+      </c>
+      <c r="B133" s="17" t="n"/>
+      <c r="C133" s="17" t="n"/>
+      <c r="D133" s="17" t="n"/>
+      <c r="E133" s="17" t="n"/>
+      <c r="F133" s="17" t="n"/>
+      <c r="G133" s="17" t="n"/>
+      <c r="H133" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I133" s="17" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="21" t="inlineStr">
+        <is>
+          <t>Modbus Operation</t>
+        </is>
+      </c>
+      <c r="B134" s="17" t="n"/>
+      <c r="C134" s="17" t="n"/>
+      <c r="D134" s="17" t="n"/>
+      <c r="E134" s="17" t="n"/>
+      <c r="F134" s="17" t="n"/>
+      <c r="G134" s="17" t="n"/>
+      <c r="H134" s="22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I134" s="17" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="24" t="inlineStr">
         <is>
           <t>ADDITIONAL NOTES</t>
         </is>
       </c>
-      <c r="B77" s="13" t="n"/>
-      <c r="C77" s="13" t="n"/>
-      <c r="D77" s="13" t="n"/>
-      <c r="E77" s="13" t="n"/>
-      <c r="F77" s="13" t="n"/>
-      <c r="G77" s="13" t="n"/>
-      <c r="H77" s="13" t="n"/>
-      <c r="I77" s="14" t="n"/>
-    </row>
-    <row r="78" ht="30" customHeight="1">
-      <c r="A78" s="24" t="inlineStr"/>
-      <c r="I78" s="25" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="20" t="inlineStr">
+      <c r="B140" s="14" t="n"/>
+      <c r="C140" s="14" t="n"/>
+      <c r="D140" s="14" t="n"/>
+      <c r="E140" s="14" t="n"/>
+      <c r="F140" s="14" t="n"/>
+      <c r="G140" s="14" t="n"/>
+      <c r="H140" s="14" t="n"/>
+      <c r="I140" s="15" t="n"/>
+    </row>
+    <row r="141" ht="30" customHeight="1">
+      <c r="A141" s="25" t="inlineStr">
+        <is>
+          <t>All good</t>
+        </is>
+      </c>
+      <c r="I141" s="26" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="21" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B79" s="16" t="n"/>
-      <c r="C79" s="20" t="inlineStr">
-        <is>
-          <t>2025-01-26</t>
-        </is>
-      </c>
-      <c r="D79" s="16" t="n"/>
-      <c r="E79" s="16" t="n"/>
-      <c r="F79" s="16" t="n"/>
-      <c r="G79" s="16" t="n"/>
-      <c r="H79" s="16" t="n"/>
-      <c r="I79" s="16" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="20" t="inlineStr">
+      <c r="B142" s="17" t="n"/>
+      <c r="C142" s="21" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="D142" s="17" t="n"/>
+      <c r="E142" s="17" t="n"/>
+      <c r="F142" s="17" t="n"/>
+      <c r="G142" s="17" t="n"/>
+      <c r="H142" s="17" t="n"/>
+      <c r="I142" s="17" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="21" t="inlineStr">
         <is>
           <t>Print</t>
         </is>
       </c>
-      <c r="B80" s="16" t="n"/>
-      <c r="C80" s="20" t="inlineStr"/>
-      <c r="D80" s="16" t="n"/>
-      <c r="E80" s="16" t="n"/>
-      <c r="F80" s="16" t="n"/>
-      <c r="G80" s="16" t="n"/>
-      <c r="H80" s="16" t="n"/>
-      <c r="I80" s="16" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="20" t="inlineStr">
+      <c r="B143" s="17" t="n"/>
+      <c r="C143" s="21" t="inlineStr">
+        <is>
+          <t>Mike, Yazan</t>
+        </is>
+      </c>
+      <c r="D143" s="17" t="n"/>
+      <c r="E143" s="17" t="n"/>
+      <c r="F143" s="17" t="n"/>
+      <c r="G143" s="17" t="n"/>
+      <c r="H143" s="17" t="n"/>
+      <c r="I143" s="17" t="n"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="21" t="inlineStr">
         <is>
           <t>Sign</t>
         </is>
       </c>
-      <c r="B81" s="16" t="n"/>
-    </row>
-    <row r="83"/>
+      <c r="B144" s="17" t="n"/>
+    </row>
+    <row r="146"/>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="D53:E53"/>
+  <mergeCells count="97">
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="A140:I140"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="H132:I132"/>
     <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="C80:I80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C143:I143"/>
+    <mergeCell ref="A83:I83"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="C142:I142"/>
+    <mergeCell ref="H104:I104"/>
     <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A134:G134"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A141:I141"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C146:I146"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="26" min="0" max="16383" man="1"/>
-    <brk id="103" min="0" max="16383" man="1"/>
+    <brk id="34" min="0" max="16383" man="1"/>
+    <brk id="166" min="0" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
